--- a/BackTest/2019-10-25 BackTest GXC.xlsx
+++ b/BackTest/2019-10-25 BackTest GXC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>70</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>22.80701754385965</v>
+      </c>
       <c r="L12" t="n">
         <v>469.5</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>71</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-9.523809523809524</v>
+      </c>
       <c r="L13" t="n">
         <v>470.7</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>81</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-9.523809523809524</v>
+      </c>
       <c r="L14" t="n">
         <v>469.3</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>91</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>2.127659574468085</v>
+      </c>
       <c r="L15" t="n">
         <v>469.9</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>102</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>2.127659574468085</v>
+      </c>
       <c r="L16" t="n">
         <v>468.9</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>103</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>4.166666666666666</v>
+      </c>
       <c r="L17" t="n">
         <v>469.1</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>110</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>6.122448979591836</v>
+      </c>
       <c r="L18" t="n">
         <v>470</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>112</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>470.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>113</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>4</v>
+      </c>
       <c r="L20" t="n">
         <v>470.2</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>122</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-26.92307692307692</v>
+      </c>
       <c r="L21" t="n">
         <v>469.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>122</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-25.49019607843137</v>
+      </c>
       <c r="L22" t="n">
         <v>468.1</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>123</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.818181818181818</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L23" t="n">
         <v>466.7</v>
@@ -1466,7 +1488,7 @@
         <v>132</v>
       </c>
       <c r="K24" t="n">
-        <v>-8.737864077669903</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="L24" t="n">
         <v>467.2</v>
@@ -1515,7 +1537,7 @@
         <v>141</v>
       </c>
       <c r="K25" t="n">
-        <v>9.803921568627452</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L25" t="n">
         <v>467.6</v>
@@ -1564,7 +1586,7 @@
         <v>141</v>
       </c>
       <c r="K26" t="n">
-        <v>5.154639175257731</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L26" t="n">
         <v>469.1</v>
@@ -1613,7 +1635,7 @@
         <v>141</v>
       </c>
       <c r="K27" t="n">
-        <v>18.6046511627907</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L27" t="n">
         <v>470.5</v>
@@ -1662,7 +1684,7 @@
         <v>141</v>
       </c>
       <c r="K28" t="n">
-        <v>18.6046511627907</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L28" t="n">
         <v>471.2</v>
@@ -1711,7 +1733,7 @@
         <v>141</v>
       </c>
       <c r="K29" t="n">
-        <v>12.5</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L29" t="n">
         <v>472.1</v>
@@ -1760,7 +1782,7 @@
         <v>141</v>
       </c>
       <c r="K30" t="n">
-        <v>11.39240506329114</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="L30" t="n">
         <v>472.9</v>
@@ -1809,7 +1831,7 @@
         <v>141</v>
       </c>
       <c r="K31" t="n">
-        <v>12.82051282051282</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="L31" t="n">
         <v>474.6</v>
@@ -1860,7 +1882,7 @@
         <v>141</v>
       </c>
       <c r="K32" t="n">
-        <v>4.225352112676056</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
         <v>476.3</v>
@@ -1911,7 +1933,7 @@
         <v>141</v>
       </c>
       <c r="K33" t="n">
-        <v>5.714285714285714</v>
+        <v>100</v>
       </c>
       <c r="L33" t="n">
         <v>478.1</v>
@@ -1961,9 +1983,7 @@
       <c r="J34" t="n">
         <v>141</v>
       </c>
-      <c r="K34" t="n">
-        <v>23.33333333333333</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>479</v>
       </c>
@@ -2012,9 +2032,7 @@
       <c r="J35" t="n">
         <v>141</v>
       </c>
-      <c r="K35" t="n">
-        <v>8</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>479</v>
       </c>
@@ -2064,7 +2082,7 @@
         <v>151</v>
       </c>
       <c r="K36" t="n">
-        <v>10.20408163265306</v>
+        <v>-100</v>
       </c>
       <c r="L36" t="n">
         <v>478</v>
@@ -2115,7 +2133,7 @@
         <v>160</v>
       </c>
       <c r="K37" t="n">
-        <v>22.80701754385965</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L37" t="n">
         <v>477.9</v>
@@ -2166,7 +2184,7 @@
         <v>161</v>
       </c>
       <c r="K38" t="n">
-        <v>13.72549019607843</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>477.9</v>
@@ -2217,7 +2235,7 @@
         <v>165</v>
       </c>
       <c r="K39" t="n">
-        <v>24.52830188679245</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L39" t="n">
         <v>478.3</v>
@@ -2268,7 +2286,7 @@
         <v>166</v>
       </c>
       <c r="K40" t="n">
-        <v>24.52830188679245</v>
+        <v>20</v>
       </c>
       <c r="L40" t="n">
         <v>478.8</v>
@@ -2319,7 +2337,7 @@
         <v>166</v>
       </c>
       <c r="K41" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L41" t="n">
         <v>479.3</v>
@@ -2370,7 +2388,7 @@
         <v>180</v>
       </c>
       <c r="K42" t="n">
-        <v>13.79310344827586</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L42" t="n">
         <v>478.4</v>
@@ -2421,7 +2439,7 @@
         <v>181</v>
       </c>
       <c r="K43" t="n">
-        <v>17.24137931034483</v>
+        <v>-20</v>
       </c>
       <c r="L43" t="n">
         <v>477.6</v>
@@ -2472,7 +2490,7 @@
         <v>183</v>
       </c>
       <c r="K44" t="n">
-        <v>5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L44" t="n">
         <v>477</v>
@@ -2523,7 +2541,7 @@
         <v>193</v>
       </c>
       <c r="K45" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>477.4</v>
@@ -2574,7 +2592,7 @@
         <v>193</v>
       </c>
       <c r="K46" t="n">
-        <v>7.692307692307693</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L46" t="n">
         <v>478.8</v>
@@ -2625,7 +2643,7 @@
         <v>201</v>
       </c>
       <c r="K47" t="n">
-        <v>-6.666666666666667</v>
+        <v>-10</v>
       </c>
       <c r="L47" t="n">
         <v>478.5</v>
@@ -2676,7 +2694,7 @@
         <v>204</v>
       </c>
       <c r="K48" t="n">
-        <v>-11.11111111111111</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L48" t="n">
         <v>477.8</v>
@@ -2727,7 +2745,7 @@
         <v>206</v>
       </c>
       <c r="K49" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L49" t="n">
         <v>476.9</v>
@@ -2778,7 +2796,7 @@
         <v>216</v>
       </c>
       <c r="K50" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>476.9</v>
@@ -2829,7 +2847,7 @@
         <v>216</v>
       </c>
       <c r="K51" t="n">
-        <v>6.666666666666667</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L51" t="n">
         <v>476.9</v>
@@ -2880,7 +2898,7 @@
         <v>217</v>
       </c>
       <c r="K52" t="n">
-        <v>5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>478.2</v>
@@ -2931,7 +2949,7 @@
         <v>221</v>
       </c>
       <c r="K53" t="n">
-        <v>10</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L53" t="n">
         <v>479.8</v>
@@ -2982,7 +3000,7 @@
         <v>233</v>
       </c>
       <c r="K54" t="n">
-        <v>-4.347826086956522</v>
+        <v>-20</v>
       </c>
       <c r="L54" t="n">
         <v>480</v>
@@ -3033,7 +3051,7 @@
         <v>234</v>
       </c>
       <c r="K55" t="n">
-        <v>-5.376344086021505</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L55" t="n">
         <v>479.1</v>
@@ -3084,7 +3102,7 @@
         <v>234</v>
       </c>
       <c r="K56" t="n">
-        <v>6.024096385542169</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L56" t="n">
         <v>478.2</v>
@@ -3135,7 +3153,7 @@
         <v>235</v>
       </c>
       <c r="K57" t="n">
-        <v>-6.666666666666667</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L57" t="n">
         <v>478</v>
@@ -3186,7 +3204,7 @@
         <v>242</v>
       </c>
       <c r="K58" t="n">
-        <v>1.234567901234568</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L58" t="n">
         <v>478.8</v>
@@ -3237,7 +3255,7 @@
         <v>252</v>
       </c>
       <c r="K59" t="n">
-        <v>-14.94252873563219</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L59" t="n">
         <v>478.4</v>
@@ -3288,7 +3306,7 @@
         <v>257</v>
       </c>
       <c r="K60" t="n">
-        <v>-9.890109890109891</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L60" t="n">
         <v>477.5</v>
@@ -3339,7 +3357,7 @@
         <v>262</v>
       </c>
       <c r="K61" t="n">
-        <v>-14.58333333333333</v>
+        <v>-28.88888888888889</v>
       </c>
       <c r="L61" t="n">
         <v>476.1</v>
@@ -3390,7 +3408,7 @@
         <v>269</v>
       </c>
       <c r="K62" t="n">
-        <v>7.865168539325842</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="L62" t="n">
         <v>475.5</v>
@@ -3441,7 +3459,7 @@
         <v>271</v>
       </c>
       <c r="K63" t="n">
-        <v>8.888888888888889</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L63" t="n">
         <v>474.7</v>
@@ -3492,7 +3510,7 @@
         <v>277</v>
       </c>
       <c r="K64" t="n">
-        <v>12.76595744680851</v>
+        <v>25.58139534883721</v>
       </c>
       <c r="L64" t="n">
         <v>475.7</v>
@@ -3543,7 +3561,7 @@
         <v>278</v>
       </c>
       <c r="K65" t="n">
-        <v>1.176470588235294</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="L65" t="n">
         <v>476.7</v>
@@ -3594,7 +3612,7 @@
         <v>284</v>
       </c>
       <c r="K66" t="n">
-        <v>7.692307692307693</v>
+        <v>34.69387755102041</v>
       </c>
       <c r="L66" t="n">
         <v>478.3</v>
@@ -3645,7 +3663,7 @@
         <v>287</v>
       </c>
       <c r="K67" t="n">
-        <v>13.95348837209302</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L67" t="n">
         <v>479.7</v>
@@ -3696,7 +3714,7 @@
         <v>300</v>
       </c>
       <c r="K68" t="n">
-        <v>2.083333333333333</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L68" t="n">
         <v>479.1</v>
@@ -3747,7 +3765,7 @@
         <v>312</v>
       </c>
       <c r="K69" t="n">
-        <v>11.32075471698113</v>
+        <v>20</v>
       </c>
       <c r="L69" t="n">
         <v>480.7</v>
@@ -3798,7 +3816,7 @@
         <v>313</v>
       </c>
       <c r="K70" t="n">
-        <v>3.092783505154639</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>481.9</v>
@@ -3849,7 +3867,7 @@
         <v>315</v>
       </c>
       <c r="K71" t="n">
-        <v>1.01010101010101</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L71" t="n">
         <v>483.4</v>
@@ -3900,7 +3918,7 @@
         <v>315</v>
       </c>
       <c r="K72" t="n">
-        <v>2.040816326530612</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="L72" t="n">
         <v>484.2</v>
@@ -3951,7 +3969,7 @@
         <v>327</v>
       </c>
       <c r="K73" t="n">
-        <v>-13.20754716981132</v>
+        <v>-24</v>
       </c>
       <c r="L73" t="n">
         <v>483.6</v>
@@ -4002,7 +4020,7 @@
         <v>332</v>
       </c>
       <c r="K74" t="n">
-        <v>3.03030303030303</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L74" t="n">
         <v>482.9</v>
@@ -4053,7 +4071,7 @@
         <v>342</v>
       </c>
       <c r="K75" t="n">
-        <v>12.96296296296296</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L75" t="n">
         <v>483.3</v>
@@ -4104,7 +4122,7 @@
         <v>344</v>
       </c>
       <c r="K76" t="n">
-        <v>10.90909090909091</v>
+        <v>-1.754385964912281</v>
       </c>
       <c r="L76" t="n">
         <v>482.9</v>
@@ -4155,7 +4173,7 @@
         <v>358</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.8130081300813009</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L77" t="n">
         <v>481.4</v>
@@ -4206,7 +4224,7 @@
         <v>368</v>
       </c>
       <c r="K78" t="n">
-        <v>1.587301587301587</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L78" t="n">
         <v>482.2</v>
@@ -4257,7 +4275,7 @@
         <v>369</v>
       </c>
       <c r="K79" t="n">
-        <v>11.11111111111111</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L79" t="n">
         <v>481.9</v>
@@ -4308,7 +4326,7 @@
         <v>374</v>
       </c>
       <c r="K80" t="n">
-        <v>11.11111111111111</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="L80" t="n">
         <v>482</v>
@@ -4359,7 +4377,7 @@
         <v>376</v>
       </c>
       <c r="K81" t="n">
-        <v>14.03508771929824</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="L81" t="n">
         <v>482.1</v>
@@ -4410,7 +4428,7 @@
         <v>376</v>
       </c>
       <c r="K82" t="n">
-        <v>8.411214953271028</v>
+        <v>26.53061224489796</v>
       </c>
       <c r="L82" t="n">
         <v>482.2</v>
@@ -4461,7 +4479,7 @@
         <v>387</v>
       </c>
       <c r="K83" t="n">
-        <v>-3.448275862068965</v>
+        <v>-5.454545454545454</v>
       </c>
       <c r="L83" t="n">
         <v>482.4</v>
@@ -4512,7 +4530,7 @@
         <v>395</v>
       </c>
       <c r="K84" t="n">
-        <v>-1.694915254237288</v>
+        <v>-9.433962264150944</v>
       </c>
       <c r="L84" t="n">
         <v>482.9</v>
@@ -4563,7 +4581,7 @@
         <v>395</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.8547008547008548</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L85" t="n">
         <v>482.4</v>
@@ -4614,7 +4632,7 @@
         <v>395</v>
       </c>
       <c r="K86" t="n">
-        <v>-6.306306306306306</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L86" t="n">
         <v>482.1</v>
@@ -4665,7 +4683,7 @@
         <v>397</v>
       </c>
       <c r="K87" t="n">
-        <v>-5.454545454545454</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L87" t="n">
         <v>483</v>
@@ -4716,7 +4734,7 @@
         <v>401</v>
       </c>
       <c r="K88" t="n">
-        <v>2.97029702970297</v>
+        <v>-18.75</v>
       </c>
       <c r="L88" t="n">
         <v>482.5</v>
@@ -4767,7 +4785,7 @@
         <v>401</v>
       </c>
       <c r="K89" t="n">
-        <v>-10.1123595505618</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L89" t="n">
         <v>481.9</v>
@@ -4818,7 +4836,7 @@
         <v>405</v>
       </c>
       <c r="K90" t="n">
-        <v>-15.21739130434783</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L90" t="n">
         <v>480.4</v>
@@ -4869,7 +4887,7 @@
         <v>405</v>
       </c>
       <c r="K91" t="n">
-        <v>-13.33333333333333</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L91" t="n">
         <v>479.1</v>
@@ -4920,7 +4938,7 @@
         <v>407</v>
       </c>
       <c r="K92" t="n">
-        <v>-15.21739130434783</v>
+        <v>-20</v>
       </c>
       <c r="L92" t="n">
         <v>477.6</v>
@@ -4971,7 +4989,7 @@
         <v>412</v>
       </c>
       <c r="K93" t="n">
-        <v>-8.235294117647058</v>
+        <v>-100</v>
       </c>
       <c r="L93" t="n">
         <v>476.7</v>
@@ -5022,7 +5040,7 @@
         <v>416</v>
       </c>
       <c r="K94" t="n">
-        <v>-19.04761904761905</v>
+        <v>-100</v>
       </c>
       <c r="L94" t="n">
         <v>474.6</v>
@@ -5073,7 +5091,7 @@
         <v>416</v>
       </c>
       <c r="K95" t="n">
-        <v>-35.13513513513514</v>
+        <v>-100</v>
       </c>
       <c r="L95" t="n">
         <v>472.5</v>
@@ -5124,7 +5142,7 @@
         <v>425</v>
       </c>
       <c r="K96" t="n">
-        <v>-18.51851851851852</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L96" t="n">
         <v>471.3</v>
@@ -5175,7 +5193,7 @@
         <v>434</v>
       </c>
       <c r="K97" t="n">
-        <v>-13.1578947368421</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L97" t="n">
         <v>469.4</v>
@@ -5226,7 +5244,7 @@
         <v>434</v>
       </c>
       <c r="K98" t="n">
-        <v>-30.3030303030303</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L98" t="n">
         <v>467.9</v>
@@ -5277,7 +5295,7 @@
         <v>434</v>
       </c>
       <c r="K99" t="n">
-        <v>-32.30769230769231</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L99" t="n">
         <v>466.4</v>
@@ -5328,7 +5346,7 @@
         <v>442</v>
       </c>
       <c r="K100" t="n">
-        <v>-26.47058823529412</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L100" t="n">
         <v>466.1</v>
@@ -5379,7 +5397,7 @@
         <v>443</v>
       </c>
       <c r="K101" t="n">
-        <v>-22.38805970149254</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>465.9</v>
@@ -5430,7 +5448,7 @@
         <v>443</v>
       </c>
       <c r="K102" t="n">
-        <v>-22.38805970149254</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L102" t="n">
         <v>465.9</v>
@@ -5481,7 +5499,7 @@
         <v>443</v>
       </c>
       <c r="K103" t="n">
-        <v>-7.142857142857142</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L103" t="n">
         <v>466.4</v>
@@ -5532,7 +5550,7 @@
         <v>458</v>
       </c>
       <c r="K104" t="n">
-        <v>-42.85714285714285</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L104" t="n">
         <v>465.8</v>
@@ -5583,7 +5601,7 @@
         <v>477</v>
       </c>
       <c r="K105" t="n">
-        <v>-9.75609756097561</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L105" t="n">
         <v>467.1</v>
@@ -5634,7 +5652,7 @@
         <v>477</v>
       </c>
       <c r="K106" t="n">
-        <v>-9.75609756097561</v>
+        <v>30.23255813953488</v>
       </c>
       <c r="L106" t="n">
         <v>467.5</v>
@@ -5685,7 +5703,7 @@
         <v>477</v>
       </c>
       <c r="K107" t="n">
-        <v>-7.5</v>
+        <v>30.23255813953488</v>
       </c>
       <c r="L107" t="n">
         <v>468.8</v>
@@ -5736,7 +5754,7 @@
         <v>477</v>
       </c>
       <c r="K108" t="n">
-        <v>-2.631578947368421</v>
+        <v>30.23255813953488</v>
       </c>
       <c r="L108" t="n">
         <v>470.1</v>
@@ -5787,7 +5805,7 @@
         <v>480</v>
       </c>
       <c r="K109" t="n">
-        <v>-6.329113924050633</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L109" t="n">
         <v>471.1</v>
@@ -5838,7 +5856,7 @@
         <v>483</v>
       </c>
       <c r="K110" t="n">
-        <v>2.564102564102564</v>
+        <v>10</v>
       </c>
       <c r="L110" t="n">
         <v>471.6</v>
@@ -5889,7 +5907,7 @@
         <v>486</v>
       </c>
       <c r="K111" t="n">
-        <v>6.172839506172839</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="L111" t="n">
         <v>472.3</v>
@@ -5940,7 +5958,7 @@
         <v>486</v>
       </c>
       <c r="K112" t="n">
-        <v>8.860759493670885</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="L112" t="n">
         <v>473</v>
@@ -5991,7 +6009,7 @@
         <v>486</v>
       </c>
       <c r="K113" t="n">
-        <v>16.21621621621622</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="L113" t="n">
         <v>473.7</v>
@@ -6042,7 +6060,7 @@
         <v>486</v>
       </c>
       <c r="K114" t="n">
-        <v>22.85714285714286</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L114" t="n">
         <v>475.9</v>
@@ -6093,7 +6111,7 @@
         <v>486</v>
       </c>
       <c r="K115" t="n">
-        <v>22.85714285714286</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L115" t="n">
         <v>476.2</v>
@@ -6144,7 +6162,7 @@
         <v>486</v>
       </c>
       <c r="K116" t="n">
-        <v>11.47540983606557</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>476.5</v>
@@ -6195,7 +6213,7 @@
         <v>488</v>
       </c>
       <c r="K117" t="n">
-        <v>33.33333333333333</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L117" t="n">
         <v>477</v>
@@ -6246,7 +6264,7 @@
         <v>501</v>
       </c>
       <c r="K118" t="n">
-        <v>7.462686567164178</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L118" t="n">
         <v>476.2</v>
@@ -6297,7 +6315,7 @@
         <v>514</v>
       </c>
       <c r="K119" t="n">
-        <v>22.5</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L119" t="n">
         <v>477</v>
@@ -6348,7 +6366,7 @@
         <v>518</v>
       </c>
       <c r="K120" t="n">
-        <v>18.42105263157895</v>
+        <v>18.75</v>
       </c>
       <c r="L120" t="n">
         <v>477.9</v>
@@ -6399,7 +6417,7 @@
         <v>523</v>
       </c>
       <c r="K121" t="n">
-        <v>22.5</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L121" t="n">
         <v>479</v>
@@ -6450,7 +6468,7 @@
         <v>527</v>
       </c>
       <c r="K122" t="n">
-        <v>16.66666666666666</v>
+        <v>17.07317073170732</v>
       </c>
       <c r="L122" t="n">
         <v>479.7</v>
@@ -6501,7 +6519,7 @@
         <v>540</v>
       </c>
       <c r="K123" t="n">
-        <v>1.030927835051546</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L123" t="n">
         <v>479.1</v>
@@ -6552,7 +6570,7 @@
         <v>540</v>
       </c>
       <c r="K124" t="n">
-        <v>19.51219512195122</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L124" t="n">
         <v>478.5</v>
@@ -6603,7 +6621,7 @@
         <v>549</v>
       </c>
       <c r="K125" t="n">
-        <v>8.333333333333332</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L125" t="n">
         <v>478.8</v>
@@ -6654,7 +6672,7 @@
         <v>549</v>
       </c>
       <c r="K126" t="n">
-        <v>8.333333333333332</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="L126" t="n">
         <v>479.1</v>
@@ -6705,7 +6723,7 @@
         <v>555</v>
       </c>
       <c r="K127" t="n">
-        <v>15.38461538461539</v>
+        <v>37.03703703703704</v>
       </c>
       <c r="L127" t="n">
         <v>479.8</v>
@@ -6756,7 +6774,7 @@
         <v>559</v>
       </c>
       <c r="K128" t="n">
-        <v>9.75609756097561</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L128" t="n">
         <v>481.4</v>
@@ -6807,7 +6825,7 @@
         <v>570</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L129" t="n">
         <v>480.6</v>
@@ -6858,7 +6876,7 @@
         <v>583</v>
       </c>
       <c r="K130" t="n">
-        <v>10</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L130" t="n">
         <v>480.7</v>
@@ -6909,7 +6927,7 @@
         <v>584</v>
       </c>
       <c r="K131" t="n">
-        <v>6.122448979591836</v>
+        <v>-1.754385964912281</v>
       </c>
       <c r="L131" t="n">
         <v>480.2</v>
@@ -6960,7 +6978,7 @@
         <v>588</v>
       </c>
       <c r="K132" t="n">
-        <v>9.803921568627452</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>480.5</v>
@@ -7011,7 +7029,7 @@
         <v>588</v>
       </c>
       <c r="K133" t="n">
-        <v>9.803921568627452</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L133" t="n">
         <v>482.1</v>
@@ -7062,7 +7080,7 @@
         <v>589</v>
       </c>
       <c r="K134" t="n">
-        <v>10.67961165048544</v>
+        <v>20</v>
       </c>
       <c r="L134" t="n">
         <v>483.8</v>
@@ -7113,7 +7131,7 @@
         <v>591</v>
       </c>
       <c r="K135" t="n">
-        <v>8.571428571428571</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L135" t="n">
         <v>484.4</v>
@@ -7164,7 +7182,7 @@
         <v>594</v>
       </c>
       <c r="K136" t="n">
-        <v>5.555555555555555</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L136" t="n">
         <v>484.7</v>
@@ -7215,7 +7233,7 @@
         <v>604</v>
       </c>
       <c r="K137" t="n">
-        <v>-5.172413793103448</v>
+        <v>-20</v>
       </c>
       <c r="L137" t="n">
         <v>483.4</v>
@@ -7266,7 +7284,7 @@
         <v>604</v>
       </c>
       <c r="K138" t="n">
-        <v>6.796116504854369</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L138" t="n">
         <v>482.5</v>
@@ -7317,7 +7335,7 @@
         <v>618</v>
       </c>
       <c r="K139" t="n">
-        <v>7.692307692307693</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L139" t="n">
         <v>484.1</v>
@@ -7368,7 +7386,7 @@
         <v>618</v>
       </c>
       <c r="K140" t="n">
-        <v>4</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L140" t="n">
         <v>484.4</v>
@@ -7419,7 +7437,7 @@
         <v>619</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L141" t="n">
         <v>484.9</v>
@@ -7470,7 +7488,7 @@
         <v>621</v>
       </c>
       <c r="K142" t="n">
-        <v>2.127659574468085</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L142" t="n">
         <v>484.8</v>
@@ -7521,7 +7539,7 @@
         <v>628</v>
       </c>
       <c r="K143" t="n">
-        <v>9.090909090909092</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L143" t="n">
         <v>484</v>
@@ -7572,7 +7590,7 @@
         <v>629</v>
       </c>
       <c r="K144" t="n">
-        <v>10.1123595505618</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L144" t="n">
         <v>483.2</v>
@@ -7623,7 +7641,7 @@
         <v>636</v>
       </c>
       <c r="K145" t="n">
-        <v>8.045977011494253</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L145" t="n">
         <v>483.3</v>
@@ -7674,7 +7692,7 @@
         <v>637</v>
       </c>
       <c r="K146" t="n">
-        <v>9.090909090909092</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L146" t="n">
         <v>483.8</v>
@@ -7725,7 +7743,7 @@
         <v>638</v>
       </c>
       <c r="K147" t="n">
-        <v>1.204819277108434</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L147" t="n">
         <v>485.2</v>
@@ -7776,7 +7794,7 @@
         <v>638</v>
       </c>
       <c r="K148" t="n">
-        <v>6.329113924050633</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>486.6</v>
@@ -7827,7 +7845,7 @@
         <v>639</v>
       </c>
       <c r="K149" t="n">
-        <v>24.63768115942029</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L149" t="n">
         <v>486.7</v>
@@ -7878,7 +7896,7 @@
         <v>639</v>
       </c>
       <c r="K150" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
         <v>486.8</v>
@@ -7929,7 +7947,7 @@
         <v>639</v>
       </c>
       <c r="K151" t="n">
-        <v>9.090909090909092</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L151" t="n">
         <v>486.8</v>
@@ -7980,7 +7998,7 @@
         <v>639</v>
       </c>
       <c r="K152" t="n">
-        <v>1.96078431372549</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L152" t="n">
         <v>487</v>
@@ -8031,7 +8049,7 @@
         <v>639</v>
       </c>
       <c r="K153" t="n">
-        <v>1.96078431372549</v>
+        <v>80</v>
       </c>
       <c r="L153" t="n">
         <v>487.9</v>
@@ -8082,7 +8100,7 @@
         <v>639</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>488.7</v>
@@ -8133,7 +8151,7 @@
         <v>639</v>
       </c>
       <c r="K155" t="n">
-        <v>4.166666666666666</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>488.8</v>
@@ -8184,7 +8202,7 @@
         <v>639</v>
       </c>
       <c r="K156" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L156" t="n">
         <v>488.8</v>
@@ -8235,7 +8253,7 @@
         <v>639</v>
       </c>
       <c r="K157" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L157" t="n">
         <v>488.9</v>
@@ -8285,9 +8303,7 @@
       <c r="J158" t="n">
         <v>639</v>
       </c>
-      <c r="K158" t="n">
-        <v>42.85714285714285</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>489</v>
       </c>
@@ -8336,9 +8352,7 @@
       <c r="J159" t="n">
         <v>639</v>
       </c>
-      <c r="K159" t="n">
-        <v>4.761904761904762</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>489</v>
       </c>
@@ -8387,9 +8401,7 @@
       <c r="J160" t="n">
         <v>639</v>
       </c>
-      <c r="K160" t="n">
-        <v>4.761904761904762</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>489</v>
       </c>
@@ -8438,9 +8450,7 @@
       <c r="J161" t="n">
         <v>639</v>
       </c>
-      <c r="K161" t="n">
-        <v>0</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>489</v>
       </c>
@@ -8490,7 +8500,7 @@
         <v>646</v>
       </c>
       <c r="K162" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L162" t="n">
         <v>488.3</v>
@@ -8541,7 +8551,7 @@
         <v>653</v>
       </c>
       <c r="K163" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>488.3</v>
@@ -8592,7 +8602,7 @@
         <v>653</v>
       </c>
       <c r="K164" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>488.3</v>
@@ -8643,7 +8653,7 @@
         <v>653</v>
       </c>
       <c r="K165" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>488.3</v>
@@ -8694,7 +8704,7 @@
         <v>667</v>
       </c>
       <c r="K166" t="n">
-        <v>-46.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L166" t="n">
         <v>486.9</v>
@@ -8745,7 +8755,7 @@
         <v>670</v>
       </c>
       <c r="K167" t="n">
-        <v>-31.25</v>
+        <v>-35.48387096774194</v>
       </c>
       <c r="L167" t="n">
         <v>485.8</v>
@@ -8796,7 +8806,7 @@
         <v>673</v>
       </c>
       <c r="K168" t="n">
-        <v>-37.14285714285715</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L168" t="n">
         <v>484.4</v>
@@ -8949,7 +8959,7 @@
         <v>711</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>10.76923076923077</v>
       </c>
       <c r="L171" t="n">
         <v>483</v>
@@ -9000,7 +9010,7 @@
         <v>725</v>
       </c>
       <c r="K172" t="n">
-        <v>-16.27906976744186</v>
+        <v>-19.44444444444445</v>
       </c>
       <c r="L172" t="n">
         <v>482.3</v>
@@ -9051,7 +9061,7 @@
         <v>735</v>
       </c>
       <c r="K173" t="n">
-        <v>-4.166666666666666</v>
+        <v>-4.878048780487805</v>
       </c>
       <c r="L173" t="n">
         <v>481.9</v>
@@ -9102,7 +9112,7 @@
         <v>737</v>
       </c>
       <c r="K174" t="n">
-        <v>-6.122448979591836</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L174" t="n">
         <v>481.3</v>
@@ -9153,7 +9163,7 @@
         <v>743</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>18.42105263157895</v>
       </c>
       <c r="L175" t="n">
         <v>481.3</v>
@@ -9204,7 +9214,7 @@
         <v>743</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>15.06849315068493</v>
       </c>
       <c r="L176" t="n">
         <v>482.7</v>
@@ -9255,7 +9265,7 @@
         <v>757</v>
       </c>
       <c r="K177" t="n">
-        <v>-11.86440677966102</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>482.4</v>
@@ -9306,7 +9316,7 @@
         <v>766</v>
       </c>
       <c r="K178" t="n">
-        <v>-3.937007874015748</v>
+        <v>-5</v>
       </c>
       <c r="L178" t="n">
         <v>483.3</v>
@@ -9357,7 +9367,7 @@
         <v>768</v>
       </c>
       <c r="K179" t="n">
-        <v>-2.325581395348837</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L179" t="n">
         <v>483.1</v>
@@ -9408,7 +9418,7 @@
         <v>768</v>
       </c>
       <c r="K180" t="n">
-        <v>-2.325581395348837</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L180" t="n">
         <v>484.1</v>
@@ -9459,7 +9469,7 @@
         <v>770</v>
       </c>
       <c r="K181" t="n">
-        <v>-3.816793893129771</v>
+        <v>20</v>
       </c>
       <c r="L181" t="n">
         <v>483.6</v>
@@ -9510,7 +9520,7 @@
         <v>775</v>
       </c>
       <c r="K182" t="n">
-        <v>5.426356589147287</v>
+        <v>10</v>
       </c>
       <c r="L182" t="n">
         <v>485</v>
@@ -9561,7 +9571,7 @@
         <v>775</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L183" t="n">
         <v>485.4</v>
@@ -9714,7 +9724,7 @@
         <v>775</v>
       </c>
       <c r="K186" t="n">
-        <v>12.96296296296296</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L186" t="n">
         <v>486</v>
@@ -9765,7 +9775,7 @@
         <v>775</v>
       </c>
       <c r="K187" t="n">
-        <v>10.47619047619048</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L187" t="n">
         <v>487.4</v>
@@ -9816,7 +9826,7 @@
         <v>775</v>
       </c>
       <c r="K188" t="n">
-        <v>13.72549019607843</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L188" t="n">
         <v>487.9</v>
@@ -9867,7 +9877,7 @@
         <v>775</v>
       </c>
       <c r="K189" t="n">
-        <v>1.123595505617978</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L189" t="n">
         <v>488.2</v>

--- a/BackTest/2019-10-25 BackTest GXC.xlsx
+++ b/BackTest/2019-10-25 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S189"/>
+  <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J7" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J8" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +731,21 @@
         <v>475.1333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>62</v>
+        <v>464</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,25 +772,21 @@
         <v>475.0333333333334</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>63</v>
+        <v>469</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>469.5</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +813,21 @@
         <v>475.0666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>70</v>
-      </c>
-      <c r="K12" t="n">
-        <v>22.80701754385965</v>
-      </c>
-      <c r="L12" t="n">
-        <v>469.5</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>476</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,27 +854,21 @@
         <v>475.0833333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>71</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-9.523809523809524</v>
-      </c>
-      <c r="L13" t="n">
-        <v>470.7</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>475</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +898,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>81</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-9.523809523809524</v>
-      </c>
-      <c r="L14" t="n">
-        <v>469.3</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +937,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>91</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.127659574468085</v>
-      </c>
-      <c r="L15" t="n">
-        <v>469.9</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +976,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>102</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.127659574468085</v>
-      </c>
-      <c r="L16" t="n">
-        <v>468.9</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +1015,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>103</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.166666666666666</v>
-      </c>
-      <c r="L17" t="n">
-        <v>469.1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1051,21 @@
         <v>474.3833333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>110</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6.122448979591836</v>
-      </c>
-      <c r="L18" t="n">
-        <v>470</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>472</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,27 +1092,21 @@
         <v>474.2833333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>112</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>470.1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>463</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1136,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>113</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4</v>
-      </c>
-      <c r="L20" t="n">
-        <v>470.2</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1172,21 @@
         <v>473.9333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>122</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-26.92307692307692</v>
-      </c>
-      <c r="L21" t="n">
-        <v>469.5</v>
+        <v>463</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>469.5</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1216,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J22" t="n">
-        <v>122</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-25.49019607843137</v>
-      </c>
-      <c r="L22" t="n">
-        <v>468.1</v>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>468.8</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,29 +1252,21 @@
         <v>473.45</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>123</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-9.523809523809524</v>
-      </c>
-      <c r="L23" t="n">
-        <v>466.7</v>
+        <v>462</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>468.7</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1293,21 @@
         <v>473.3</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>132</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-12.19512195121951</v>
-      </c>
-      <c r="L24" t="n">
-        <v>467.2</v>
+        <v>470</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>468.25</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1334,21 @@
         <v>473.2333333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>141</v>
-      </c>
-      <c r="K25" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L25" t="n">
-        <v>467.6</v>
+        <v>470</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>468.75</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1375,21 @@
         <v>473.1833333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>141</v>
-      </c>
-      <c r="K26" t="n">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="L26" t="n">
-        <v>469.1</v>
+        <v>479</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>469</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1419,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>141</v>
-      </c>
-      <c r="K27" t="n">
-        <v>22.58064516129032</v>
-      </c>
-      <c r="L27" t="n">
-        <v>470.5</v>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>469.8</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1458,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>141</v>
-      </c>
-      <c r="K28" t="n">
-        <v>31.03448275862069</v>
-      </c>
-      <c r="L28" t="n">
-        <v>471.2</v>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>470.6</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1497,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>141</v>
-      </c>
-      <c r="K29" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L29" t="n">
-        <v>472.1</v>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>471.1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1536,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>141</v>
-      </c>
-      <c r="K30" t="n">
-        <v>89.47368421052632</v>
-      </c>
-      <c r="L30" t="n">
-        <v>472.9</v>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>471.55</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1575,16 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>141</v>
-      </c>
-      <c r="K31" t="n">
-        <v>89.47368421052632</v>
-      </c>
-      <c r="L31" t="n">
-        <v>474.6</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>472.05</v>
-      </c>
-      <c r="N31" t="n">
-        <v>471.2</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1614,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
-      </c>
-      <c r="J32" t="n">
-        <v>141</v>
-      </c>
-      <c r="K32" t="n">
-        <v>100</v>
-      </c>
-      <c r="L32" t="n">
-        <v>476.3</v>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>472.2</v>
-      </c>
-      <c r="N32" t="n">
-        <v>471.3</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1653,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>141</v>
-      </c>
-      <c r="K33" t="n">
-        <v>100</v>
-      </c>
-      <c r="L33" t="n">
-        <v>478.1</v>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>472.4</v>
-      </c>
-      <c r="N33" t="n">
-        <v>471.8333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,26 +1692,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>479</v>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>473.1</v>
-      </c>
-      <c r="N34" t="n">
-        <v>471.8333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2027,26 +1731,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
-      </c>
-      <c r="J35" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>479</v>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>473.3</v>
-      </c>
-      <c r="N35" t="n">
-        <v>472.1666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,28 +1770,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>151</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L36" t="n">
-        <v>478</v>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>473.55</v>
-      </c>
-      <c r="N36" t="n">
-        <v>472</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2127,28 +1809,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>160</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L37" t="n">
-        <v>477.9</v>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>474.2</v>
-      </c>
-      <c r="N37" t="n">
-        <v>472.5</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2178,28 +1848,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>161</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>477.9</v>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>474.55</v>
-      </c>
-      <c r="N38" t="n">
-        <v>473.0333333333334</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2229,28 +1887,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>165</v>
-      </c>
-      <c r="K39" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L39" t="n">
-        <v>478.3</v>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>475.2</v>
-      </c>
-      <c r="N39" t="n">
-        <v>473.5</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2280,28 +1926,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
-      </c>
-      <c r="J40" t="n">
-        <v>166</v>
-      </c>
-      <c r="K40" t="n">
-        <v>20</v>
-      </c>
-      <c r="L40" t="n">
-        <v>478.8</v>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>475.85</v>
-      </c>
-      <c r="N40" t="n">
-        <v>473.9666666666666</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2331,28 +1965,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>166</v>
-      </c>
-      <c r="K41" t="n">
-        <v>20</v>
-      </c>
-      <c r="L41" t="n">
-        <v>479.3</v>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>476.95</v>
-      </c>
-      <c r="N41" t="n">
-        <v>474.4666666666666</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2382,28 +2004,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>180</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L42" t="n">
-        <v>478.4</v>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>477.35</v>
-      </c>
-      <c r="N42" t="n">
-        <v>474.2666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2433,28 +2043,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>181</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L43" t="n">
-        <v>477.6</v>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>477.85</v>
-      </c>
-      <c r="N43" t="n">
-        <v>474.1333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2484,30 +2082,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>183</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L44" t="n">
-        <v>477</v>
-      </c>
-      <c r="M44" t="n">
-        <v>478</v>
-      </c>
-      <c r="N44" t="n">
-        <v>474.4</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2535,28 +2119,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>193</v>
-      </c>
-      <c r="K45" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L45" t="n">
-        <v>477.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>478.2</v>
-      </c>
-      <c r="N45" t="n">
-        <v>474.6666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2586,28 +2154,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>7</v>
-      </c>
-      <c r="J46" t="n">
-        <v>193</v>
-      </c>
-      <c r="K46" t="n">
-        <v>15.15151515151515</v>
-      </c>
-      <c r="L46" t="n">
-        <v>478.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>478.4</v>
-      </c>
-      <c r="N46" t="n">
-        <v>475.3</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2637,28 +2189,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>201</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L47" t="n">
-        <v>478.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>478.2</v>
-      </c>
-      <c r="N47" t="n">
-        <v>475.6333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,28 +2224,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>204</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-28.2051282051282</v>
-      </c>
-      <c r="L48" t="n">
-        <v>477.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>477.85</v>
-      </c>
-      <c r="N48" t="n">
-        <v>475.6333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,28 +2259,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J49" t="n">
-        <v>206</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L49" t="n">
-        <v>476.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>477.6</v>
-      </c>
-      <c r="N49" t="n">
-        <v>475.7666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2790,28 +2294,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>216</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>476.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>477.85</v>
-      </c>
-      <c r="N50" t="n">
-        <v>476.2</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2841,28 +2329,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
-      </c>
-      <c r="J51" t="n">
-        <v>216</v>
-      </c>
-      <c r="K51" t="n">
-        <v>38.88888888888889</v>
-      </c>
-      <c r="L51" t="n">
-        <v>476.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>478.1</v>
-      </c>
-      <c r="N51" t="n">
-        <v>476.9333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2892,28 +2364,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>217</v>
-      </c>
-      <c r="K52" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L52" t="n">
-        <v>478.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>478.3</v>
-      </c>
-      <c r="N52" t="n">
-        <v>477.6333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2943,28 +2399,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>11</v>
-      </c>
-      <c r="J53" t="n">
-        <v>221</v>
-      </c>
-      <c r="K53" t="n">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="L53" t="n">
-        <v>479.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>478.7</v>
-      </c>
-      <c r="N53" t="n">
-        <v>478.5</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2994,28 +2434,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>233</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L54" t="n">
-        <v>480</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>478.5</v>
-      </c>
-      <c r="N54" t="n">
-        <v>478.6666666666667</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3045,28 +2469,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>234</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-21.95121951219512</v>
-      </c>
-      <c r="L55" t="n">
-        <v>479.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>478.25</v>
-      </c>
-      <c r="N55" t="n">
-        <v>478.5</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3096,28 +2504,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>234</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-3.03030303030303</v>
-      </c>
-      <c r="L56" t="n">
-        <v>478.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>478.5</v>
-      </c>
-      <c r="N56" t="n">
-        <v>478.3333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3147,28 +2539,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>235</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3.225806451612903</v>
-      </c>
-      <c r="L57" t="n">
-        <v>478</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>478.25</v>
-      </c>
-      <c r="N57" t="n">
-        <v>478.1333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,28 +2574,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>4</v>
-      </c>
-      <c r="J58" t="n">
-        <v>242</v>
-      </c>
-      <c r="K58" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L58" t="n">
-        <v>478.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>478.3</v>
-      </c>
-      <c r="N58" t="n">
-        <v>478.1666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3249,28 +2609,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J59" t="n">
-        <v>252</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-38.88888888888889</v>
-      </c>
-      <c r="L59" t="n">
-        <v>478.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>477.65</v>
-      </c>
-      <c r="N59" t="n">
-        <v>477.8666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3300,28 +2644,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>257</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-21.95121951219512</v>
-      </c>
-      <c r="L60" t="n">
-        <v>477.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>477.2</v>
-      </c>
-      <c r="N60" t="n">
-        <v>477.7333333333333</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3351,28 +2679,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J61" t="n">
-        <v>262</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-28.88888888888889</v>
-      </c>
-      <c r="L61" t="n">
-        <v>476.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>476.5</v>
-      </c>
-      <c r="N61" t="n">
-        <v>477.4333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,28 +2714,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>269</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-20.83333333333334</v>
-      </c>
-      <c r="L62" t="n">
-        <v>475.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>476.85</v>
-      </c>
-      <c r="N62" t="n">
-        <v>477.3666666666667</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3453,28 +2749,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
-      </c>
-      <c r="J63" t="n">
-        <v>271</v>
-      </c>
-      <c r="K63" t="n">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="L63" t="n">
-        <v>474.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>477.25</v>
-      </c>
-      <c r="N63" t="n">
-        <v>477.3666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3504,28 +2784,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>9</v>
-      </c>
-      <c r="J64" t="n">
-        <v>277</v>
-      </c>
-      <c r="K64" t="n">
-        <v>25.58139534883721</v>
-      </c>
-      <c r="L64" t="n">
-        <v>475.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>477.85</v>
-      </c>
-      <c r="N64" t="n">
-        <v>477.5666666666667</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3555,28 +2819,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>8</v>
-      </c>
-      <c r="J65" t="n">
-        <v>278</v>
-      </c>
-      <c r="K65" t="n">
-        <v>22.72727272727273</v>
-      </c>
-      <c r="L65" t="n">
-        <v>476.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>477.9</v>
-      </c>
-      <c r="N65" t="n">
-        <v>477.7333333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3606,28 +2854,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>14</v>
-      </c>
-      <c r="J66" t="n">
-        <v>284</v>
-      </c>
-      <c r="K66" t="n">
-        <v>34.69387755102041</v>
-      </c>
-      <c r="L66" t="n">
-        <v>478.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>478.25</v>
-      </c>
-      <c r="N66" t="n">
-        <v>478.4333333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3657,28 +2889,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>11</v>
-      </c>
-      <c r="J67" t="n">
-        <v>287</v>
-      </c>
-      <c r="K67" t="n">
-        <v>15.55555555555556</v>
-      </c>
-      <c r="L67" t="n">
-        <v>479.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>478.85</v>
-      </c>
-      <c r="N67" t="n">
-        <v>478.7333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3708,28 +2924,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>300</v>
-      </c>
-      <c r="K68" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="L68" t="n">
-        <v>479.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>478.95</v>
-      </c>
-      <c r="N68" t="n">
-        <v>478.5666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3759,28 +2959,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>10</v>
-      </c>
-      <c r="J69" t="n">
-        <v>312</v>
-      </c>
-      <c r="K69" t="n">
-        <v>20</v>
-      </c>
-      <c r="L69" t="n">
-        <v>480.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>479.55</v>
-      </c>
-      <c r="N69" t="n">
-        <v>478.6666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3810,28 +2994,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>11</v>
-      </c>
-      <c r="J70" t="n">
-        <v>313</v>
-      </c>
-      <c r="K70" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L70" t="n">
-        <v>481.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>479.7</v>
-      </c>
-      <c r="N70" t="n">
-        <v>478.7666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,28 +3029,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>9</v>
-      </c>
-      <c r="J71" t="n">
-        <v>315</v>
-      </c>
-      <c r="K71" t="n">
-        <v>17.39130434782609</v>
-      </c>
-      <c r="L71" t="n">
-        <v>483.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>479.75</v>
-      </c>
-      <c r="N71" t="n">
-        <v>478.8</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,28 +3064,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>9</v>
-      </c>
-      <c r="J72" t="n">
-        <v>315</v>
-      </c>
-      <c r="K72" t="n">
-        <v>13.63636363636363</v>
-      </c>
-      <c r="L72" t="n">
-        <v>484.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>479.85</v>
-      </c>
-      <c r="N72" t="n">
-        <v>479.3</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3963,28 +3099,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>327</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-24</v>
-      </c>
-      <c r="L73" t="n">
-        <v>483.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>479.15</v>
-      </c>
-      <c r="N73" t="n">
-        <v>479.3666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,28 +3134,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>332</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L74" t="n">
-        <v>482.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>479.3</v>
-      </c>
-      <c r="N74" t="n">
-        <v>479.5333333333334</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4065,28 +3169,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>12</v>
-      </c>
-      <c r="J75" t="n">
-        <v>342</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-3.448275862068965</v>
-      </c>
-      <c r="L75" t="n">
-        <v>483.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>480</v>
-      </c>
-      <c r="N75" t="n">
-        <v>479.7</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4116,28 +3204,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>10</v>
-      </c>
-      <c r="J76" t="n">
-        <v>344</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-1.754385964912281</v>
-      </c>
-      <c r="L76" t="n">
-        <v>482.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>480.6</v>
-      </c>
-      <c r="N76" t="n">
-        <v>479.8</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4167,28 +3239,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J77" t="n">
-        <v>358</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-3.448275862068965</v>
-      </c>
-      <c r="L77" t="n">
-        <v>481.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>480.55</v>
-      </c>
-      <c r="N77" t="n">
-        <v>479.7</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4218,28 +3274,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>6</v>
-      </c>
-      <c r="J78" t="n">
-        <v>368</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-7.142857142857142</v>
-      </c>
-      <c r="L78" t="n">
-        <v>482.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>480.65</v>
-      </c>
-      <c r="N78" t="n">
-        <v>480.0333333333334</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4269,28 +3309,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>7</v>
-      </c>
-      <c r="J79" t="n">
-        <v>369</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-7.142857142857142</v>
-      </c>
-      <c r="L79" t="n">
-        <v>481.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>481.3</v>
-      </c>
-      <c r="N79" t="n">
-        <v>480.3333333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4320,28 +3344,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>12</v>
-      </c>
-      <c r="J80" t="n">
-        <v>374</v>
-      </c>
-      <c r="K80" t="n">
-        <v>5.084745762711865</v>
-      </c>
-      <c r="L80" t="n">
-        <v>482</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>481.95</v>
-      </c>
-      <c r="N80" t="n">
-        <v>480.4666666666666</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4371,28 +3379,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>10</v>
-      </c>
-      <c r="J81" t="n">
-        <v>376</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1.639344262295082</v>
-      </c>
-      <c r="L81" t="n">
-        <v>482.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>482.75</v>
-      </c>
-      <c r="N81" t="n">
-        <v>480.5333333333334</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4422,28 +3414,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>10</v>
-      </c>
-      <c r="J82" t="n">
-        <v>376</v>
-      </c>
-      <c r="K82" t="n">
-        <v>26.53061224489796</v>
-      </c>
-      <c r="L82" t="n">
-        <v>482.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>483.2</v>
-      </c>
-      <c r="N82" t="n">
-        <v>480.6333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,28 +3449,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>387</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-5.454545454545454</v>
-      </c>
-      <c r="L83" t="n">
-        <v>482.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>483</v>
-      </c>
-      <c r="N83" t="n">
-        <v>480.2333333333333</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,28 +3484,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>395</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-9.433962264150944</v>
-      </c>
-      <c r="L84" t="n">
-        <v>482.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>482.9</v>
-      </c>
-      <c r="N84" t="n">
-        <v>480.5</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4575,28 +3519,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>7</v>
-      </c>
-      <c r="J85" t="n">
-        <v>395</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L85" t="n">
-        <v>482.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>482.85</v>
-      </c>
-      <c r="N85" t="n">
-        <v>480.8</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4626,28 +3554,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>395</v>
-      </c>
-      <c r="K86" t="n">
-        <v>29.72972972972973</v>
-      </c>
-      <c r="L86" t="n">
-        <v>482.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>482.5</v>
-      </c>
-      <c r="N86" t="n">
-        <v>481.1</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4677,28 +3589,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>5</v>
-      </c>
-      <c r="J87" t="n">
-        <v>397</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-3.448275862068965</v>
-      </c>
-      <c r="L87" t="n">
-        <v>483</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>482.2</v>
-      </c>
-      <c r="N87" t="n">
-        <v>481.3666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4728,28 +3624,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>401</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-18.75</v>
-      </c>
-      <c r="L88" t="n">
-        <v>482.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>482.35</v>
-      </c>
-      <c r="N88" t="n">
-        <v>481.2666666666667</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4779,28 +3659,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>401</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-40.74074074074074</v>
-      </c>
-      <c r="L89" t="n">
-        <v>481.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>481.9</v>
-      </c>
-      <c r="N89" t="n">
-        <v>481.5</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4830,28 +3694,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>405</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-44.82758620689656</v>
-      </c>
-      <c r="L90" t="n">
-        <v>480.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>481.2</v>
-      </c>
-      <c r="N90" t="n">
-        <v>481.4333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4881,28 +3729,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>405</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-44.82758620689656</v>
-      </c>
-      <c r="L91" t="n">
-        <v>479.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>480.6</v>
-      </c>
-      <c r="N91" t="n">
-        <v>481.5333333333334</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4932,28 +3764,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J92" t="n">
-        <v>407</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L92" t="n">
-        <v>477.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>479.9</v>
-      </c>
-      <c r="N92" t="n">
-        <v>481.3333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4983,28 +3799,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J93" t="n">
-        <v>412</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L93" t="n">
-        <v>476.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>479.55</v>
-      </c>
-      <c r="N93" t="n">
-        <v>480.9</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,28 +3834,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J94" t="n">
-        <v>416</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L94" t="n">
-        <v>474.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>478.75</v>
-      </c>
-      <c r="N94" t="n">
-        <v>480.1333333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5085,28 +3869,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>416</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L95" t="n">
-        <v>472.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>477.45</v>
-      </c>
-      <c r="N95" t="n">
-        <v>479.4</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5136,28 +3904,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J96" t="n">
-        <v>425</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-35.71428571428572</v>
-      </c>
-      <c r="L96" t="n">
-        <v>471.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>476.7</v>
-      </c>
-      <c r="N96" t="n">
-        <v>478.7666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5187,28 +3939,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J97" t="n">
-        <v>434</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L97" t="n">
-        <v>469.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>476.2</v>
-      </c>
-      <c r="N97" t="n">
-        <v>477.9333333333333</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5238,28 +3974,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J98" t="n">
-        <v>434</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L98" t="n">
-        <v>467.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>475.2</v>
-      </c>
-      <c r="N98" t="n">
-        <v>477.5333333333334</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5289,28 +4009,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-14</v>
-      </c>
-      <c r="J99" t="n">
-        <v>434</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-37.93103448275862</v>
-      </c>
-      <c r="L99" t="n">
-        <v>466.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>474.15</v>
-      </c>
-      <c r="N99" t="n">
-        <v>476.7333333333333</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5337,31 +4041,21 @@
         <v>477.4666666666666</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>442</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-8.108108108108109</v>
-      </c>
-      <c r="L100" t="n">
-        <v>466.1</v>
+        <v>471</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>473.25</v>
-      </c>
-      <c r="N100" t="n">
-        <v>476.1666666666667</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5388,31 +4082,21 @@
         <v>477.25</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>443</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>465.9</v>
+        <v>471</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>472.5</v>
-      </c>
-      <c r="N101" t="n">
-        <v>475.7</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5439,31 +4123,21 @@
         <v>477.2666666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>443</v>
-      </c>
-      <c r="K102" t="n">
-        <v>16.12903225806452</v>
-      </c>
-      <c r="L102" t="n">
-        <v>465.9</v>
+        <v>471</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>471.75</v>
-      </c>
-      <c r="N102" t="n">
-        <v>475.2333333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5493,28 +4167,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J103" t="n">
-        <v>443</v>
-      </c>
-      <c r="K103" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L103" t="n">
-        <v>466.4</v>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>471.55</v>
-      </c>
-      <c r="N103" t="n">
-        <v>475.1666666666667</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5544,28 +4206,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-20</v>
-      </c>
-      <c r="J104" t="n">
-        <v>458</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L104" t="n">
-        <v>465.8</v>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>470.2</v>
-      </c>
-      <c r="N104" t="n">
-        <v>474.4333333333333</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5595,28 +4245,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>477</v>
-      </c>
-      <c r="K105" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L105" t="n">
-        <v>467.1</v>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>469.8</v>
-      </c>
-      <c r="N105" t="n">
-        <v>474</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5643,31 +4281,21 @@
         <v>476.7166666666666</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>477</v>
-      </c>
-      <c r="K106" t="n">
-        <v>30.23255813953488</v>
-      </c>
-      <c r="L106" t="n">
-        <v>467.5</v>
+        <v>475</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>469.4</v>
-      </c>
-      <c r="N106" t="n">
-        <v>473.6333333333333</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5697,28 +4325,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>477</v>
-      </c>
-      <c r="K107" t="n">
-        <v>30.23255813953488</v>
-      </c>
-      <c r="L107" t="n">
-        <v>468.8</v>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>469.1</v>
-      </c>
-      <c r="N107" t="n">
-        <v>473.7333333333333</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5748,28 +4364,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>477</v>
-      </c>
-      <c r="K108" t="n">
-        <v>30.23255813953488</v>
-      </c>
-      <c r="L108" t="n">
-        <v>470.1</v>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>469</v>
-      </c>
-      <c r="N108" t="n">
-        <v>473.5</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5799,28 +4403,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J109" t="n">
-        <v>480</v>
-      </c>
-      <c r="K109" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L109" t="n">
-        <v>471.1</v>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>468.75</v>
-      </c>
-      <c r="N109" t="n">
-        <v>473.1333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5850,28 +4442,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>483</v>
-      </c>
-      <c r="K110" t="n">
-        <v>10</v>
-      </c>
-      <c r="L110" t="n">
-        <v>471.6</v>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>468.85</v>
-      </c>
-      <c r="N110" t="n">
-        <v>472.7</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5901,28 +4481,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
-      </c>
-      <c r="J111" t="n">
-        <v>486</v>
-      </c>
-      <c r="K111" t="n">
-        <v>16.27906976744186</v>
-      </c>
-      <c r="L111" t="n">
-        <v>472.3</v>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>469.1</v>
-      </c>
-      <c r="N111" t="n">
-        <v>472.4333333333333</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5952,28 +4520,16 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
-      </c>
-      <c r="J112" t="n">
-        <v>486</v>
-      </c>
-      <c r="K112" t="n">
-        <v>16.27906976744186</v>
-      </c>
-      <c r="L112" t="n">
-        <v>473</v>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>469.45</v>
-      </c>
-      <c r="N112" t="n">
-        <v>472.1666666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6003,28 +4559,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
-      </c>
-      <c r="J113" t="n">
-        <v>486</v>
-      </c>
-      <c r="K113" t="n">
-        <v>78.57142857142857</v>
-      </c>
-      <c r="L113" t="n">
-        <v>473.7</v>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>470.05</v>
-      </c>
-      <c r="N113" t="n">
-        <v>472.2666666666667</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6054,28 +4598,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
-      </c>
-      <c r="J114" t="n">
-        <v>486</v>
-      </c>
-      <c r="K114" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L114" t="n">
-        <v>475.9</v>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>470.85</v>
-      </c>
-      <c r="N114" t="n">
-        <v>472.1</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6105,28 +4637,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
-      </c>
-      <c r="J115" t="n">
-        <v>486</v>
-      </c>
-      <c r="K115" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L115" t="n">
-        <v>476.2</v>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>471.65</v>
-      </c>
-      <c r="N115" t="n">
-        <v>471.9333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6156,28 +4676,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
-      </c>
-      <c r="J116" t="n">
-        <v>486</v>
-      </c>
-      <c r="K116" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L116" t="n">
-        <v>476.5</v>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>472</v>
-      </c>
-      <c r="N116" t="n">
-        <v>471.7666666666667</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6207,28 +4715,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>4</v>
-      </c>
-      <c r="J117" t="n">
-        <v>488</v>
-      </c>
-      <c r="K117" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L117" t="n">
-        <v>477</v>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>472.9</v>
-      </c>
-      <c r="N117" t="n">
-        <v>471.7333333333333</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,28 +4754,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J118" t="n">
-        <v>501</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L118" t="n">
-        <v>476.2</v>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>473.15</v>
-      </c>
-      <c r="N118" t="n">
-        <v>471.4</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6309,28 +4793,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>4</v>
-      </c>
-      <c r="J119" t="n">
-        <v>514</v>
-      </c>
-      <c r="K119" t="n">
-        <v>16.12903225806452</v>
-      </c>
-      <c r="L119" t="n">
-        <v>477</v>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>474.05</v>
-      </c>
-      <c r="N119" t="n">
-        <v>471.5</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6360,28 +4832,16 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>8</v>
-      </c>
-      <c r="J120" t="n">
-        <v>518</v>
-      </c>
-      <c r="K120" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="L120" t="n">
-        <v>477.9</v>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>474.75</v>
-      </c>
-      <c r="N120" t="n">
-        <v>471.8666666666667</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6411,28 +4871,16 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>13</v>
-      </c>
-      <c r="J121" t="n">
-        <v>523</v>
-      </c>
-      <c r="K121" t="n">
-        <v>29.72972972972973</v>
-      </c>
-      <c r="L121" t="n">
-        <v>479</v>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>475.65</v>
-      </c>
-      <c r="N121" t="n">
-        <v>472.4</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6462,28 +4910,16 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>9</v>
-      </c>
-      <c r="J122" t="n">
-        <v>527</v>
-      </c>
-      <c r="K122" t="n">
-        <v>17.07317073170732</v>
-      </c>
-      <c r="L122" t="n">
-        <v>479.7</v>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>476.35</v>
-      </c>
-      <c r="N122" t="n">
-        <v>472.8666666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6513,28 +4949,16 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J123" t="n">
-        <v>540</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L123" t="n">
-        <v>479.1</v>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>476.4</v>
-      </c>
-      <c r="N123" t="n">
-        <v>473.0666666666667</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6564,28 +4988,16 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J124" t="n">
-        <v>540</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L124" t="n">
-        <v>478.5</v>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>477.2</v>
-      </c>
-      <c r="N124" t="n">
-        <v>473.4</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6615,28 +5027,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>5</v>
-      </c>
-      <c r="J125" t="n">
-        <v>549</v>
-      </c>
-      <c r="K125" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L125" t="n">
-        <v>478.8</v>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>477.5</v>
-      </c>
-      <c r="N125" t="n">
-        <v>474.0333333333334</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6666,28 +5066,16 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>5</v>
-      </c>
-      <c r="J126" t="n">
-        <v>549</v>
-      </c>
-      <c r="K126" t="n">
-        <v>1.639344262295082</v>
-      </c>
-      <c r="L126" t="n">
-        <v>479.1</v>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>477.8</v>
-      </c>
-      <c r="N126" t="n">
-        <v>474.3666666666667</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6717,28 +5105,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>11</v>
-      </c>
-      <c r="J127" t="n">
-        <v>555</v>
-      </c>
-      <c r="K127" t="n">
-        <v>37.03703703703704</v>
-      </c>
-      <c r="L127" t="n">
-        <v>479.8</v>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>478.4</v>
-      </c>
-      <c r="N127" t="n">
-        <v>475.2</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6768,28 +5144,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>7</v>
-      </c>
-      <c r="J128" t="n">
-        <v>559</v>
-      </c>
-      <c r="K128" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L128" t="n">
-        <v>481.4</v>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>478.8</v>
-      </c>
-      <c r="N128" t="n">
-        <v>475.9</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6819,28 +5183,16 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J129" t="n">
-        <v>570</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L129" t="n">
-        <v>480.6</v>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>478.8</v>
-      </c>
-      <c r="N129" t="n">
-        <v>476.2333333333333</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6870,28 +5222,16 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>9</v>
-      </c>
-      <c r="J130" t="n">
-        <v>583</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L130" t="n">
-        <v>480.7</v>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>479.3</v>
-      </c>
-      <c r="N130" t="n">
-        <v>476.7333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6921,28 +5261,16 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>8</v>
-      </c>
-      <c r="J131" t="n">
-        <v>584</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-1.754385964912281</v>
-      </c>
-      <c r="L131" t="n">
-        <v>480.2</v>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>479.6</v>
-      </c>
-      <c r="N131" t="n">
-        <v>477.1666666666667</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6972,28 +5300,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>12</v>
-      </c>
-      <c r="J132" t="n">
-        <v>588</v>
-      </c>
-      <c r="K132" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L132" t="n">
-        <v>480.5</v>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>480.1</v>
-      </c>
-      <c r="N132" t="n">
-        <v>477.7333333333333</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7023,28 +5339,16 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>12</v>
-      </c>
-      <c r="J133" t="n">
-        <v>588</v>
-      </c>
-      <c r="K133" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L133" t="n">
-        <v>482.1</v>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>480.6</v>
-      </c>
-      <c r="N133" t="n">
-        <v>478.3</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7074,28 +5378,16 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>13</v>
-      </c>
-      <c r="J134" t="n">
-        <v>589</v>
-      </c>
-      <c r="K134" t="n">
-        <v>20</v>
-      </c>
-      <c r="L134" t="n">
-        <v>483.8</v>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>481.15</v>
-      </c>
-      <c r="N134" t="n">
-        <v>479.4</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7125,28 +5417,16 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>11</v>
-      </c>
-      <c r="J135" t="n">
-        <v>591</v>
-      </c>
-      <c r="K135" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L135" t="n">
-        <v>484.4</v>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>481.6</v>
-      </c>
-      <c r="N135" t="n">
-        <v>479.8</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7176,28 +5456,16 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>8</v>
-      </c>
-      <c r="J136" t="n">
-        <v>594</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L136" t="n">
-        <v>484.7</v>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>481.9</v>
-      </c>
-      <c r="N136" t="n">
-        <v>480.1</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7227,28 +5495,16 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J137" t="n">
-        <v>604</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L137" t="n">
-        <v>483.4</v>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>481.6</v>
-      </c>
-      <c r="N137" t="n">
-        <v>480.0666666666667</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7278,28 +5534,16 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J138" t="n">
-        <v>604</v>
-      </c>
-      <c r="K138" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L138" t="n">
-        <v>482.5</v>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>481.95</v>
-      </c>
-      <c r="N138" t="n">
-        <v>480.0333333333334</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7329,28 +5573,16 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>12</v>
-      </c>
-      <c r="J139" t="n">
-        <v>618</v>
-      </c>
-      <c r="K139" t="n">
-        <v>8.571428571428571</v>
-      </c>
-      <c r="L139" t="n">
-        <v>484.1</v>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>482.35</v>
-      </c>
-      <c r="N139" t="n">
-        <v>480.5666666666667</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7380,28 +5612,16 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>12</v>
-      </c>
-      <c r="J140" t="n">
-        <v>618</v>
-      </c>
-      <c r="K140" t="n">
-        <v>11.76470588235294</v>
-      </c>
-      <c r="L140" t="n">
-        <v>484.4</v>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M140" t="n">
-        <v>482.55</v>
-      </c>
-      <c r="N140" t="n">
-        <v>481</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7431,28 +5651,16 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>13</v>
-      </c>
-      <c r="J141" t="n">
-        <v>619</v>
-      </c>
-      <c r="K141" t="n">
-        <v>3.225806451612903</v>
-      </c>
-      <c r="L141" t="n">
-        <v>484.9</v>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M141" t="n">
-        <v>482.55</v>
-      </c>
-      <c r="N141" t="n">
-        <v>481.3666666666667</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7482,28 +5690,16 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>11</v>
-      </c>
-      <c r="J142" t="n">
-        <v>621</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-3.03030303030303</v>
-      </c>
-      <c r="L142" t="n">
-        <v>484.8</v>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M142" t="n">
-        <v>482.65</v>
-      </c>
-      <c r="N142" t="n">
-        <v>481.6666666666667</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7533,28 +5729,16 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>4</v>
-      </c>
-      <c r="J143" t="n">
-        <v>628</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L143" t="n">
-        <v>484</v>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M143" t="n">
-        <v>483.05</v>
-      </c>
-      <c r="N143" t="n">
-        <v>481.7333333333333</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7584,28 +5768,16 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>5</v>
-      </c>
-      <c r="J144" t="n">
-        <v>629</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L144" t="n">
-        <v>483.2</v>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M144" t="n">
-        <v>483.5</v>
-      </c>
-      <c r="N144" t="n">
-        <v>481.8333333333333</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7635,28 +5807,16 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>12</v>
-      </c>
-      <c r="J145" t="n">
-        <v>636</v>
-      </c>
-      <c r="K145" t="n">
-        <v>9.523809523809524</v>
-      </c>
-      <c r="L145" t="n">
-        <v>483.3</v>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M145" t="n">
-        <v>483.85</v>
-      </c>
-      <c r="N145" t="n">
-        <v>482.1666666666667</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7686,28 +5846,16 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>13</v>
-      </c>
-      <c r="J146" t="n">
-        <v>637</v>
-      </c>
-      <c r="K146" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L146" t="n">
-        <v>483.8</v>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M146" t="n">
-        <v>484.25</v>
-      </c>
-      <c r="N146" t="n">
-        <v>482.5333333333334</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7737,28 +5885,16 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>12</v>
-      </c>
-      <c r="J147" t="n">
-        <v>638</v>
-      </c>
-      <c r="K147" t="n">
-        <v>41.17647058823529</v>
-      </c>
-      <c r="L147" t="n">
-        <v>485.2</v>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M147" t="n">
-        <v>484.3</v>
-      </c>
-      <c r="N147" t="n">
-        <v>482.8</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7788,28 +5924,16 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>12</v>
-      </c>
-      <c r="J148" t="n">
-        <v>638</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0</v>
-      </c>
-      <c r="L148" t="n">
-        <v>486.6</v>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M148" t="n">
-        <v>484.55</v>
-      </c>
-      <c r="N148" t="n">
-        <v>483.5</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7839,28 +5963,16 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>13</v>
-      </c>
-      <c r="J149" t="n">
-        <v>639</v>
-      </c>
-      <c r="K149" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L149" t="n">
-        <v>486.7</v>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M149" t="n">
-        <v>485.4</v>
-      </c>
-      <c r="N149" t="n">
-        <v>483.8</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7890,28 +6002,16 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>13</v>
-      </c>
-      <c r="J150" t="n">
-        <v>639</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0</v>
-      </c>
-      <c r="L150" t="n">
-        <v>486.8</v>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M150" t="n">
-        <v>485.6</v>
-      </c>
-      <c r="N150" t="n">
-        <v>483.9666666666666</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7941,28 +6041,16 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>13</v>
-      </c>
-      <c r="J151" t="n">
-        <v>639</v>
-      </c>
-      <c r="K151" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L151" t="n">
-        <v>486.8</v>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M151" t="n">
-        <v>485.85</v>
-      </c>
-      <c r="N151" t="n">
-        <v>483.9666666666666</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7992,28 +6080,16 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>13</v>
-      </c>
-      <c r="J152" t="n">
-        <v>639</v>
-      </c>
-      <c r="K152" t="n">
-        <v>81.81818181818183</v>
-      </c>
-      <c r="L152" t="n">
-        <v>487</v>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M152" t="n">
-        <v>485.9</v>
-      </c>
-      <c r="N152" t="n">
-        <v>484.1</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,28 +6119,16 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>13</v>
-      </c>
-      <c r="J153" t="n">
-        <v>639</v>
-      </c>
-      <c r="K153" t="n">
-        <v>80</v>
-      </c>
-      <c r="L153" t="n">
-        <v>487.9</v>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M153" t="n">
-        <v>485.95</v>
-      </c>
-      <c r="N153" t="n">
-        <v>484.6666666666667</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8094,28 +6158,16 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>13</v>
-      </c>
-      <c r="J154" t="n">
-        <v>639</v>
-      </c>
-      <c r="K154" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L154" t="n">
-        <v>488.7</v>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M154" t="n">
-        <v>485.95</v>
-      </c>
-      <c r="N154" t="n">
-        <v>485.2333333333333</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8145,28 +6197,16 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>13</v>
-      </c>
-      <c r="J155" t="n">
-        <v>639</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0</v>
-      </c>
-      <c r="L155" t="n">
-        <v>488.8</v>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M155" t="n">
-        <v>486.05</v>
-      </c>
-      <c r="N155" t="n">
-        <v>485.5</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8196,28 +6236,16 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>13</v>
-      </c>
-      <c r="J156" t="n">
-        <v>639</v>
-      </c>
-      <c r="K156" t="n">
-        <v>100</v>
-      </c>
-      <c r="L156" t="n">
-        <v>488.8</v>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M156" t="n">
-        <v>486.3</v>
-      </c>
-      <c r="N156" t="n">
-        <v>485.7666666666667</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8247,28 +6275,16 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>13</v>
-      </c>
-      <c r="J157" t="n">
-        <v>639</v>
-      </c>
-      <c r="K157" t="n">
-        <v>100</v>
-      </c>
-      <c r="L157" t="n">
-        <v>488.9</v>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>487.05</v>
-      </c>
-      <c r="N157" t="n">
-        <v>485.8333333333333</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8298,26 +6314,16 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>13</v>
-      </c>
-      <c r="J158" t="n">
-        <v>639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>489</v>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M158" t="n">
-        <v>487.8</v>
-      </c>
-      <c r="N158" t="n">
-        <v>486.0333333333334</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8347,26 +6353,16 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>13</v>
-      </c>
-      <c r="J159" t="n">
-        <v>639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>489</v>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M159" t="n">
-        <v>487.85</v>
-      </c>
-      <c r="N159" t="n">
-        <v>486.6</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8396,26 +6392,16 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>13</v>
-      </c>
-      <c r="J160" t="n">
-        <v>639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>489</v>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M160" t="n">
-        <v>487.9</v>
-      </c>
-      <c r="N160" t="n">
-        <v>486.7333333333333</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8445,26 +6431,16 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>13</v>
-      </c>
-      <c r="J161" t="n">
-        <v>639</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>489</v>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M161" t="n">
-        <v>487.9</v>
-      </c>
-      <c r="N161" t="n">
-        <v>486.9</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8494,28 +6470,16 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>6</v>
-      </c>
-      <c r="J162" t="n">
-        <v>646</v>
-      </c>
-      <c r="K162" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L162" t="n">
-        <v>488.3</v>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M162" t="n">
-        <v>487.65</v>
-      </c>
-      <c r="N162" t="n">
-        <v>486.7</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8545,28 +6509,16 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>13</v>
-      </c>
-      <c r="J163" t="n">
-        <v>653</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0</v>
-      </c>
-      <c r="L163" t="n">
-        <v>488.3</v>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M163" t="n">
-        <v>488.1</v>
-      </c>
-      <c r="N163" t="n">
-        <v>486.7333333333333</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8596,28 +6548,16 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>13</v>
-      </c>
-      <c r="J164" t="n">
-        <v>653</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0</v>
-      </c>
-      <c r="L164" t="n">
-        <v>488.3</v>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M164" t="n">
-        <v>488.5</v>
-      </c>
-      <c r="N164" t="n">
-        <v>486.7333333333333</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8647,28 +6587,16 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>13</v>
-      </c>
-      <c r="J165" t="n">
-        <v>653</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0</v>
-      </c>
-      <c r="L165" t="n">
-        <v>488.3</v>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M165" t="n">
-        <v>488.55</v>
-      </c>
-      <c r="N165" t="n">
-        <v>486.8</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8698,28 +6626,16 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J166" t="n">
-        <v>667</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L166" t="n">
-        <v>486.9</v>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M166" t="n">
-        <v>487.85</v>
-      </c>
-      <c r="N166" t="n">
-        <v>486.5</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8749,28 +6665,16 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>2</v>
-      </c>
-      <c r="J167" t="n">
-        <v>670</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-35.48387096774194</v>
-      </c>
-      <c r="L167" t="n">
-        <v>485.8</v>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M167" t="n">
-        <v>487.35</v>
-      </c>
-      <c r="N167" t="n">
-        <v>486.6333333333333</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8800,1099 +6704,16 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J168" t="n">
-        <v>673</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-41.17647058823529</v>
-      </c>
-      <c r="L168" t="n">
-        <v>484.4</v>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M168" t="n">
-        <v>486.7</v>
-      </c>
-      <c r="N168" t="n">
-        <v>486.6666666666667</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>477</v>
-      </c>
-      <c r="C169" t="n">
-        <v>488</v>
-      </c>
-      <c r="D169" t="n">
-        <v>488</v>
-      </c>
-      <c r="E169" t="n">
-        <v>477</v>
-      </c>
-      <c r="F169" t="n">
-        <v>80</v>
-      </c>
-      <c r="G169" t="n">
-        <v>483.6166666666667</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>12</v>
-      </c>
-      <c r="J169" t="n">
-        <v>686</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-2.127659574468085</v>
-      </c>
-      <c r="L169" t="n">
-        <v>484.3</v>
-      </c>
-      <c r="M169" t="n">
-        <v>486.65</v>
-      </c>
-      <c r="N169" t="n">
-        <v>486.6666666666667</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>477</v>
-      </c>
-      <c r="C170" t="n">
-        <v>476</v>
-      </c>
-      <c r="D170" t="n">
-        <v>477</v>
-      </c>
-      <c r="E170" t="n">
-        <v>476</v>
-      </c>
-      <c r="F170" t="n">
-        <v>120.323</v>
-      </c>
-      <c r="G170" t="n">
-        <v>483.6333333333333</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>698</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-22.03389830508474</v>
-      </c>
-      <c r="L170" t="n">
-        <v>483</v>
-      </c>
-      <c r="M170" t="n">
-        <v>486</v>
-      </c>
-      <c r="N170" t="n">
-        <v>486.2666666666667</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>473</v>
-      </c>
-      <c r="C171" t="n">
-        <v>489</v>
-      </c>
-      <c r="D171" t="n">
-        <v>489</v>
-      </c>
-      <c r="E171" t="n">
-        <v>473</v>
-      </c>
-      <c r="F171" t="n">
-        <v>321.199</v>
-      </c>
-      <c r="G171" t="n">
-        <v>483.8166666666667</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>13</v>
-      </c>
-      <c r="J171" t="n">
-        <v>711</v>
-      </c>
-      <c r="K171" t="n">
-        <v>10.76923076923077</v>
-      </c>
-      <c r="L171" t="n">
-        <v>483</v>
-      </c>
-      <c r="M171" t="n">
-        <v>486</v>
-      </c>
-      <c r="N171" t="n">
-        <v>486.2666666666667</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>475</v>
-      </c>
-      <c r="C172" t="n">
-        <v>475</v>
-      </c>
-      <c r="D172" t="n">
-        <v>475</v>
-      </c>
-      <c r="E172" t="n">
-        <v>475</v>
-      </c>
-      <c r="F172" t="n">
-        <v>53.7088</v>
-      </c>
-      <c r="G172" t="n">
-        <v>483.7666666666667</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J172" t="n">
-        <v>725</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-19.44444444444445</v>
-      </c>
-      <c r="L172" t="n">
-        <v>482.3</v>
-      </c>
-      <c r="M172" t="n">
-        <v>485.3</v>
-      </c>
-      <c r="N172" t="n">
-        <v>485.8666666666667</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>485</v>
-      </c>
-      <c r="C173" t="n">
-        <v>485</v>
-      </c>
-      <c r="D173" t="n">
-        <v>485</v>
-      </c>
-      <c r="E173" t="n">
-        <v>485</v>
-      </c>
-      <c r="F173" t="n">
-        <v>16.0782</v>
-      </c>
-      <c r="G173" t="n">
-        <v>483.8833333333333</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>9</v>
-      </c>
-      <c r="J173" t="n">
-        <v>735</v>
-      </c>
-      <c r="K173" t="n">
-        <v>-4.878048780487805</v>
-      </c>
-      <c r="L173" t="n">
-        <v>481.9</v>
-      </c>
-      <c r="M173" t="n">
-        <v>485.1</v>
-      </c>
-      <c r="N173" t="n">
-        <v>486.0333333333334</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>483</v>
-      </c>
-      <c r="C174" t="n">
-        <v>483</v>
-      </c>
-      <c r="D174" t="n">
-        <v>483</v>
-      </c>
-      <c r="E174" t="n">
-        <v>483</v>
-      </c>
-      <c r="F174" t="n">
-        <v>60</v>
-      </c>
-      <c r="G174" t="n">
-        <v>483.9666666666666</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>7</v>
-      </c>
-      <c r="J174" t="n">
-        <v>737</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-7.142857142857142</v>
-      </c>
-      <c r="L174" t="n">
-        <v>481.3</v>
-      </c>
-      <c r="M174" t="n">
-        <v>484.8</v>
-      </c>
-      <c r="N174" t="n">
-        <v>486.1</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>489</v>
-      </c>
-      <c r="C175" t="n">
-        <v>489</v>
-      </c>
-      <c r="D175" t="n">
-        <v>489</v>
-      </c>
-      <c r="E175" t="n">
-        <v>489</v>
-      </c>
-      <c r="F175" t="n">
-        <v>57.6891</v>
-      </c>
-      <c r="G175" t="n">
-        <v>484.15</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>13</v>
-      </c>
-      <c r="J175" t="n">
-        <v>743</v>
-      </c>
-      <c r="K175" t="n">
-        <v>18.42105263157895</v>
-      </c>
-      <c r="L175" t="n">
-        <v>481.3</v>
-      </c>
-      <c r="M175" t="n">
-        <v>484.8</v>
-      </c>
-      <c r="N175" t="n">
-        <v>486.1333333333333</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>489</v>
-      </c>
-      <c r="C176" t="n">
-        <v>489</v>
-      </c>
-      <c r="D176" t="n">
-        <v>489</v>
-      </c>
-      <c r="E176" t="n">
-        <v>489</v>
-      </c>
-      <c r="F176" t="n">
-        <v>11.3803</v>
-      </c>
-      <c r="G176" t="n">
-        <v>484.3333333333333</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>13</v>
-      </c>
-      <c r="J176" t="n">
-        <v>743</v>
-      </c>
-      <c r="K176" t="n">
-        <v>15.06849315068493</v>
-      </c>
-      <c r="L176" t="n">
-        <v>482.7</v>
-      </c>
-      <c r="M176" t="n">
-        <v>484.8</v>
-      </c>
-      <c r="N176" t="n">
-        <v>486.1333333333333</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>474</v>
-      </c>
-      <c r="C177" t="n">
-        <v>475</v>
-      </c>
-      <c r="D177" t="n">
-        <v>489</v>
-      </c>
-      <c r="E177" t="n">
-        <v>473</v>
-      </c>
-      <c r="F177" t="n">
-        <v>228.1198</v>
-      </c>
-      <c r="G177" t="n">
-        <v>484.25</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J177" t="n">
-        <v>757</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0</v>
-      </c>
-      <c r="L177" t="n">
-        <v>482.4</v>
-      </c>
-      <c r="M177" t="n">
-        <v>484.1</v>
-      </c>
-      <c r="N177" t="n">
-        <v>485.7</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>475</v>
-      </c>
-      <c r="C178" t="n">
-        <v>484</v>
-      </c>
-      <c r="D178" t="n">
-        <v>484</v>
-      </c>
-      <c r="E178" t="n">
-        <v>475</v>
-      </c>
-      <c r="F178" t="n">
-        <v>87.143</v>
-      </c>
-      <c r="G178" t="n">
-        <v>484.5333333333334</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>8</v>
-      </c>
-      <c r="J178" t="n">
-        <v>766</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-5</v>
-      </c>
-      <c r="L178" t="n">
-        <v>483.3</v>
-      </c>
-      <c r="M178" t="n">
-        <v>483.85</v>
-      </c>
-      <c r="N178" t="n">
-        <v>485.5666666666667</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>485</v>
-      </c>
-      <c r="C179" t="n">
-        <v>486</v>
-      </c>
-      <c r="D179" t="n">
-        <v>487</v>
-      </c>
-      <c r="E179" t="n">
-        <v>485</v>
-      </c>
-      <c r="F179" t="n">
-        <v>80.5912</v>
-      </c>
-      <c r="G179" t="n">
-        <v>484.6333333333333</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>10</v>
-      </c>
-      <c r="J179" t="n">
-        <v>768</v>
-      </c>
-      <c r="K179" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L179" t="n">
-        <v>483.1</v>
-      </c>
-      <c r="M179" t="n">
-        <v>483.7</v>
-      </c>
-      <c r="N179" t="n">
-        <v>485.4666666666666</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>476</v>
-      </c>
-      <c r="C180" t="n">
-        <v>486</v>
-      </c>
-      <c r="D180" t="n">
-        <v>486</v>
-      </c>
-      <c r="E180" t="n">
-        <v>476</v>
-      </c>
-      <c r="F180" t="n">
-        <v>110.5081</v>
-      </c>
-      <c r="G180" t="n">
-        <v>484.6666666666667</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>10</v>
-      </c>
-      <c r="J180" t="n">
-        <v>768</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L180" t="n">
-        <v>484.1</v>
-      </c>
-      <c r="M180" t="n">
-        <v>483.55</v>
-      </c>
-      <c r="N180" t="n">
-        <v>485.3666666666667</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>486</v>
-      </c>
-      <c r="C181" t="n">
-        <v>484</v>
-      </c>
-      <c r="D181" t="n">
-        <v>486</v>
-      </c>
-      <c r="E181" t="n">
-        <v>484</v>
-      </c>
-      <c r="F181" t="n">
-        <v>15.6453</v>
-      </c>
-      <c r="G181" t="n">
-        <v>484.5833333333333</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>8</v>
-      </c>
-      <c r="J181" t="n">
-        <v>770</v>
-      </c>
-      <c r="K181" t="n">
-        <v>20</v>
-      </c>
-      <c r="L181" t="n">
-        <v>483.6</v>
-      </c>
-      <c r="M181" t="n">
-        <v>483.3</v>
-      </c>
-      <c r="N181" t="n">
-        <v>485.2</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>489</v>
-      </c>
-      <c r="C182" t="n">
-        <v>489</v>
-      </c>
-      <c r="D182" t="n">
-        <v>489</v>
-      </c>
-      <c r="E182" t="n">
-        <v>489</v>
-      </c>
-      <c r="F182" t="n">
-        <v>136.8567</v>
-      </c>
-      <c r="G182" t="n">
-        <v>484.65</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>13</v>
-      </c>
-      <c r="J182" t="n">
-        <v>775</v>
-      </c>
-      <c r="K182" t="n">
-        <v>10</v>
-      </c>
-      <c r="L182" t="n">
-        <v>485</v>
-      </c>
-      <c r="M182" t="n">
-        <v>483.65</v>
-      </c>
-      <c r="N182" t="n">
-        <v>485.2</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>489</v>
-      </c>
-      <c r="C183" t="n">
-        <v>489</v>
-      </c>
-      <c r="D183" t="n">
-        <v>489</v>
-      </c>
-      <c r="E183" t="n">
-        <v>489</v>
-      </c>
-      <c r="F183" t="n">
-        <v>272.9046</v>
-      </c>
-      <c r="G183" t="n">
-        <v>484.9333333333333</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>13</v>
-      </c>
-      <c r="J183" t="n">
-        <v>775</v>
-      </c>
-      <c r="K183" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L183" t="n">
-        <v>485.4</v>
-      </c>
-      <c r="M183" t="n">
-        <v>483.65</v>
-      </c>
-      <c r="N183" t="n">
-        <v>485.2</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>489</v>
-      </c>
-      <c r="C184" t="n">
-        <v>489</v>
-      </c>
-      <c r="D184" t="n">
-        <v>489</v>
-      </c>
-      <c r="E184" t="n">
-        <v>489</v>
-      </c>
-      <c r="F184" t="n">
-        <v>226.9837</v>
-      </c>
-      <c r="G184" t="n">
-        <v>485.2166666666666</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>13</v>
-      </c>
-      <c r="J184" t="n">
-        <v>775</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0</v>
-      </c>
-      <c r="L184" t="n">
-        <v>486</v>
-      </c>
-      <c r="M184" t="n">
-        <v>483.65</v>
-      </c>
-      <c r="N184" t="n">
-        <v>485.2</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>489</v>
-      </c>
-      <c r="C185" t="n">
-        <v>489</v>
-      </c>
-      <c r="D185" t="n">
-        <v>489</v>
-      </c>
-      <c r="E185" t="n">
-        <v>489</v>
-      </c>
-      <c r="F185" t="n">
-        <v>108.013</v>
-      </c>
-      <c r="G185" t="n">
-        <v>485.35</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>13</v>
-      </c>
-      <c r="J185" t="n">
-        <v>775</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0</v>
-      </c>
-      <c r="L185" t="n">
-        <v>486</v>
-      </c>
-      <c r="M185" t="n">
-        <v>483.65</v>
-      </c>
-      <c r="N185" t="n">
-        <v>485.2</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>489</v>
-      </c>
-      <c r="C186" t="n">
-        <v>489</v>
-      </c>
-      <c r="D186" t="n">
-        <v>489</v>
-      </c>
-      <c r="E186" t="n">
-        <v>489</v>
-      </c>
-      <c r="F186" t="n">
-        <v>72.932</v>
-      </c>
-      <c r="G186" t="n">
-        <v>485.4833333333333</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>13</v>
-      </c>
-      <c r="J186" t="n">
-        <v>775</v>
-      </c>
-      <c r="K186" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L186" t="n">
-        <v>486</v>
-      </c>
-      <c r="M186" t="n">
-        <v>484.35</v>
-      </c>
-      <c r="N186" t="n">
-        <v>485.2</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>489</v>
-      </c>
-      <c r="C187" t="n">
-        <v>489</v>
-      </c>
-      <c r="D187" t="n">
-        <v>489</v>
-      </c>
-      <c r="E187" t="n">
-        <v>489</v>
-      </c>
-      <c r="F187" t="n">
-        <v>43.0265</v>
-      </c>
-      <c r="G187" t="n">
-        <v>485.5166666666667</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>13</v>
-      </c>
-      <c r="J187" t="n">
-        <v>775</v>
-      </c>
-      <c r="K187" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L187" t="n">
-        <v>487.4</v>
-      </c>
-      <c r="M187" t="n">
-        <v>484.9</v>
-      </c>
-      <c r="N187" t="n">
-        <v>485.2</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>489</v>
-      </c>
-      <c r="C188" t="n">
-        <v>489</v>
-      </c>
-      <c r="D188" t="n">
-        <v>489</v>
-      </c>
-      <c r="E188" t="n">
-        <v>489</v>
-      </c>
-      <c r="F188" t="n">
-        <v>43.0275</v>
-      </c>
-      <c r="G188" t="n">
-        <v>485.6166666666667</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>13</v>
-      </c>
-      <c r="J188" t="n">
-        <v>775</v>
-      </c>
-      <c r="K188" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L188" t="n">
-        <v>487.9</v>
-      </c>
-      <c r="M188" t="n">
-        <v>485.6</v>
-      </c>
-      <c r="N188" t="n">
-        <v>485.2</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>489</v>
-      </c>
-      <c r="C189" t="n">
-        <v>489</v>
-      </c>
-      <c r="D189" t="n">
-        <v>489</v>
-      </c>
-      <c r="E189" t="n">
-        <v>489</v>
-      </c>
-      <c r="F189" t="n">
-        <v>107.6584</v>
-      </c>
-      <c r="G189" t="n">
-        <v>485.9</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>13</v>
-      </c>
-      <c r="J189" t="n">
-        <v>775</v>
-      </c>
-      <c r="K189" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L189" t="n">
-        <v>488.2</v>
-      </c>
-      <c r="M189" t="n">
-        <v>485.65</v>
-      </c>
-      <c r="N189" t="n">
-        <v>485.2</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-25 BackTest GXC.xlsx
+++ b/BackTest/2019-10-25 BackTest GXC.xlsx
@@ -731,20 +731,14 @@
         <v>475.1333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>464</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -772,20 +766,14 @@
         <v>475.0333333333334</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>469</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -813,20 +801,14 @@
         <v>475.0666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>476</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -854,20 +836,14 @@
         <v>475.0833333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>475</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -902,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -941,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -980,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1019,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1051,20 +1011,14 @@
         <v>474.3833333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>472</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1092,20 +1046,14 @@
         <v>474.2833333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>463</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1140,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1178,12 +1122,12 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1252,14 +1196,12 @@
         <v>473.45</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>462</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1293,14 +1235,12 @@
         <v>473.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>470</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1334,14 +1274,12 @@
         <v>473.2333333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>470</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1375,14 +1313,12 @@
         <v>473.1833333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>479</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -2082,16 +2018,18 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2123,7 +2061,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2158,7 +2100,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2193,7 +2139,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2228,7 +2178,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2263,7 +2217,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2298,7 +2256,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2333,7 +2295,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2368,7 +2334,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2403,7 +2373,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2434,11 +2408,15 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2469,11 +2447,15 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2504,11 +2486,15 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2543,7 +2529,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2578,7 +2568,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2613,7 +2607,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2648,7 +2646,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2683,7 +2685,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2718,7 +2724,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2753,7 +2763,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2788,7 +2802,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2823,7 +2841,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2858,7 +2880,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2893,7 +2919,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2928,7 +2958,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +2997,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2998,7 +3036,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3033,7 +3075,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3068,7 +3114,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3103,7 +3153,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3134,11 +3188,15 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3173,7 +3231,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3208,7 +3270,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3243,7 +3309,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3278,7 +3348,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3313,7 +3387,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3348,7 +3426,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3383,7 +3465,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3418,7 +3504,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3453,7 +3543,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3488,7 +3582,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3523,7 +3621,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3558,7 +3660,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3593,7 +3699,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3628,7 +3738,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3663,7 +3777,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3698,7 +3816,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3733,7 +3855,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3768,7 +3894,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3803,7 +3933,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3838,7 +3972,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3873,7 +4011,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3908,7 +4050,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3943,7 +4089,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3978,7 +4128,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4013,7 +4167,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4041,18 +4199,16 @@
         <v>477.4666666666666</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>471</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -4082,14 +4238,12 @@
         <v>477.25</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>471</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
@@ -4123,14 +4277,12 @@
         <v>477.2666666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>471</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4281,14 +4433,12 @@
         <v>476.7166666666666</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>475</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -4439,12 +4589,14 @@
         <v>476.5833333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>472</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
@@ -4478,12 +4630,14 @@
         <v>476.4833333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>475</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
@@ -4517,12 +4671,14 @@
         <v>476.4</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>478</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -5417,18 +5573,16 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5460,11 +5614,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5499,11 +5649,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5538,11 +5684,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5577,11 +5719,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5616,11 +5754,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5655,11 +5789,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5694,11 +5824,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5733,11 +5859,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5772,11 +5894,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5811,11 +5929,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5850,11 +5964,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5889,11 +5999,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5928,11 +6034,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5967,11 +6069,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6006,11 +6104,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6045,11 +6139,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6084,11 +6174,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6123,11 +6209,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6162,11 +6244,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6201,11 +6279,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6240,11 +6314,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6279,11 +6349,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6318,11 +6384,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6357,11 +6419,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6396,11 +6454,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6435,11 +6489,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6474,11 +6524,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6513,11 +6559,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6552,11 +6594,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6591,11 +6629,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6630,11 +6664,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6669,11 +6699,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6708,11 +6734,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-25 BackTest GXC.xlsx
+++ b/BackTest/2019-10-25 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C2" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D2" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E2" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F2" t="n">
-        <v>1111.3795</v>
+        <v>2.08768267</v>
       </c>
       <c r="G2" t="n">
-        <v>475.8333333333333</v>
+        <v>475.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>476</v>
       </c>
       <c r="C3" t="n">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="D3" t="n">
+        <v>477</v>
+      </c>
+      <c r="E3" t="n">
         <v>476</v>
       </c>
-      <c r="E3" t="n">
-        <v>463</v>
-      </c>
       <c r="F3" t="n">
-        <v>1159.5258</v>
+        <v>1111.3795</v>
       </c>
       <c r="G3" t="n">
-        <v>475.65</v>
+        <v>475.8333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C4" t="n">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="D4" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E4" t="n">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>1159.5258</v>
       </c>
       <c r="G4" t="n">
-        <v>475.7333333333333</v>
+        <v>475.65</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C5" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="D5" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E5" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="F5" t="n">
-        <v>160.021</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>475.65</v>
+        <v>475.7333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,19 +573,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C6" t="n">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D6" t="n">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F6" t="n">
-        <v>443.1404</v>
+        <v>160.021</v>
       </c>
       <c r="G6" t="n">
         <v>475.65</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C7" t="n">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="D7" t="n">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="E7" t="n">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F7" t="n">
-        <v>333.4131</v>
+        <v>443.1404</v>
       </c>
       <c r="G7" t="n">
-        <v>475.4666666666666</v>
+        <v>475.65</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C8" t="n">
         <v>463</v>
       </c>
       <c r="D8" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E8" t="n">
         <v>463</v>
       </c>
       <c r="F8" t="n">
-        <v>172.3425</v>
+        <v>333.4131</v>
       </c>
       <c r="G8" t="n">
-        <v>475.2833333333334</v>
+        <v>475.4666666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C9" t="n">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D9" t="n">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E9" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F9" t="n">
-        <v>160</v>
+        <v>172.3425</v>
       </c>
       <c r="G9" t="n">
-        <v>475.2</v>
+        <v>475.2833333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>464</v>
       </c>
       <c r="C10" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D10" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E10" t="n">
         <v>464</v>
       </c>
       <c r="F10" t="n">
-        <v>335.5243</v>
+        <v>160</v>
       </c>
       <c r="G10" t="n">
-        <v>475.1333333333333</v>
+        <v>475.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C11" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D11" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E11" t="n">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>335.5243</v>
       </c>
       <c r="G11" t="n">
-        <v>475.0333333333334</v>
+        <v>475.1333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C12" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D12" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E12" t="n">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F12" t="n">
-        <v>103.4507</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>475.0666666666667</v>
+        <v>475.0333333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C13" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D13" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E13" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F13" t="n">
-        <v>35.1347</v>
+        <v>103.4507</v>
       </c>
       <c r="G13" t="n">
-        <v>475.0833333333333</v>
+        <v>475.0666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C14" t="n">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="D14" t="n">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="E14" t="n">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="F14" t="n">
-        <v>145.8118</v>
+        <v>35.1347</v>
       </c>
       <c r="G14" t="n">
-        <v>474.9333333333333</v>
+        <v>475.0833333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C15" t="n">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D15" t="n">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="E15" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F15" t="n">
-        <v>394.2051</v>
+        <v>145.8118</v>
       </c>
       <c r="G15" t="n">
-        <v>475</v>
+        <v>474.9333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>464</v>
       </c>
       <c r="C16" t="n">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="D16" t="n">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="E16" t="n">
         <v>464</v>
       </c>
       <c r="F16" t="n">
-        <v>247.4701</v>
+        <v>394.2051</v>
       </c>
       <c r="G16" t="n">
-        <v>474.75</v>
+        <v>475</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C17" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D17" t="n">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="E17" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F17" t="n">
-        <v>303.3417</v>
+        <v>247.4701</v>
       </c>
       <c r="G17" t="n">
-        <v>474.55</v>
+        <v>474.75</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C18" t="n">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D18" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E18" t="n">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>303.3417</v>
       </c>
       <c r="G18" t="n">
-        <v>474.3833333333333</v>
+        <v>474.55</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="C19" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D19" t="n">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E19" t="n">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="F19" t="n">
-        <v>2053.2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>474.2833333333334</v>
+        <v>474.3833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>463</v>
       </c>
       <c r="C20" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D20" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E20" t="n">
         <v>463</v>
       </c>
       <c r="F20" t="n">
-        <v>9297.576999999999</v>
+        <v>2053.2</v>
       </c>
       <c r="G20" t="n">
-        <v>474.2</v>
+        <v>474.2833333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,35 +1101,29 @@
         <v>463</v>
       </c>
       <c r="C21" t="n">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="D21" t="n">
+        <v>471</v>
+      </c>
+      <c r="E21" t="n">
         <v>463</v>
       </c>
-      <c r="E21" t="n">
-        <v>462</v>
-      </c>
       <c r="F21" t="n">
-        <v>280</v>
+        <v>9297.576999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>473.9333333333333</v>
+        <v>474.2</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>471</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1139,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C22" t="n">
         <v>462</v>
       </c>
       <c r="D22" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E22" t="n">
         <v>462</v>
       </c>
       <c r="F22" t="n">
-        <v>745</v>
+        <v>280</v>
       </c>
       <c r="G22" t="n">
-        <v>473.75</v>
+        <v>473.9333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1164,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1181,19 +1171,19 @@
         <v>462</v>
       </c>
       <c r="C23" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D23" t="n">
         <v>462</v>
       </c>
       <c r="E23" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F23" t="n">
-        <v>40</v>
+        <v>745</v>
       </c>
       <c r="G23" t="n">
-        <v>473.45</v>
+        <v>473.75</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1217,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C24" t="n">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D24" t="n">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E24" t="n">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F24" t="n">
-        <v>744.6808</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
-        <v>473.3</v>
+        <v>473.45</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1242,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1259,19 +1241,19 @@
         <v>470</v>
       </c>
       <c r="C25" t="n">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D25" t="n">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E25" t="n">
         <v>470</v>
       </c>
       <c r="F25" t="n">
-        <v>759.4642906</v>
+        <v>744.6808</v>
       </c>
       <c r="G25" t="n">
-        <v>473.2333333333333</v>
+        <v>473.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1281,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1295,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C26" t="n">
         <v>479</v>
@@ -1304,13 +1282,13 @@
         <v>479</v>
       </c>
       <c r="E26" t="n">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F26" t="n">
-        <v>71.84699999999999</v>
+        <v>759.4642906</v>
       </c>
       <c r="G26" t="n">
-        <v>473.1833333333333</v>
+        <v>473.2333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1346,10 +1320,10 @@
         <v>479</v>
       </c>
       <c r="F27" t="n">
-        <v>30.3109</v>
+        <v>71.84699999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>473.25</v>
+        <v>473.1833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1359,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1385,10 +1355,10 @@
         <v>479</v>
       </c>
       <c r="F28" t="n">
-        <v>90.93089999999999</v>
+        <v>30.3109</v>
       </c>
       <c r="G28" t="n">
-        <v>473.2</v>
+        <v>473.25</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1424,10 +1390,10 @@
         <v>479</v>
       </c>
       <c r="F29" t="n">
-        <v>30.3109</v>
+        <v>90.93089999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>473.2666666666667</v>
+        <v>473.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1437,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1463,10 +1425,10 @@
         <v>479</v>
       </c>
       <c r="F30" t="n">
-        <v>41.9226</v>
+        <v>30.3109</v>
       </c>
       <c r="G30" t="n">
-        <v>473.2166666666666</v>
+        <v>473.2666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1476,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1502,10 +1460,10 @@
         <v>479</v>
       </c>
       <c r="F31" t="n">
-        <v>30.2483</v>
+        <v>41.9226</v>
       </c>
       <c r="G31" t="n">
-        <v>473.0666666666667</v>
+        <v>473.2166666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1515,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1541,10 +1495,10 @@
         <v>479</v>
       </c>
       <c r="F32" t="n">
-        <v>29.168</v>
+        <v>30.2483</v>
       </c>
       <c r="G32" t="n">
-        <v>472.95</v>
+        <v>473.0666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1580,10 +1530,10 @@
         <v>479</v>
       </c>
       <c r="F33" t="n">
-        <v>9.722300000000001</v>
+        <v>29.168</v>
       </c>
       <c r="G33" t="n">
-        <v>472.8333333333333</v>
+        <v>472.95</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1593,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1619,10 +1565,10 @@
         <v>479</v>
       </c>
       <c r="F34" t="n">
-        <v>22.168</v>
+        <v>9.722300000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>472.7166666666666</v>
+        <v>472.8333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1632,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1658,10 +1600,10 @@
         <v>479</v>
       </c>
       <c r="F35" t="n">
-        <v>3.6951</v>
+        <v>22.168</v>
       </c>
       <c r="G35" t="n">
-        <v>472.95</v>
+        <v>472.7166666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1671,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1685,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C36" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="D36" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E36" t="n">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="F36" t="n">
-        <v>242.6767</v>
+        <v>3.6951</v>
       </c>
       <c r="G36" t="n">
-        <v>472.65</v>
+        <v>472.95</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1710,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1724,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C37" t="n">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D37" t="n">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="E37" t="n">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F37" t="n">
-        <v>218.409</v>
+        <v>242.6767</v>
       </c>
       <c r="G37" t="n">
-        <v>472.7666666666667</v>
+        <v>472.65</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1749,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C38" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D38" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E38" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F38" t="n">
-        <v>35.5687</v>
+        <v>218.409</v>
       </c>
       <c r="G38" t="n">
-        <v>472.95</v>
+        <v>472.7666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1788,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1805,19 +1731,19 @@
         <v>479</v>
       </c>
       <c r="C39" t="n">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D39" t="n">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E39" t="n">
         <v>479</v>
       </c>
       <c r="F39" t="n">
-        <v>48.38482673</v>
+        <v>35.5687</v>
       </c>
       <c r="G39" t="n">
-        <v>473.2166666666666</v>
+        <v>472.95</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1827,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1841,36 +1763,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C40" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D40" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E40" t="n">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F40" t="n">
-        <v>20.0329</v>
+        <v>48.38482673</v>
       </c>
       <c r="G40" t="n">
-        <v>473.5</v>
+        <v>473.2166666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1892,24 +1810,20 @@
         <v>484</v>
       </c>
       <c r="F41" t="n">
-        <v>6.6776</v>
+        <v>20.0329</v>
       </c>
       <c r="G41" t="n">
-        <v>473.7666666666667</v>
+        <v>473.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1919,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="C42" t="n">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D42" t="n">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="E42" t="n">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="F42" t="n">
-        <v>72</v>
+        <v>6.6776</v>
       </c>
       <c r="G42" t="n">
-        <v>473.5</v>
+        <v>473.7666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1944,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1958,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C43" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D43" t="n">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E43" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F43" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="G43" t="n">
-        <v>473.5666666666667</v>
+        <v>473.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1983,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1997,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C44" t="n">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D44" t="n">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="E44" t="n">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F44" t="n">
-        <v>293.8459</v>
+        <v>53</v>
       </c>
       <c r="G44" t="n">
-        <v>473.6166666666667</v>
+        <v>473.5666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2022,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2039,19 +1941,19 @@
         <v>473</v>
       </c>
       <c r="C45" t="n">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D45" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E45" t="n">
         <v>473</v>
       </c>
       <c r="F45" t="n">
-        <v>114.8408</v>
+        <v>293.8459</v>
       </c>
       <c r="G45" t="n">
-        <v>473.95</v>
+        <v>473.6166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2061,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2075,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C46" t="n">
         <v>483</v>
@@ -2084,13 +1982,13 @@
         <v>483</v>
       </c>
       <c r="E46" t="n">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F46" t="n">
-        <v>5.2971</v>
+        <v>114.8408</v>
       </c>
       <c r="G46" t="n">
-        <v>474.0833333333333</v>
+        <v>473.95</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2100,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2114,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D47" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="E47" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="F47" t="n">
-        <v>157.7771</v>
+        <v>5.2971</v>
       </c>
       <c r="G47" t="n">
-        <v>474.25</v>
+        <v>474.0833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2139,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2153,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C48" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D48" t="n">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E48" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F48" t="n">
-        <v>138.6999</v>
+        <v>157.7771</v>
       </c>
       <c r="G48" t="n">
-        <v>474.15</v>
+        <v>474.25</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2178,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2192,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C49" t="n">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D49" t="n">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E49" t="n">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F49" t="n">
-        <v>115.8299</v>
+        <v>138.6999</v>
       </c>
       <c r="G49" t="n">
-        <v>474.0833333333333</v>
+        <v>474.15</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2217,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2231,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C50" t="n">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D50" t="n">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="E50" t="n">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="F50" t="n">
-        <v>3.536</v>
+        <v>115.8299</v>
       </c>
       <c r="G50" t="n">
-        <v>474.1666666666667</v>
+        <v>474.0833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2256,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2282,10 +2160,10 @@
         <v>484</v>
       </c>
       <c r="F51" t="n">
-        <v>57.9204</v>
+        <v>3.536</v>
       </c>
       <c r="G51" t="n">
-        <v>474.3833333333333</v>
+        <v>474.1666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2295,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2309,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C52" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D52" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E52" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F52" t="n">
-        <v>58.0413</v>
+        <v>57.9204</v>
       </c>
       <c r="G52" t="n">
-        <v>474.4666666666666</v>
+        <v>474.3833333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2334,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2348,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C53" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D53" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E53" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F53" t="n">
-        <v>11.3838</v>
+        <v>58.0413</v>
       </c>
       <c r="G53" t="n">
-        <v>474.4333333333333</v>
+        <v>474.4666666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2373,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2387,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C54" t="n">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D54" t="n">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="E54" t="n">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="F54" t="n">
-        <v>42.8935</v>
+        <v>11.3838</v>
       </c>
       <c r="G54" t="n">
-        <v>474.35</v>
+        <v>474.4333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2412,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2426,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C55" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D55" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E55" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F55" t="n">
-        <v>214.2911</v>
+        <v>42.8935</v>
       </c>
       <c r="G55" t="n">
-        <v>474.2666666666667</v>
+        <v>474.35</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2451,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2477,10 +2335,10 @@
         <v>474</v>
       </c>
       <c r="F56" t="n">
-        <v>142.146</v>
+        <v>214.2911</v>
       </c>
       <c r="G56" t="n">
-        <v>474.3166666666667</v>
+        <v>474.2666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2490,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2504,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C57" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D57" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E57" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F57" t="n">
-        <v>73.998</v>
+        <v>142.146</v>
       </c>
       <c r="G57" t="n">
-        <v>474.4166666666667</v>
+        <v>474.3166666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2529,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2546,19 +2396,19 @@
         <v>473</v>
       </c>
       <c r="C58" t="n">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D58" t="n">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E58" t="n">
         <v>473</v>
       </c>
       <c r="F58" t="n">
-        <v>120</v>
+        <v>73.998</v>
       </c>
       <c r="G58" t="n">
-        <v>474.5</v>
+        <v>474.4166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2568,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2582,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C59" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D59" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="E59" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F59" t="n">
-        <v>21.7151</v>
+        <v>120</v>
       </c>
       <c r="G59" t="n">
-        <v>474.4666666666666</v>
+        <v>474.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2607,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2624,16 +2466,16 @@
         <v>470</v>
       </c>
       <c r="C60" t="n">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D60" t="n">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E60" t="n">
         <v>470</v>
       </c>
       <c r="F60" t="n">
-        <v>220.9403</v>
+        <v>21.7151</v>
       </c>
       <c r="G60" t="n">
         <v>474.4666666666666</v>
@@ -2646,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2663,19 +2501,19 @@
         <v>470</v>
       </c>
       <c r="C61" t="n">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D61" t="n">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="E61" t="n">
         <v>470</v>
       </c>
       <c r="F61" t="n">
-        <v>69.6242</v>
+        <v>220.9403</v>
       </c>
       <c r="G61" t="n">
-        <v>474.3166666666667</v>
+        <v>474.4666666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2685,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2702,19 +2536,19 @@
         <v>470</v>
       </c>
       <c r="C62" t="n">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D62" t="n">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E62" t="n">
         <v>470</v>
       </c>
       <c r="F62" t="n">
-        <v>228.7696</v>
+        <v>69.6242</v>
       </c>
       <c r="G62" t="n">
-        <v>474.3333333333333</v>
+        <v>474.3166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2724,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2738,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C63" t="n">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D63" t="n">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="E63" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F63" t="n">
-        <v>240</v>
+        <v>228.7696</v>
       </c>
       <c r="G63" t="n">
-        <v>474.6</v>
+        <v>474.3333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2763,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2777,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C64" t="n">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D64" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E64" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F64" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="G64" t="n">
-        <v>474.7</v>
+        <v>474.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2802,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2816,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C65" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D65" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E65" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F65" t="n">
-        <v>141.2314</v>
+        <v>80</v>
       </c>
       <c r="G65" t="n">
-        <v>474.95</v>
+        <v>474.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2841,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2858,19 +2676,19 @@
         <v>471</v>
       </c>
       <c r="C66" t="n">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D66" t="n">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E66" t="n">
         <v>471</v>
       </c>
       <c r="F66" t="n">
-        <v>90.7959</v>
+        <v>141.2314</v>
       </c>
       <c r="G66" t="n">
-        <v>475.2166666666666</v>
+        <v>474.95</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2880,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2894,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C67" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D67" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E67" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F67" t="n">
-        <v>183.078</v>
+        <v>90.7959</v>
       </c>
       <c r="G67" t="n">
-        <v>475.6166666666667</v>
+        <v>475.2166666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2919,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2933,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C68" t="n">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="D68" t="n">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="E68" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F68" t="n">
-        <v>143.4545</v>
+        <v>183.078</v>
       </c>
       <c r="G68" t="n">
-        <v>475.8</v>
+        <v>475.6166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2958,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2972,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C69" t="n">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D69" t="n">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E69" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F69" t="n">
-        <v>328.4233</v>
+        <v>143.4545</v>
       </c>
       <c r="G69" t="n">
-        <v>476.0833333333333</v>
+        <v>475.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2997,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3011,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="C70" t="n">
+        <v>486</v>
+      </c>
+      <c r="D70" t="n">
         <v>487</v>
       </c>
-      <c r="D70" t="n">
-        <v>488</v>
-      </c>
       <c r="E70" t="n">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="F70" t="n">
-        <v>11.8524</v>
+        <v>328.4233</v>
       </c>
       <c r="G70" t="n">
-        <v>476.3666666666667</v>
+        <v>476.0833333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3036,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3050,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C71" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D71" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E71" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F71" t="n">
-        <v>33.9041</v>
+        <v>11.8524</v>
       </c>
       <c r="G71" t="n">
-        <v>476.6333333333333</v>
+        <v>476.3666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3075,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3098,13 +2892,13 @@
         <v>485</v>
       </c>
       <c r="E72" t="n">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="F72" t="n">
-        <v>930.2537</v>
+        <v>33.9041</v>
       </c>
       <c r="G72" t="n">
-        <v>476.7833333333334</v>
+        <v>476.6333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3114,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C73" t="n">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D73" t="n">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="E73" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F73" t="n">
-        <v>119.0126</v>
+        <v>930.2537</v>
       </c>
       <c r="G73" t="n">
-        <v>476.75</v>
+        <v>476.7833333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3153,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3167,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C74" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D74" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E74" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F74" t="n">
-        <v>23.3914</v>
+        <v>119.0126</v>
       </c>
       <c r="G74" t="n">
-        <v>476.9666666666666</v>
+        <v>476.75</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3192,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3206,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C75" t="n">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D75" t="n">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E75" t="n">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F75" t="n">
-        <v>61.1862</v>
+        <v>23.3914</v>
       </c>
       <c r="G75" t="n">
-        <v>477.1833333333333</v>
+        <v>476.9666666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3231,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3245,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="C76" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D76" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E76" t="n">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="F76" t="n">
-        <v>178.6402</v>
+        <v>61.1862</v>
       </c>
       <c r="G76" t="n">
-        <v>477.55</v>
+        <v>477.1833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3270,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3284,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C77" t="n">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="D77" t="n">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="E77" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F77" t="n">
-        <v>200.5493</v>
+        <v>178.6402</v>
       </c>
       <c r="G77" t="n">
-        <v>477.6666666666667</v>
+        <v>477.55</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3309,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3323,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C78" t="n">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D78" t="n">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="E78" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F78" t="n">
-        <v>71.77930000000001</v>
+        <v>200.5493</v>
       </c>
       <c r="G78" t="n">
-        <v>477.8333333333333</v>
+        <v>477.6666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3348,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3362,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C79" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D79" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E79" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F79" t="n">
-        <v>274.6294</v>
+        <v>71.77930000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>478.05</v>
+        <v>477.8333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3387,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3401,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>472</v>
+      </c>
+      <c r="C80" t="n">
         <v>483</v>
       </c>
-      <c r="C80" t="n">
-        <v>488</v>
-      </c>
       <c r="D80" t="n">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E80" t="n">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F80" t="n">
-        <v>15.95470696</v>
+        <v>274.6294</v>
       </c>
       <c r="G80" t="n">
-        <v>478.3333333333333</v>
+        <v>478.05</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3426,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3440,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="C81" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D81" t="n">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E81" t="n">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="F81" t="n">
-        <v>80</v>
+        <v>15.95470696</v>
       </c>
       <c r="G81" t="n">
-        <v>478.7333333333333</v>
+        <v>478.3333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3465,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3479,7 +3233,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="C82" t="n">
         <v>486</v>
@@ -3488,13 +3242,13 @@
         <v>486</v>
       </c>
       <c r="E82" t="n">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="F82" t="n">
-        <v>7.823</v>
+        <v>80</v>
       </c>
       <c r="G82" t="n">
-        <v>479.1333333333333</v>
+        <v>478.7333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3504,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3518,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="C83" t="n">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D83" t="n">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="E83" t="n">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="F83" t="n">
-        <v>427.8027</v>
+        <v>7.823</v>
       </c>
       <c r="G83" t="n">
-        <v>479.3666666666667</v>
+        <v>479.1333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3543,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3557,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C84" t="n">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D84" t="n">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E84" t="n">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F84" t="n">
-        <v>29.1521</v>
+        <v>427.8027</v>
       </c>
       <c r="G84" t="n">
-        <v>479.5833333333333</v>
+        <v>479.3666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3582,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3608,10 +3350,10 @@
         <v>483</v>
       </c>
       <c r="F85" t="n">
-        <v>21.8638</v>
+        <v>29.1521</v>
       </c>
       <c r="G85" t="n">
-        <v>479.65</v>
+        <v>479.5833333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3621,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3647,10 +3385,10 @@
         <v>483</v>
       </c>
       <c r="F86" t="n">
-        <v>63.6686</v>
+        <v>21.8638</v>
       </c>
       <c r="G86" t="n">
-        <v>479.7166666666666</v>
+        <v>479.65</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3660,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3674,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C87" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D87" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E87" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F87" t="n">
-        <v>17.4024</v>
+        <v>63.6686</v>
       </c>
       <c r="G87" t="n">
-        <v>479.75</v>
+        <v>479.7166666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3699,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3713,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="C88" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="E88" t="n">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="F88" t="n">
-        <v>228</v>
+        <v>17.4024</v>
       </c>
       <c r="G88" t="n">
-        <v>479.7166666666666</v>
+        <v>479.75</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3738,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3752,7 +3478,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C89" t="n">
         <v>477</v>
@@ -3761,13 +3487,13 @@
         <v>477</v>
       </c>
       <c r="E89" t="n">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F89" t="n">
-        <v>77.5291</v>
+        <v>228</v>
       </c>
       <c r="G89" t="n">
-        <v>479.6833333333333</v>
+        <v>479.7166666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3777,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3791,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C90" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D90" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E90" t="n">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="F90" t="n">
-        <v>186.8376</v>
+        <v>77.5291</v>
       </c>
       <c r="G90" t="n">
-        <v>479.5833333333333</v>
+        <v>479.6833333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3816,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3830,7 +3548,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C91" t="n">
         <v>473</v>
@@ -3839,13 +3557,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F91" t="n">
-        <v>77.6759</v>
+        <v>186.8376</v>
       </c>
       <c r="G91" t="n">
-        <v>479.4833333333333</v>
+        <v>479.5833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3855,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3869,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C92" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D92" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E92" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F92" t="n">
-        <v>80</v>
+        <v>77.6759</v>
       </c>
       <c r="G92" t="n">
-        <v>479.35</v>
+        <v>479.4833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3894,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3908,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C93" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D93" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="E93" t="n">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="F93" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="G93" t="n">
-        <v>479.1333333333333</v>
+        <v>479.35</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3933,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3947,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C94" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D94" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E94" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F94" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G94" t="n">
-        <v>478.85</v>
+        <v>479.1333333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3972,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3998,10 +3700,10 @@
         <v>462</v>
       </c>
       <c r="F95" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G95" t="n">
-        <v>478.5666666666667</v>
+        <v>478.85</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4011,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4025,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C96" t="n">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D96" t="n">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="E96" t="n">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F96" t="n">
-        <v>6.1146</v>
+        <v>50</v>
       </c>
       <c r="G96" t="n">
-        <v>478.6</v>
+        <v>478.5666666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4050,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4064,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C97" t="n">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="D97" t="n">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E97" t="n">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="F97" t="n">
-        <v>56</v>
+        <v>6.1146</v>
       </c>
       <c r="G97" t="n">
-        <v>478.3333333333333</v>
+        <v>478.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4089,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4115,10 +3805,10 @@
         <v>462</v>
       </c>
       <c r="F98" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G98" t="n">
-        <v>478.05</v>
+        <v>478.3333333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4128,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4154,10 +3840,10 @@
         <v>462</v>
       </c>
       <c r="F99" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G99" t="n">
-        <v>477.7</v>
+        <v>478.05</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4167,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4181,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C100" t="n">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D100" t="n">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="E100" t="n">
         <v>462</v>
       </c>
       <c r="F100" t="n">
-        <v>624.6678000000001</v>
+        <v>100</v>
       </c>
       <c r="G100" t="n">
-        <v>477.4666666666666</v>
+        <v>477.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4206,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4223,19 +3901,19 @@
         <v>471</v>
       </c>
       <c r="C101" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D101" t="n">
         <v>471</v>
       </c>
       <c r="E101" t="n">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F101" t="n">
-        <v>13.3811</v>
+        <v>624.6678000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>477.25</v>
+        <v>477.4666666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4245,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4271,10 +3945,10 @@
         <v>471</v>
       </c>
       <c r="F102" t="n">
-        <v>14.3897</v>
+        <v>13.3811</v>
       </c>
       <c r="G102" t="n">
-        <v>477.2666666666667</v>
+        <v>477.25</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4284,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4310,7 +3980,7 @@
         <v>471</v>
       </c>
       <c r="F103" t="n">
-        <v>62</v>
+        <v>14.3897</v>
       </c>
       <c r="G103" t="n">
         <v>477.2666666666667</v>
@@ -4323,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4340,19 +4006,19 @@
         <v>471</v>
       </c>
       <c r="C104" t="n">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="D104" t="n">
         <v>471</v>
       </c>
       <c r="E104" t="n">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="F104" t="n">
-        <v>197.49</v>
+        <v>62</v>
       </c>
       <c r="G104" t="n">
-        <v>476.9833333333333</v>
+        <v>477.2666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4362,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4376,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C105" t="n">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="D105" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E105" t="n">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F105" t="n">
-        <v>60.6071</v>
+        <v>197.49</v>
       </c>
       <c r="G105" t="n">
-        <v>476.85</v>
+        <v>476.9833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4401,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4073,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C106" t="n">
         <v>475</v>
@@ -4424,13 +4082,13 @@
         <v>475</v>
       </c>
       <c r="E106" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F106" t="n">
-        <v>20.1747</v>
+        <v>60.6071</v>
       </c>
       <c r="G106" t="n">
-        <v>476.7166666666666</v>
+        <v>476.85</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4440,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4466,7 +4120,7 @@
         <v>475</v>
       </c>
       <c r="F107" t="n">
-        <v>34.4968</v>
+        <v>20.1747</v>
       </c>
       <c r="G107" t="n">
         <v>476.7166666666666</v>
@@ -4479,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4505,10 +4155,10 @@
         <v>475</v>
       </c>
       <c r="F108" t="n">
-        <v>57.3514</v>
+        <v>34.4968</v>
       </c>
       <c r="G108" t="n">
-        <v>476.7666666666667</v>
+        <v>476.7166666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4518,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4535,19 +4181,19 @@
         <v>475</v>
       </c>
       <c r="C109" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D109" t="n">
         <v>475</v>
       </c>
       <c r="E109" t="n">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="F109" t="n">
-        <v>124.4394</v>
+        <v>57.3514</v>
       </c>
       <c r="G109" t="n">
-        <v>476.7333333333333</v>
+        <v>476.7666666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4557,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4571,38 +4213,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C110" t="n">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D110" t="n">
         <v>475</v>
       </c>
       <c r="E110" t="n">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="F110" t="n">
-        <v>172.4583</v>
+        <v>124.4394</v>
       </c>
       <c r="G110" t="n">
-        <v>476.5833333333333</v>
+        <v>476.7333333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>472</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4612,38 +4248,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C111" t="n">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D111" t="n">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E111" t="n">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F111" t="n">
-        <v>20.3598</v>
+        <v>172.4583</v>
       </c>
       <c r="G111" t="n">
-        <v>476.4833333333333</v>
+        <v>476.5833333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>475</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4665,26 +4295,20 @@
         <v>478</v>
       </c>
       <c r="F112" t="n">
-        <v>36.1568</v>
+        <v>20.3598</v>
       </c>
       <c r="G112" t="n">
-        <v>476.4</v>
+        <v>476.4833333333333</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>478</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4706,10 +4330,10 @@
         <v>478</v>
       </c>
       <c r="F113" t="n">
-        <v>41.6463</v>
+        <v>36.1568</v>
       </c>
       <c r="G113" t="n">
-        <v>476.25</v>
+        <v>476.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4719,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4745,10 +4365,10 @@
         <v>478</v>
       </c>
       <c r="F114" t="n">
-        <v>13.8828</v>
+        <v>41.6463</v>
       </c>
       <c r="G114" t="n">
-        <v>476.3</v>
+        <v>476.25</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4758,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4784,10 +4400,10 @@
         <v>478</v>
       </c>
       <c r="F115" t="n">
-        <v>37.4831</v>
+        <v>13.8828</v>
       </c>
       <c r="G115" t="n">
-        <v>476.3666666666667</v>
+        <v>476.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4797,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4823,10 +4435,10 @@
         <v>478</v>
       </c>
       <c r="F116" t="n">
-        <v>23.2845</v>
+        <v>37.4831</v>
       </c>
       <c r="G116" t="n">
-        <v>476.4333333333333</v>
+        <v>476.3666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4836,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4853,19 +4461,19 @@
         <v>478</v>
       </c>
       <c r="C117" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D117" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E117" t="n">
         <v>478</v>
       </c>
       <c r="F117" t="n">
-        <v>729.4125</v>
+        <v>23.2845</v>
       </c>
       <c r="G117" t="n">
-        <v>476.55</v>
+        <v>476.4333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4875,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4889,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>478</v>
+      </c>
+      <c r="C118" t="n">
         <v>480</v>
-      </c>
-      <c r="C118" t="n">
-        <v>467</v>
       </c>
       <c r="D118" t="n">
         <v>480</v>
       </c>
       <c r="E118" t="n">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="F118" t="n">
-        <v>1594.202</v>
+        <v>729.4125</v>
       </c>
       <c r="G118" t="n">
-        <v>476.3333333333333</v>
+        <v>476.55</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4914,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4928,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="C119" t="n">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D119" t="n">
         <v>480</v>
       </c>
       <c r="E119" t="n">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F119" t="n">
-        <v>441.4507</v>
+        <v>1594.202</v>
       </c>
       <c r="G119" t="n">
-        <v>476.5</v>
+        <v>476.3333333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4953,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4967,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C120" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D120" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E120" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F120" t="n">
-        <v>209.572</v>
+        <v>441.4507</v>
       </c>
       <c r="G120" t="n">
-        <v>476.65</v>
+        <v>476.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4992,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5006,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="C121" t="n">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D121" t="n">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E121" t="n">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="F121" t="n">
-        <v>15.4038</v>
+        <v>209.572</v>
       </c>
       <c r="G121" t="n">
-        <v>476.9666666666666</v>
+        <v>476.65</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5031,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5045,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C122" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D122" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E122" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F122" t="n">
-        <v>39.6262</v>
+        <v>15.4038</v>
       </c>
       <c r="G122" t="n">
-        <v>477.1</v>
+        <v>476.9666666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5070,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5084,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C123" t="n">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D123" t="n">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="E123" t="n">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="F123" t="n">
-        <v>62</v>
+        <v>39.6262</v>
       </c>
       <c r="G123" t="n">
-        <v>476.9833333333333</v>
+        <v>477.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5109,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5135,10 +4715,10 @@
         <v>472</v>
       </c>
       <c r="F124" t="n">
-        <v>164.5461</v>
+        <v>62</v>
       </c>
       <c r="G124" t="n">
-        <v>476.7666666666667</v>
+        <v>476.9833333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5148,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5162,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C125" t="n">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D125" t="n">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="E125" t="n">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F125" t="n">
-        <v>972.6074</v>
+        <v>164.5461</v>
       </c>
       <c r="G125" t="n">
-        <v>476.7166666666666</v>
+        <v>476.7666666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5187,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5201,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C126" t="n">
         <v>481</v>
       </c>
       <c r="D126" t="n">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E126" t="n">
         <v>481</v>
       </c>
       <c r="F126" t="n">
-        <v>4.8959</v>
+        <v>972.6074</v>
       </c>
       <c r="G126" t="n">
-        <v>476.5666666666667</v>
+        <v>476.7166666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5226,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5240,19 +4808,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C127" t="n">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D127" t="n">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E127" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F127" t="n">
-        <v>22.926</v>
+        <v>4.8959</v>
       </c>
       <c r="G127" t="n">
         <v>476.5666666666667</v>
@@ -5265,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5279,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C128" t="n">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D128" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E128" t="n">
         <v>483</v>
       </c>
       <c r="F128" t="n">
-        <v>8.027699999999999</v>
+        <v>22.926</v>
       </c>
       <c r="G128" t="n">
-        <v>476.7166666666666</v>
+        <v>476.5666666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5304,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5318,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="C129" t="n">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="D129" t="n">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="E129" t="n">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="F129" t="n">
-        <v>157.4464</v>
+        <v>8.027699999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>476.4833333333333</v>
+        <v>476.7166666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5343,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5357,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="C130" t="n">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="D130" t="n">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="E130" t="n">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F130" t="n">
-        <v>96.1399</v>
+        <v>157.4464</v>
       </c>
       <c r="G130" t="n">
-        <v>476.45</v>
+        <v>476.4833333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5382,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5396,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>487</v>
+      </c>
+      <c r="C131" t="n">
         <v>485</v>
       </c>
-      <c r="C131" t="n">
-        <v>484</v>
-      </c>
       <c r="D131" t="n">
+        <v>487</v>
+      </c>
+      <c r="E131" t="n">
         <v>485</v>
       </c>
-      <c r="E131" t="n">
-        <v>483</v>
-      </c>
       <c r="F131" t="n">
-        <v>894.9924</v>
+        <v>96.1399</v>
       </c>
       <c r="G131" t="n">
-        <v>476.4333333333333</v>
+        <v>476.45</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5421,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5435,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C132" t="n">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D132" t="n">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E132" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F132" t="n">
-        <v>187.4589</v>
+        <v>894.9924</v>
       </c>
       <c r="G132" t="n">
-        <v>476.4833333333333</v>
+        <v>476.4333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5460,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5483,13 +5027,13 @@
         <v>488</v>
       </c>
       <c r="E133" t="n">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F133" t="n">
-        <v>48.0807</v>
+        <v>187.4589</v>
       </c>
       <c r="G133" t="n">
-        <v>476.7333333333333</v>
+        <v>476.4833333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5499,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5513,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C134" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D134" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E134" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="F134" t="n">
-        <v>198.3368</v>
+        <v>48.0807</v>
       </c>
       <c r="G134" t="n">
-        <v>476.9166666666667</v>
+        <v>476.7333333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5538,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5552,59 +5088,57 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C135" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D135" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E135" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="F135" t="n">
-        <v>292.4976</v>
+        <v>198.3368</v>
       </c>
       <c r="G135" t="n">
-        <v>476.9</v>
+        <v>476.9166666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C136" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D136" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E136" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F136" t="n">
-        <v>90</v>
+        <v>292.4976</v>
       </c>
       <c r="G136" t="n">
-        <v>476.8666666666667</v>
+        <v>476.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5624,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="C137" t="n">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D137" t="n">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="E137" t="n">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="F137" t="n">
-        <v>129.7581</v>
+        <v>90</v>
       </c>
       <c r="G137" t="n">
-        <v>476.9</v>
+        <v>476.8666666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5671,10 +5205,10 @@
         <v>474</v>
       </c>
       <c r="F138" t="n">
-        <v>165.2702</v>
+        <v>129.7581</v>
       </c>
       <c r="G138" t="n">
-        <v>476.7666666666667</v>
+        <v>476.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5694,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C139" t="n">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="D139" t="n">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="E139" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F139" t="n">
-        <v>420.0066</v>
+        <v>165.2702</v>
       </c>
       <c r="G139" t="n">
-        <v>476.85</v>
+        <v>476.7666666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5729,7 +5263,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C140" t="n">
         <v>488</v>
@@ -5738,10 +5272,10 @@
         <v>488</v>
       </c>
       <c r="E140" t="n">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F140" t="n">
-        <v>327.756</v>
+        <v>420.0066</v>
       </c>
       <c r="G140" t="n">
         <v>476.85</v>
@@ -5764,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C141" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D141" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E141" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F141" t="n">
-        <v>336.81</v>
+        <v>327.756</v>
       </c>
       <c r="G141" t="n">
-        <v>476.9</v>
+        <v>476.85</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5799,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C142" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D142" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E142" t="n">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F142" t="n">
-        <v>347.4253</v>
+        <v>336.81</v>
       </c>
       <c r="G142" t="n">
-        <v>476.9166666666667</v>
+        <v>476.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5834,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C143" t="n">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D143" t="n">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="E143" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F143" t="n">
-        <v>163.1859</v>
+        <v>347.4253</v>
       </c>
       <c r="G143" t="n">
-        <v>477</v>
+        <v>476.9166666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5869,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C144" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D144" t="n">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E144" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F144" t="n">
-        <v>283.2978</v>
+        <v>163.1859</v>
       </c>
       <c r="G144" t="n">
-        <v>476.9666666666666</v>
+        <v>477</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5907,19 +5441,19 @@
         <v>488</v>
       </c>
       <c r="C145" t="n">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D145" t="n">
         <v>488</v>
       </c>
       <c r="E145" t="n">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F145" t="n">
-        <v>16.1792</v>
+        <v>283.2978</v>
       </c>
       <c r="G145" t="n">
-        <v>477.05</v>
+        <v>476.9666666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5939,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C146" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D146" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E146" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F146" t="n">
-        <v>84.76479999999999</v>
+        <v>16.1792</v>
       </c>
       <c r="G146" t="n">
-        <v>477.15</v>
+        <v>477.05</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5977,19 +5511,19 @@
         <v>489</v>
       </c>
       <c r="C147" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D147" t="n">
         <v>489</v>
       </c>
       <c r="E147" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F147" t="n">
-        <v>105.6344</v>
+        <v>84.76479999999999</v>
       </c>
       <c r="G147" t="n">
-        <v>477.2666666666667</v>
+        <v>477.15</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6021,10 +5555,10 @@
         <v>488</v>
       </c>
       <c r="F148" t="n">
-        <v>26.3905</v>
+        <v>105.6344</v>
       </c>
       <c r="G148" t="n">
-        <v>477.45</v>
+        <v>477.2666666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6044,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C149" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D149" t="n">
         <v>489</v>
       </c>
       <c r="E149" t="n">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="F149" t="n">
-        <v>198.4789</v>
+        <v>26.3905</v>
       </c>
       <c r="G149" t="n">
-        <v>477.65</v>
+        <v>477.45</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6079,7 +5613,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C150" t="n">
         <v>489</v>
@@ -6088,13 +5622,13 @@
         <v>489</v>
       </c>
       <c r="E150" t="n">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F150" t="n">
-        <v>35.5766</v>
+        <v>198.4789</v>
       </c>
       <c r="G150" t="n">
-        <v>477.9166666666667</v>
+        <v>477.65</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6126,10 +5660,10 @@
         <v>489</v>
       </c>
       <c r="F151" t="n">
-        <v>35.5756</v>
+        <v>35.5766</v>
       </c>
       <c r="G151" t="n">
-        <v>478.1833333333333</v>
+        <v>477.9166666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6161,10 +5695,10 @@
         <v>489</v>
       </c>
       <c r="F152" t="n">
-        <v>124.1972</v>
+        <v>35.5756</v>
       </c>
       <c r="G152" t="n">
-        <v>478.4833333333333</v>
+        <v>478.1833333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6196,10 +5730,10 @@
         <v>489</v>
       </c>
       <c r="F153" t="n">
-        <v>8.8711</v>
+        <v>124.1972</v>
       </c>
       <c r="G153" t="n">
-        <v>478.8666666666667</v>
+        <v>478.4833333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6231,10 +5765,10 @@
         <v>489</v>
       </c>
       <c r="F154" t="n">
-        <v>61.4365</v>
+        <v>8.8711</v>
       </c>
       <c r="G154" t="n">
-        <v>479.3166666666667</v>
+        <v>478.8666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6266,10 +5800,10 @@
         <v>489</v>
       </c>
       <c r="F155" t="n">
-        <v>10.2392</v>
+        <v>61.4365</v>
       </c>
       <c r="G155" t="n">
-        <v>479.7666666666667</v>
+        <v>479.3166666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6301,10 +5835,10 @@
         <v>489</v>
       </c>
       <c r="F156" t="n">
-        <v>5.1196</v>
+        <v>10.2392</v>
       </c>
       <c r="G156" t="n">
-        <v>480.0666666666667</v>
+        <v>479.7666666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6336,10 +5870,10 @@
         <v>489</v>
       </c>
       <c r="F157" t="n">
-        <v>2.5603</v>
+        <v>5.1196</v>
       </c>
       <c r="G157" t="n">
-        <v>480.5166666666667</v>
+        <v>480.0666666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6374,7 +5908,7 @@
         <v>2.5603</v>
       </c>
       <c r="G158" t="n">
-        <v>480.9666666666666</v>
+        <v>480.5166666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6406,10 +5940,10 @@
         <v>489</v>
       </c>
       <c r="F159" t="n">
-        <v>82.27719999999999</v>
+        <v>2.5603</v>
       </c>
       <c r="G159" t="n">
-        <v>481.4166666666667</v>
+        <v>480.9666666666666</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6441,10 +5975,10 @@
         <v>489</v>
       </c>
       <c r="F160" t="n">
-        <v>37.3812</v>
+        <v>82.27719999999999</v>
       </c>
       <c r="G160" t="n">
-        <v>481.7333333333333</v>
+        <v>481.4166666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6476,10 +6010,10 @@
         <v>489</v>
       </c>
       <c r="F161" t="n">
-        <v>5.3404</v>
+        <v>37.3812</v>
       </c>
       <c r="G161" t="n">
-        <v>482.0333333333334</v>
+        <v>481.7333333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6499,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C162" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="D162" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="E162" t="n">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="F162" t="n">
-        <v>136.0235</v>
+        <v>5.3404</v>
       </c>
       <c r="G162" t="n">
-        <v>482.2166666666666</v>
+        <v>482.0333333333334</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6534,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C163" t="n">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D163" t="n">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E163" t="n">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>136.0235</v>
       </c>
       <c r="G163" t="n">
-        <v>482.5166666666667</v>
+        <v>482.2166666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6581,10 +6115,10 @@
         <v>489</v>
       </c>
       <c r="F164" t="n">
-        <v>21.9426</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>483.0666666666667</v>
+        <v>482.5166666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6616,10 +6150,10 @@
         <v>489</v>
       </c>
       <c r="F165" t="n">
-        <v>3.1349</v>
+        <v>21.9426</v>
       </c>
       <c r="G165" t="n">
-        <v>483.3</v>
+        <v>483.0666666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6639,19 +6173,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="C166" t="n">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="D166" t="n">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E166" t="n">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="F166" t="n">
-        <v>121.7995</v>
+        <v>3.1349</v>
       </c>
       <c r="G166" t="n">
         <v>483.3</v>
@@ -6674,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C167" t="n">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D167" t="n">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E167" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F167" t="n">
-        <v>96.5305</v>
+        <v>121.7995</v>
       </c>
       <c r="G167" t="n">
-        <v>483.35</v>
+        <v>483.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6709,19 +6243,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C168" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D168" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E168" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F168" t="n">
-        <v>99.20650000000001</v>
+        <v>96.5305</v>
       </c>
       <c r="G168" t="n">
         <v>483.35</v>
@@ -6739,6 +6273,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>475</v>
+      </c>
+      <c r="C169" t="n">
+        <v>475</v>
+      </c>
+      <c r="D169" t="n">
+        <v>475</v>
+      </c>
+      <c r="E169" t="n">
+        <v>475</v>
+      </c>
+      <c r="F169" t="n">
+        <v>99.20650000000001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>483.35</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-25 BackTest GXC.xlsx
+++ b/BackTest/2019-10-25 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2.08768267</v>
       </c>
       <c r="G2" t="n">
+        <v>475.7333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>475.8</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1111.3795</v>
       </c>
       <c r="G3" t="n">
+        <v>476.4666666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>475.8333333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1159.5258</v>
       </c>
       <c r="G4" t="n">
+        <v>475.4666666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>475.65</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
+        <v>475.5333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>475.7333333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>160.021</v>
       </c>
       <c r="G6" t="n">
+        <v>474.8666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>475.65</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>443.1404</v>
       </c>
       <c r="G7" t="n">
+        <v>475.0666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>475.65</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>333.4131</v>
       </c>
       <c r="G8" t="n">
+        <v>474.0666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>475.4666666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>172.3425</v>
       </c>
       <c r="G9" t="n">
+        <v>472.3333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>475.2833333333334</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>160</v>
       </c>
       <c r="G10" t="n">
+        <v>471.6</v>
+      </c>
+      <c r="H10" t="n">
         <v>475.2</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>335.5243</v>
       </c>
       <c r="G11" t="n">
+        <v>471</v>
+      </c>
+      <c r="H11" t="n">
         <v>475.1333333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>2</v>
       </c>
       <c r="G12" t="n">
+        <v>470.8666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>475.0333333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>103.4507</v>
       </c>
       <c r="G13" t="n">
+        <v>471.4666666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>475.0666666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>35.1347</v>
       </c>
       <c r="G14" t="n">
+        <v>471.4666666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>475.0833333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>145.8118</v>
       </c>
       <c r="G15" t="n">
+        <v>471</v>
+      </c>
+      <c r="H15" t="n">
         <v>474.9333333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>394.2051</v>
       </c>
       <c r="G16" t="n">
+        <v>471</v>
+      </c>
+      <c r="H16" t="n">
         <v>475</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>247.4701</v>
       </c>
       <c r="G17" t="n">
+        <v>470</v>
+      </c>
+      <c r="H17" t="n">
         <v>474.75</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>303.3417</v>
       </c>
       <c r="G18" t="n">
+        <v>469.2666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>474.55</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
+        <v>469.8666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>474.3833333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2053.2</v>
       </c>
       <c r="G20" t="n">
+        <v>469.2666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>474.2833333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>9297.576999999999</v>
       </c>
       <c r="G21" t="n">
+        <v>469.4</v>
+      </c>
+      <c r="H21" t="n">
         <v>474.2</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>280</v>
       </c>
       <c r="G22" t="n">
+        <v>468.6</v>
+      </c>
+      <c r="H22" t="n">
         <v>473.9333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>745</v>
       </c>
       <c r="G23" t="n">
+        <v>468.5333333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>473.75</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>40</v>
       </c>
       <c r="G24" t="n">
+        <v>468.4</v>
+      </c>
+      <c r="H24" t="n">
         <v>473.45</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>744.6808</v>
       </c>
       <c r="G25" t="n">
+        <v>468.4666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>473.3</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>759.4642906</v>
       </c>
       <c r="G26" t="n">
+        <v>469.0666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>473.2333333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>71.84699999999999</v>
       </c>
       <c r="G27" t="n">
+        <v>469.7333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>473.1833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>30.3109</v>
       </c>
       <c r="G28" t="n">
+        <v>469.9333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>473.25</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>90.93089999999999</v>
       </c>
       <c r="G29" t="n">
+        <v>470.2</v>
+      </c>
+      <c r="H29" t="n">
         <v>473.2</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>30.3109</v>
       </c>
       <c r="G30" t="n">
+        <v>471.1333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>473.2666666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>41.9226</v>
       </c>
       <c r="G31" t="n">
+        <v>471.4</v>
+      </c>
+      <c r="H31" t="n">
         <v>473.2166666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>30.2483</v>
       </c>
       <c r="G32" t="n">
+        <v>472.4</v>
+      </c>
+      <c r="H32" t="n">
         <v>473.0666666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>29.168</v>
       </c>
       <c r="G33" t="n">
+        <v>473.3333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>472.95</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>9.722300000000001</v>
       </c>
       <c r="G34" t="n">
+        <v>473.8</v>
+      </c>
+      <c r="H34" t="n">
         <v>472.8333333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>22.168</v>
       </c>
       <c r="G35" t="n">
+        <v>474.4</v>
+      </c>
+      <c r="H35" t="n">
         <v>472.7166666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>3.6951</v>
       </c>
       <c r="G36" t="n">
+        <v>474.9333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>472.95</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>242.6767</v>
       </c>
       <c r="G37" t="n">
+        <v>475.4</v>
+      </c>
+      <c r="H37" t="n">
         <v>472.65</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,25 @@
         <v>218.409</v>
       </c>
       <c r="G38" t="n">
+        <v>476.4666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>472.7666666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>469</v>
+      </c>
+      <c r="L38" t="n">
+        <v>469</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1863,29 @@
         <v>35.5687</v>
       </c>
       <c r="G39" t="n">
+        <v>477.6666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>472.95</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>478</v>
+      </c>
+      <c r="L39" t="n">
+        <v>469</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1909,27 @@
         <v>48.38482673</v>
       </c>
       <c r="G40" t="n">
+        <v>478.5333333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>473.2166666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>469</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1953,21 @@
         <v>20.0329</v>
       </c>
       <c r="G41" t="n">
+        <v>478.8666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>473.5</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1991,21 @@
         <v>6.6776</v>
       </c>
       <c r="G42" t="n">
+        <v>479.2</v>
+      </c>
+      <c r="H42" t="n">
         <v>473.7666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2029,21 @@
         <v>72</v>
       </c>
       <c r="G43" t="n">
+        <v>478.6</v>
+      </c>
+      <c r="H43" t="n">
         <v>473.5</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2067,21 @@
         <v>53</v>
       </c>
       <c r="G44" t="n">
+        <v>478.0666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>473.5666666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2105,21 @@
         <v>293.8459</v>
       </c>
       <c r="G45" t="n">
+        <v>477.6666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>473.6166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2143,21 @@
         <v>114.8408</v>
       </c>
       <c r="G46" t="n">
+        <v>477.9333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>473.95</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2181,21 @@
         <v>5.2971</v>
       </c>
       <c r="G47" t="n">
+        <v>478.2</v>
+      </c>
+      <c r="H47" t="n">
         <v>474.0833333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2219,21 @@
         <v>157.7771</v>
       </c>
       <c r="G48" t="n">
+        <v>477.9333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>474.25</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2257,21 @@
         <v>138.6999</v>
       </c>
       <c r="G49" t="n">
+        <v>477.4666666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>474.15</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2295,21 @@
         <v>115.8299</v>
       </c>
       <c r="G50" t="n">
+        <v>477.1333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>474.0833333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2333,21 @@
         <v>3.536</v>
       </c>
       <c r="G51" t="n">
+        <v>477.4666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>474.1666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2371,21 @@
         <v>57.9204</v>
       </c>
       <c r="G52" t="n">
+        <v>478.4666666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>474.3833333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2409,21 @@
         <v>58.0413</v>
       </c>
       <c r="G53" t="n">
+        <v>478.8</v>
+      </c>
+      <c r="H53" t="n">
         <v>474.4666666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2447,21 @@
         <v>11.3838</v>
       </c>
       <c r="G54" t="n">
+        <v>479.3333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>474.4333333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2485,21 @@
         <v>42.8935</v>
       </c>
       <c r="G55" t="n">
+        <v>478.8</v>
+      </c>
+      <c r="H55" t="n">
         <v>474.35</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2523,21 @@
         <v>214.2911</v>
       </c>
       <c r="G56" t="n">
+        <v>478.1333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>474.2666666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2561,21 @@
         <v>142.146</v>
       </c>
       <c r="G57" t="n">
+        <v>477.4666666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>474.3166666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2599,21 @@
         <v>73.998</v>
       </c>
       <c r="G58" t="n">
+        <v>477.6666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>474.4166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2637,21 @@
         <v>120</v>
       </c>
       <c r="G59" t="n">
+        <v>478.2666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>474.5</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2675,21 @@
         <v>21.7151</v>
       </c>
       <c r="G60" t="n">
+        <v>478.0666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>474.4666666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2713,21 @@
         <v>220.9403</v>
       </c>
       <c r="G61" t="n">
+        <v>477.5333333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>474.4666666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2751,21 @@
         <v>69.6242</v>
       </c>
       <c r="G62" t="n">
+        <v>476.6666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>474.3166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2789,21 @@
         <v>228.7696</v>
       </c>
       <c r="G63" t="n">
+        <v>476.8</v>
+      </c>
+      <c r="H63" t="n">
         <v>474.3333333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2827,21 @@
         <v>240</v>
       </c>
       <c r="G64" t="n">
+        <v>477.2666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>474.6</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2865,21 @@
         <v>80</v>
       </c>
       <c r="G65" t="n">
+        <v>478</v>
+      </c>
+      <c r="H65" t="n">
         <v>474.7</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2903,21 @@
         <v>141.2314</v>
       </c>
       <c r="G66" t="n">
+        <v>478</v>
+      </c>
+      <c r="H66" t="n">
         <v>474.95</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2941,21 @@
         <v>90.7959</v>
       </c>
       <c r="G67" t="n">
+        <v>478.4</v>
+      </c>
+      <c r="H67" t="n">
         <v>475.2166666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2979,21 @@
         <v>183.078</v>
       </c>
       <c r="G68" t="n">
+        <v>478.6666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>475.6166666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3017,21 @@
         <v>143.4545</v>
       </c>
       <c r="G69" t="n">
+        <v>477.8</v>
+      </c>
+      <c r="H69" t="n">
         <v>475.8</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3055,21 @@
         <v>328.4233</v>
       </c>
       <c r="G70" t="n">
+        <v>478.5333333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>476.0833333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3093,21 @@
         <v>11.8524</v>
       </c>
       <c r="G71" t="n">
+        <v>479.4</v>
+      </c>
+      <c r="H71" t="n">
         <v>476.3666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3131,21 @@
         <v>33.9041</v>
       </c>
       <c r="G72" t="n">
+        <v>480.1333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>476.6333333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3169,21 @@
         <v>930.2537</v>
       </c>
       <c r="G73" t="n">
+        <v>480.9333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>476.7833333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3207,21 @@
         <v>119.0126</v>
       </c>
       <c r="G74" t="n">
+        <v>480.4666666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>476.75</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3245,21 @@
         <v>23.3914</v>
       </c>
       <c r="G75" t="n">
+        <v>481</v>
+      </c>
+      <c r="H75" t="n">
         <v>476.9666666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3283,21 @@
         <v>61.1862</v>
       </c>
       <c r="G76" t="n">
+        <v>481.8666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>477.1833333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3321,21 @@
         <v>178.6402</v>
       </c>
       <c r="G77" t="n">
+        <v>482.9333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>477.55</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3359,21 @@
         <v>200.5493</v>
       </c>
       <c r="G78" t="n">
+        <v>482.6</v>
+      </c>
+      <c r="H78" t="n">
         <v>477.6666666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3397,21 @@
         <v>71.77930000000001</v>
       </c>
       <c r="G79" t="n">
+        <v>482.8</v>
+      </c>
+      <c r="H79" t="n">
         <v>477.8333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3435,21 @@
         <v>274.6294</v>
       </c>
       <c r="G80" t="n">
+        <v>482.6666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>478.05</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3473,21 @@
         <v>15.95470696</v>
       </c>
       <c r="G81" t="n">
+        <v>482.9333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>478.3333333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3511,21 @@
         <v>80</v>
       </c>
       <c r="G82" t="n">
+        <v>482.6666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>478.7333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3549,21 @@
         <v>7.823</v>
       </c>
       <c r="G83" t="n">
+        <v>482.6</v>
+      </c>
+      <c r="H83" t="n">
         <v>479.1333333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3587,21 @@
         <v>427.8027</v>
       </c>
       <c r="G84" t="n">
+        <v>482.6666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>479.3666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3625,21 @@
         <v>29.1521</v>
       </c>
       <c r="G85" t="n">
+        <v>482.4666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>479.5833333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3663,21 @@
         <v>21.8638</v>
       </c>
       <c r="G86" t="n">
+        <v>482.2</v>
+      </c>
+      <c r="H86" t="n">
         <v>479.65</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3701,21 @@
         <v>63.6686</v>
       </c>
       <c r="G87" t="n">
+        <v>482.0666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>479.7166666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3739,21 @@
         <v>17.4024</v>
       </c>
       <c r="G88" t="n">
+        <v>481.8</v>
+      </c>
+      <c r="H88" t="n">
         <v>479.75</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3777,21 @@
         <v>228</v>
       </c>
       <c r="G89" t="n">
+        <v>482.0666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>479.7166666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3815,21 @@
         <v>77.5291</v>
       </c>
       <c r="G90" t="n">
+        <v>482</v>
+      </c>
+      <c r="H90" t="n">
         <v>479.6833333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3853,21 @@
         <v>186.8376</v>
       </c>
       <c r="G91" t="n">
+        <v>481</v>
+      </c>
+      <c r="H91" t="n">
         <v>479.5833333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3891,21 @@
         <v>77.6759</v>
       </c>
       <c r="G92" t="n">
+        <v>480.1333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>479.4833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3929,21 @@
         <v>80</v>
       </c>
       <c r="G93" t="n">
+        <v>480.0666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>479.35</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3967,21 @@
         <v>43</v>
       </c>
       <c r="G94" t="n">
+        <v>479</v>
+      </c>
+      <c r="H94" t="n">
         <v>479.1333333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4005,21 @@
         <v>11</v>
       </c>
       <c r="G95" t="n">
+        <v>477.6</v>
+      </c>
+      <c r="H95" t="n">
         <v>478.85</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4043,21 @@
         <v>50</v>
       </c>
       <c r="G96" t="n">
+        <v>475.8666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>478.5666666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4081,21 @@
         <v>6.1146</v>
       </c>
       <c r="G97" t="n">
+        <v>474.8666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>478.6</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4119,21 @@
         <v>56</v>
       </c>
       <c r="G98" t="n">
+        <v>473.2666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>478.3333333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4157,21 @@
         <v>50</v>
       </c>
       <c r="G99" t="n">
+        <v>472.4</v>
+      </c>
+      <c r="H99" t="n">
         <v>478.05</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4195,25 @@
         <v>100</v>
       </c>
       <c r="G100" t="n">
+        <v>471</v>
+      </c>
+      <c r="H100" t="n">
         <v>477.7</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>462</v>
+      </c>
+      <c r="L100" t="n">
+        <v>462</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4237,27 @@
         <v>624.6678000000001</v>
       </c>
       <c r="G101" t="n">
+        <v>470.1333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>477.4666666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>462</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4281,29 @@
         <v>13.3811</v>
       </c>
       <c r="G102" t="n">
+        <v>469.3333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>477.25</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>470</v>
+      </c>
+      <c r="L102" t="n">
+        <v>462</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4327,27 @@
         <v>14.3897</v>
       </c>
       <c r="G103" t="n">
+        <v>468.6666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>477.2666666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>462</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4371,27 @@
         <v>62</v>
       </c>
       <c r="G104" t="n">
+        <v>468.2666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>477.2666666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>462</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4415,27 @@
         <v>197.49</v>
       </c>
       <c r="G105" t="n">
+        <v>466.8666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>476.9833333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>462</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4459,27 @@
         <v>60.6071</v>
       </c>
       <c r="G106" t="n">
+        <v>467</v>
+      </c>
+      <c r="H106" t="n">
         <v>476.85</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>462</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4503,27 @@
         <v>20.1747</v>
       </c>
       <c r="G107" t="n">
+        <v>467.1333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>476.7166666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>462</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4547,27 @@
         <v>34.4968</v>
       </c>
       <c r="G108" t="n">
+        <v>467.4</v>
+      </c>
+      <c r="H108" t="n">
         <v>476.7166666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>462</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4591,27 @@
         <v>57.3514</v>
       </c>
       <c r="G109" t="n">
+        <v>468</v>
+      </c>
+      <c r="H109" t="n">
         <v>476.7666666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>462</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4635,27 @@
         <v>124.4394</v>
       </c>
       <c r="G110" t="n">
+        <v>468.6666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>476.7333333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>462</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4679,27 @@
         <v>172.4583</v>
       </c>
       <c r="G111" t="n">
+        <v>469.5333333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>476.5833333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>462</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4723,27 @@
         <v>20.3598</v>
       </c>
       <c r="G112" t="n">
+        <v>470</v>
+      </c>
+      <c r="H112" t="n">
         <v>476.4833333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>462</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4767,27 @@
         <v>36.1568</v>
       </c>
       <c r="G113" t="n">
+        <v>471.0666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>476.4</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>462</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4811,27 @@
         <v>41.6463</v>
       </c>
       <c r="G114" t="n">
+        <v>472.1333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>476.25</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>462</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4855,27 @@
         <v>13.8828</v>
       </c>
       <c r="G115" t="n">
+        <v>473.2</v>
+      </c>
+      <c r="H115" t="n">
         <v>476.3</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>462</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4899,27 @@
         <v>37.4831</v>
       </c>
       <c r="G116" t="n">
+        <v>473.7333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>476.3666666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>462</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4943,27 @@
         <v>23.2845</v>
       </c>
       <c r="G117" t="n">
+        <v>474.2</v>
+      </c>
+      <c r="H117" t="n">
         <v>476.4333333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>462</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4987,27 @@
         <v>729.4125</v>
       </c>
       <c r="G118" t="n">
+        <v>474.8</v>
+      </c>
+      <c r="H118" t="n">
         <v>476.55</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>462</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5031,27 @@
         <v>1594.202</v>
       </c>
       <c r="G119" t="n">
+        <v>474.5333333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>476.3333333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>462</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5075,27 @@
         <v>441.4507</v>
       </c>
       <c r="G120" t="n">
+        <v>476.1333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>476.5</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>462</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5119,27 @@
         <v>209.572</v>
       </c>
       <c r="G121" t="n">
+        <v>476.7333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>476.65</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>462</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5163,27 @@
         <v>15.4038</v>
       </c>
       <c r="G122" t="n">
+        <v>477.6666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>476.9666666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>462</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5207,27 @@
         <v>39.6262</v>
       </c>
       <c r="G123" t="n">
+        <v>478.3333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>477.1</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>462</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5251,27 @@
         <v>62</v>
       </c>
       <c r="G124" t="n">
+        <v>478.1333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>476.9833333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>462</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5295,27 @@
         <v>164.5461</v>
       </c>
       <c r="G125" t="n">
+        <v>478.1333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>476.7666666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>462</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5339,27 @@
         <v>972.6074</v>
       </c>
       <c r="G126" t="n">
+        <v>478.5333333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>476.7166666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>462</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5383,27 @@
         <v>4.8959</v>
       </c>
       <c r="G127" t="n">
+        <v>478.7333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>476.5666666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>462</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5427,27 @@
         <v>22.926</v>
       </c>
       <c r="G128" t="n">
+        <v>479.3333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>476.5666666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>462</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5471,27 @@
         <v>8.027699999999999</v>
       </c>
       <c r="G129" t="n">
+        <v>479.6666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>476.7166666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>462</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5515,27 @@
         <v>157.4464</v>
       </c>
       <c r="G130" t="n">
+        <v>479.2666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>476.4833333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>462</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5559,27 @@
         <v>96.1399</v>
       </c>
       <c r="G131" t="n">
+        <v>479.7333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>476.45</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>462</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5603,27 @@
         <v>894.9924</v>
       </c>
       <c r="G132" t="n">
+        <v>480.1333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>476.4333333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>462</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5647,27 @@
         <v>187.4589</v>
       </c>
       <c r="G133" t="n">
+        <v>480.6666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>476.4833333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>462</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5691,27 @@
         <v>48.0807</v>
       </c>
       <c r="G134" t="n">
+        <v>482.0666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>476.7333333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>462</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5735,27 @@
         <v>198.3368</v>
       </c>
       <c r="G135" t="n">
+        <v>482.6666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>476.9166666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>462</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5779,27 @@
         <v>292.4976</v>
       </c>
       <c r="G136" t="n">
+        <v>482.8666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>476.9</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>462</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5823,27 @@
         <v>90</v>
       </c>
       <c r="G137" t="n">
+        <v>482.5333333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>476.8666666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>462</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5867,27 @@
         <v>129.7581</v>
       </c>
       <c r="G138" t="n">
+        <v>481.8</v>
+      </c>
+      <c r="H138" t="n">
         <v>476.9</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>462</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5911,27 @@
         <v>165.2702</v>
       </c>
       <c r="G139" t="n">
+        <v>481.9333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>476.7666666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>462</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5955,27 @@
         <v>420.0066</v>
       </c>
       <c r="G140" t="n">
+        <v>483</v>
+      </c>
+      <c r="H140" t="n">
         <v>476.85</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>462</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5999,27 @@
         <v>327.756</v>
       </c>
       <c r="G141" t="n">
+        <v>483.4666666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>476.85</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>462</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6043,27 @@
         <v>336.81</v>
       </c>
       <c r="G142" t="n">
+        <v>484</v>
+      </c>
+      <c r="H142" t="n">
         <v>476.9</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>462</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6087,27 @@
         <v>347.4253</v>
       </c>
       <c r="G143" t="n">
+        <v>484</v>
+      </c>
+      <c r="H143" t="n">
         <v>476.9166666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>462</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6131,27 @@
         <v>163.1859</v>
       </c>
       <c r="G144" t="n">
+        <v>483.8</v>
+      </c>
+      <c r="H144" t="n">
         <v>477</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>462</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6175,27 @@
         <v>283.2978</v>
       </c>
       <c r="G145" t="n">
+        <v>484.4</v>
+      </c>
+      <c r="H145" t="n">
         <v>476.9666666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>462</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6219,27 @@
         <v>16.1792</v>
       </c>
       <c r="G146" t="n">
+        <v>484.6</v>
+      </c>
+      <c r="H146" t="n">
         <v>477.05</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>462</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6263,27 @@
         <v>84.76479999999999</v>
       </c>
       <c r="G147" t="n">
+        <v>484.9333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>477.15</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>462</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6307,27 @@
         <v>105.6344</v>
       </c>
       <c r="G148" t="n">
+        <v>484.9333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>477.2666666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>462</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6351,27 @@
         <v>26.3905</v>
       </c>
       <c r="G149" t="n">
+        <v>484.9333333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>477.45</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>462</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6395,27 @@
         <v>198.4789</v>
       </c>
       <c r="G150" t="n">
+        <v>484.9333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>477.65</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>462</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6439,27 @@
         <v>35.5766</v>
       </c>
       <c r="G151" t="n">
+        <v>485.0666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>477.9166666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>462</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6483,27 @@
         <v>35.5756</v>
       </c>
       <c r="G152" t="n">
+        <v>485.4</v>
+      </c>
+      <c r="H152" t="n">
         <v>478.1833333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>462</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6527,27 @@
         <v>124.1972</v>
       </c>
       <c r="G153" t="n">
+        <v>486.4</v>
+      </c>
+      <c r="H153" t="n">
         <v>478.4833333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>462</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6571,27 @@
         <v>8.8711</v>
       </c>
       <c r="G154" t="n">
+        <v>487.4</v>
+      </c>
+      <c r="H154" t="n">
         <v>478.8666666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>462</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,19 +6615,28 @@
         <v>61.4365</v>
       </c>
       <c r="G155" t="n">
+        <v>487.4666666666666</v>
+      </c>
+      <c r="H155" t="n">
         <v>479.3166666666667</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
+      <c r="L155" t="n">
+        <v>462</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>1.053441558441559</v>
       </c>
     </row>
     <row r="156">
@@ -5838,18 +6659,21 @@
         <v>10.2392</v>
       </c>
       <c r="G156" t="n">
+        <v>487.5333333333334</v>
+      </c>
+      <c r="H156" t="n">
         <v>479.7666666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6697,21 @@
         <v>5.1196</v>
       </c>
       <c r="G157" t="n">
+        <v>487.5333333333334</v>
+      </c>
+      <c r="H157" t="n">
         <v>480.0666666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6735,21 @@
         <v>2.5603</v>
       </c>
       <c r="G158" t="n">
+        <v>487.6666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>480.5166666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6773,21 @@
         <v>2.5603</v>
       </c>
       <c r="G159" t="n">
+        <v>488.2666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>480.9666666666666</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6811,21 @@
         <v>82.27719999999999</v>
       </c>
       <c r="G160" t="n">
+        <v>488.8</v>
+      </c>
+      <c r="H160" t="n">
         <v>481.4166666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6849,21 @@
         <v>37.3812</v>
       </c>
       <c r="G161" t="n">
+        <v>488.8666666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>481.7333333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6887,21 @@
         <v>5.3404</v>
       </c>
       <c r="G162" t="n">
+        <v>488.8666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>482.0333333333334</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6925,21 @@
         <v>136.0235</v>
       </c>
       <c r="G163" t="n">
+        <v>488.4666666666666</v>
+      </c>
+      <c r="H163" t="n">
         <v>482.2166666666666</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6963,21 @@
         <v>1</v>
       </c>
       <c r="G164" t="n">
+        <v>488.5333333333334</v>
+      </c>
+      <c r="H164" t="n">
         <v>482.5166666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +7001,21 @@
         <v>21.9426</v>
       </c>
       <c r="G165" t="n">
+        <v>488.5333333333334</v>
+      </c>
+      <c r="H165" t="n">
         <v>483.0666666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +7039,21 @@
         <v>3.1349</v>
       </c>
       <c r="G166" t="n">
+        <v>488.5333333333334</v>
+      </c>
+      <c r="H166" t="n">
         <v>483.3</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +7077,21 @@
         <v>121.7995</v>
       </c>
       <c r="G167" t="n">
+        <v>487.6</v>
+      </c>
+      <c r="H167" t="n">
         <v>483.3</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7115,21 @@
         <v>96.5305</v>
       </c>
       <c r="G168" t="n">
+        <v>486.8666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>483.35</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7153,401 @@
         <v>99.20650000000001</v>
       </c>
       <c r="G169" t="n">
+        <v>485.9333333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>483.35</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>477</v>
+      </c>
+      <c r="C170" t="n">
+        <v>488</v>
+      </c>
+      <c r="D170" t="n">
+        <v>488</v>
+      </c>
+      <c r="E170" t="n">
+        <v>477</v>
+      </c>
+      <c r="F170" t="n">
+        <v>80</v>
+      </c>
+      <c r="G170" t="n">
+        <v>485.8666666666667</v>
+      </c>
+      <c r="H170" t="n">
+        <v>483.6166666666667</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>477</v>
+      </c>
+      <c r="C171" t="n">
+        <v>476</v>
+      </c>
+      <c r="D171" t="n">
+        <v>477</v>
+      </c>
+      <c r="E171" t="n">
+        <v>476</v>
+      </c>
+      <c r="F171" t="n">
+        <v>120.323</v>
+      </c>
+      <c r="G171" t="n">
+        <v>485</v>
+      </c>
+      <c r="H171" t="n">
+        <v>483.6333333333333</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>473</v>
+      </c>
+      <c r="C172" t="n">
+        <v>489</v>
+      </c>
+      <c r="D172" t="n">
+        <v>489</v>
+      </c>
+      <c r="E172" t="n">
+        <v>473</v>
+      </c>
+      <c r="F172" t="n">
+        <v>321.199</v>
+      </c>
+      <c r="G172" t="n">
+        <v>485</v>
+      </c>
+      <c r="H172" t="n">
+        <v>483.8166666666667</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>475</v>
+      </c>
+      <c r="C173" t="n">
+        <v>475</v>
+      </c>
+      <c r="D173" t="n">
+        <v>475</v>
+      </c>
+      <c r="E173" t="n">
+        <v>475</v>
+      </c>
+      <c r="F173" t="n">
+        <v>53.7088</v>
+      </c>
+      <c r="G173" t="n">
+        <v>484.0666666666667</v>
+      </c>
+      <c r="H173" t="n">
+        <v>483.7666666666667</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>485</v>
+      </c>
+      <c r="C174" t="n">
+        <v>485</v>
+      </c>
+      <c r="D174" t="n">
+        <v>485</v>
+      </c>
+      <c r="E174" t="n">
+        <v>485</v>
+      </c>
+      <c r="F174" t="n">
+        <v>16.0782</v>
+      </c>
+      <c r="G174" t="n">
+        <v>483.8</v>
+      </c>
+      <c r="H174" t="n">
+        <v>483.8833333333333</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>483</v>
+      </c>
+      <c r="C175" t="n">
+        <v>483</v>
+      </c>
+      <c r="D175" t="n">
+        <v>483</v>
+      </c>
+      <c r="E175" t="n">
+        <v>483</v>
+      </c>
+      <c r="F175" t="n">
+        <v>60</v>
+      </c>
+      <c r="G175" t="n">
+        <v>483.4</v>
+      </c>
+      <c r="H175" t="n">
+        <v>483.9666666666666</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>489</v>
+      </c>
+      <c r="C176" t="n">
+        <v>489</v>
+      </c>
+      <c r="D176" t="n">
+        <v>489</v>
+      </c>
+      <c r="E176" t="n">
+        <v>489</v>
+      </c>
+      <c r="F176" t="n">
+        <v>57.6891</v>
+      </c>
+      <c r="G176" t="n">
+        <v>483.4</v>
+      </c>
+      <c r="H176" t="n">
+        <v>484.15</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>489</v>
+      </c>
+      <c r="C177" t="n">
+        <v>489</v>
+      </c>
+      <c r="D177" t="n">
+        <v>489</v>
+      </c>
+      <c r="E177" t="n">
+        <v>489</v>
+      </c>
+      <c r="F177" t="n">
+        <v>11.3803</v>
+      </c>
+      <c r="G177" t="n">
+        <v>483.4</v>
+      </c>
+      <c r="H177" t="n">
+        <v>484.3333333333333</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>474</v>
+      </c>
+      <c r="C178" t="n">
+        <v>475</v>
+      </c>
+      <c r="D178" t="n">
+        <v>489</v>
+      </c>
+      <c r="E178" t="n">
+        <v>473</v>
+      </c>
+      <c r="F178" t="n">
+        <v>228.1198</v>
+      </c>
+      <c r="G178" t="n">
+        <v>482.9333333333333</v>
+      </c>
+      <c r="H178" t="n">
+        <v>484.25</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>475</v>
+      </c>
+      <c r="C179" t="n">
+        <v>484</v>
+      </c>
+      <c r="D179" t="n">
+        <v>484</v>
+      </c>
+      <c r="E179" t="n">
+        <v>475</v>
+      </c>
+      <c r="F179" t="n">
+        <v>87.143</v>
+      </c>
+      <c r="G179" t="n">
+        <v>482.6</v>
+      </c>
+      <c r="H179" t="n">
+        <v>484.5333333333334</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-25 BackTest GXC.xlsx
+++ b/BackTest/2019-10-25 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:N237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C2" t="n">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D2" t="n">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="E2" t="n">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="F2" t="n">
-        <v>145.8118</v>
+        <v>1218.9377</v>
       </c>
       <c r="G2" t="n">
-        <v>-9565.520417330001</v>
+        <v>-7377.750499999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="C3" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D3" t="n">
         <v>475</v>
       </c>
       <c r="E3" t="n">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="F3" t="n">
-        <v>394.2051</v>
+        <v>3787.0244</v>
       </c>
       <c r="G3" t="n">
-        <v>-9171.315317330002</v>
+        <v>-7377.750499999998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>474</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="C4" t="n">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D4" t="n">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="E4" t="n">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="F4" t="n">
-        <v>247.4701</v>
+        <v>383</v>
       </c>
       <c r="G4" t="n">
-        <v>-9418.785417330002</v>
+        <v>-7377.750499999998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>474</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C5" t="n">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="D5" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E5" t="n">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="F5" t="n">
-        <v>303.3417</v>
+        <v>1300</v>
       </c>
       <c r="G5" t="n">
-        <v>-9115.443717330001</v>
+        <v>-7377.750499999998</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>474</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C6" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D6" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E6" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>1348</v>
       </c>
       <c r="G6" t="n">
-        <v>-9114.443717330001</v>
+        <v>-7377.750499999998</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -607,7 +625,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +640,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="C7" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D7" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E7" t="n">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="F7" t="n">
-        <v>2053.2</v>
+        <v>1169.2876</v>
       </c>
       <c r="G7" t="n">
-        <v>-11167.64371733</v>
+        <v>-7377.750499999998</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +665,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +680,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="C8" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D8" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E8" t="n">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="F8" t="n">
-        <v>9297.576999999999</v>
+        <v>1332.9462</v>
       </c>
       <c r="G8" t="n">
-        <v>-1870.066717330001</v>
+        <v>-7377.750499999998</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -679,7 +705,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +720,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="C9" t="n">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D9" t="n">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="E9" t="n">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="F9" t="n">
-        <v>280</v>
+        <v>287.4649</v>
       </c>
       <c r="G9" t="n">
-        <v>-2150.066717330001</v>
+        <v>-7377.750499999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -715,7 +745,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +760,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C10" t="n">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="D10" t="n">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="E10" t="n">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="F10" t="n">
-        <v>745</v>
+        <v>72.146</v>
       </c>
       <c r="G10" t="n">
-        <v>-2150.066717330001</v>
+        <v>-7305.604499999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,7 +785,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +800,38 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C11" t="n">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="D11" t="n">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="E11" t="n">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>72.146</v>
       </c>
       <c r="G11" t="n">
-        <v>-2190.066717330001</v>
+        <v>-7377.750499999998</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>475</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +842,38 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C12" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D12" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E12" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F12" t="n">
-        <v>744.6808</v>
+        <v>1025</v>
       </c>
       <c r="G12" t="n">
-        <v>-1445.385917330001</v>
+        <v>-7377.750499999998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>474</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +884,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C13" t="n">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D13" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E13" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F13" t="n">
-        <v>759.4642906</v>
+        <v>1455.5843</v>
       </c>
       <c r="G13" t="n">
-        <v>-685.9216267300006</v>
+        <v>-7377.750499999998</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -859,7 +909,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +924,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C14" t="n">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D14" t="n">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E14" t="n">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F14" t="n">
-        <v>71.84699999999999</v>
+        <v>99.849</v>
       </c>
       <c r="G14" t="n">
-        <v>-685.9216267300006</v>
+        <v>-7477.599499999998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>474</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -918,20 +978,26 @@
         <v>479</v>
       </c>
       <c r="F15" t="n">
-        <v>30.3109</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>-685.9216267300006</v>
+        <v>-7476.599499999998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>471</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1008,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C16" t="n">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D16" t="n">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E16" t="n">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F16" t="n">
-        <v>90.93089999999999</v>
+        <v>1084.2557</v>
       </c>
       <c r="G16" t="n">
-        <v>-685.9216267300006</v>
+        <v>-8560.855199999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -967,7 +1033,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1048,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C17" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D17" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E17" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F17" t="n">
-        <v>30.3109</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>-685.9216267300006</v>
+        <v>-8559.855199999998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1003,7 +1073,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1088,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C18" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D18" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E18" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F18" t="n">
-        <v>41.9226</v>
+        <v>853.4919</v>
       </c>
       <c r="G18" t="n">
-        <v>-685.9216267300006</v>
+        <v>-9413.347099999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1039,7 +1113,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1128,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C19" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D19" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E19" t="n">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F19" t="n">
-        <v>30.2483</v>
+        <v>521.6083</v>
       </c>
       <c r="G19" t="n">
-        <v>-685.9216267300006</v>
+        <v>-9413.347099999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,7 +1153,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1168,38 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C20" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D20" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E20" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F20" t="n">
-        <v>29.168</v>
+        <v>1113.5543</v>
       </c>
       <c r="G20" t="n">
-        <v>-685.9216267300006</v>
+        <v>-8299.792799999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>476</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1210,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C21" t="n">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D21" t="n">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E21" t="n">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F21" t="n">
-        <v>9.722300000000001</v>
+        <v>1157.6921</v>
       </c>
       <c r="G21" t="n">
-        <v>-685.9216267300006</v>
+        <v>-9457.484899999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1147,7 +1235,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1170,10 +1262,10 @@
         <v>479</v>
       </c>
       <c r="F22" t="n">
-        <v>22.168</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>-685.9216267300006</v>
+        <v>-9456.484899999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1183,7 +1275,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1206,10 +1302,10 @@
         <v>479</v>
       </c>
       <c r="F23" t="n">
-        <v>3.6951</v>
+        <v>2087.6826</v>
       </c>
       <c r="G23" t="n">
-        <v>-685.9216267300006</v>
+        <v>-9456.484899999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,7 +1315,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1330,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C24" t="n">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="D24" t="n">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="E24" t="n">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="F24" t="n">
-        <v>242.6767</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>-928.5983267300006</v>
+        <v>-9452.484899999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1255,7 +1355,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1370,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C25" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D25" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E25" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F25" t="n">
-        <v>218.409</v>
+        <v>486.6886</v>
       </c>
       <c r="G25" t="n">
-        <v>-710.1893267300006</v>
+        <v>-9939.173499999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1291,7 +1395,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1410,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C26" t="n">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D26" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E26" t="n">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F26" t="n">
-        <v>35.5687</v>
+        <v>1272.6206</v>
       </c>
       <c r="G26" t="n">
-        <v>-674.6206267300006</v>
+        <v>-11211.7941</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1327,7 +1435,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1450,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C27" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D27" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E27" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F27" t="n">
-        <v>48.38482673</v>
+        <v>77.0685</v>
       </c>
       <c r="G27" t="n">
-        <v>-626.2358000000006</v>
+        <v>-11134.7256</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1363,7 +1475,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1490,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C28" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D28" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E28" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F28" t="n">
-        <v>20.0329</v>
+        <v>395.2552</v>
       </c>
       <c r="G28" t="n">
-        <v>-606.2029000000006</v>
+        <v>-11529.9808</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1399,7 +1515,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1530,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C29" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D29" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E29" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F29" t="n">
-        <v>6.6776</v>
+        <v>257.3311</v>
       </c>
       <c r="G29" t="n">
-        <v>-606.2029000000006</v>
+        <v>-11272.6497</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1435,7 +1555,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1570,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="C30" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="D30" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E30" t="n">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="F30" t="n">
-        <v>72</v>
+        <v>262.7156</v>
       </c>
       <c r="G30" t="n">
-        <v>-678.2029000000006</v>
+        <v>-11009.9341</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1471,7 +1595,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1610,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="C31" t="n">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="D31" t="n">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="E31" t="n">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="F31" t="n">
-        <v>53</v>
+        <v>286.848</v>
       </c>
       <c r="G31" t="n">
-        <v>-625.2029000000006</v>
+        <v>-11296.7821</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1507,7 +1635,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1650,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="C32" t="n">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="D32" t="n">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E32" t="n">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="F32" t="n">
-        <v>293.8459</v>
+        <v>107.7231</v>
       </c>
       <c r="G32" t="n">
-        <v>-331.3570000000006</v>
+        <v>-11296.7821</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1543,7 +1675,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1690,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="C33" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D33" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E33" t="n">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="F33" t="n">
-        <v>114.8408</v>
+        <v>15.4609</v>
       </c>
       <c r="G33" t="n">
-        <v>-216.5162000000006</v>
+        <v>-11296.7821</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1579,7 +1715,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1730,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C34" t="n">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="D34" t="n">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E34" t="n">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="F34" t="n">
-        <v>5.2971</v>
+        <v>235.66</v>
       </c>
       <c r="G34" t="n">
-        <v>-216.5162000000006</v>
+        <v>-11532.4421</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1615,7 +1755,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1770,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C35" t="n">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D35" t="n">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="E35" t="n">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="F35" t="n">
-        <v>157.7771</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-374.2933000000006</v>
+        <v>-11531.4421</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1651,7 +1795,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1810,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C36" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D36" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E36" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F36" t="n">
-        <v>138.6999</v>
+        <v>2.9962</v>
       </c>
       <c r="G36" t="n">
-        <v>-512.9932000000006</v>
+        <v>-11534.4383</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1687,7 +1835,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1850,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C37" t="n">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D37" t="n">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E37" t="n">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F37" t="n">
-        <v>115.8299</v>
+        <v>3.0822</v>
       </c>
       <c r="G37" t="n">
-        <v>-397.1633000000006</v>
+        <v>-11537.5205</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1723,7 +1875,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1890,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="C38" t="n">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="D38" t="n">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="E38" t="n">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="F38" t="n">
-        <v>3.536</v>
+        <v>110.8024</v>
       </c>
       <c r="G38" t="n">
-        <v>-393.6273000000006</v>
+        <v>-11648.3229</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1759,7 +1915,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1930,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="C39" t="n">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="D39" t="n">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="E39" t="n">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="F39" t="n">
-        <v>57.9204</v>
+        <v>265.3552</v>
       </c>
       <c r="G39" t="n">
-        <v>-393.6273000000006</v>
+        <v>-11648.3229</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1795,7 +1955,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,32 +1970,38 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="C40" t="n">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="D40" t="n">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="E40" t="n">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="F40" t="n">
-        <v>58.0413</v>
+        <v>443.6686</v>
       </c>
       <c r="G40" t="n">
-        <v>-451.6686000000005</v>
+        <v>-11204.6543</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>467</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,32 +2012,38 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C41" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D41" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E41" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F41" t="n">
-        <v>11.3838</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>-440.2848000000005</v>
+        <v>-11203.6543</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>468</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2054,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C42" t="n">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D42" t="n">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="E42" t="n">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F42" t="n">
-        <v>42.8935</v>
+        <v>109.4</v>
       </c>
       <c r="G42" t="n">
-        <v>-483.1783000000005</v>
+        <v>-11313.0543</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1903,7 +2079,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2094,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C43" t="n">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D43" t="n">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E43" t="n">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F43" t="n">
-        <v>214.2911</v>
+        <v>469</v>
       </c>
       <c r="G43" t="n">
-        <v>-697.4694000000005</v>
+        <v>-10844.0543</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1939,7 +2119,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2134,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C44" t="n">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D44" t="n">
         <v>474</v>
       </c>
       <c r="E44" t="n">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="F44" t="n">
-        <v>142.146</v>
+        <v>1202.8813</v>
       </c>
       <c r="G44" t="n">
-        <v>-697.4694000000005</v>
+        <v>-12046.9356</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1975,7 +2159,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2174,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C45" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D45" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E45" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F45" t="n">
-        <v>73.998</v>
+        <v>278.961</v>
       </c>
       <c r="G45" t="n">
-        <v>-771.4674000000006</v>
+        <v>-11767.9746</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2011,7 +2199,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2214,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C46" t="n">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="D46" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E46" t="n">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F46" t="n">
-        <v>120</v>
+        <v>615.8157</v>
       </c>
       <c r="G46" t="n">
-        <v>-651.4674000000006</v>
+        <v>-12383.7903</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2047,7 +2239,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2254,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C47" t="n">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D47" t="n">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="E47" t="n">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="F47" t="n">
-        <v>21.7151</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>-673.1825000000006</v>
+        <v>-12382.7903</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2083,7 +2279,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2294,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C48" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D48" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E48" t="n">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="F48" t="n">
-        <v>220.9403</v>
+        <v>103.9539</v>
       </c>
       <c r="G48" t="n">
-        <v>-452.2422000000006</v>
+        <v>-12382.7903</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2119,7 +2319,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2334,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C49" t="n">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D49" t="n">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="E49" t="n">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="F49" t="n">
-        <v>69.6242</v>
+        <v>292.8533</v>
       </c>
       <c r="G49" t="n">
-        <v>-521.8664000000006</v>
+        <v>-12089.937</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2155,7 +2359,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2374,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C50" t="n">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D50" t="n">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E50" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F50" t="n">
-        <v>228.7696</v>
+        <v>155.117</v>
       </c>
       <c r="G50" t="n">
-        <v>-293.0968000000006</v>
+        <v>-12245.054</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2191,7 +2399,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2414,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C51" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D51" t="n">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="E51" t="n">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="F51" t="n">
-        <v>240</v>
+        <v>42.9643</v>
       </c>
       <c r="G51" t="n">
-        <v>-53.0968000000006</v>
+        <v>-12202.0897</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2227,7 +2439,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2454,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C52" t="n">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D52" t="n">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="E52" t="n">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F52" t="n">
-        <v>80</v>
+        <v>2350.4653</v>
       </c>
       <c r="G52" t="n">
-        <v>26.9031999999994</v>
+        <v>-9851.624400000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2263,7 +2479,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2494,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="C53" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D53" t="n">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E53" t="n">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="F53" t="n">
-        <v>141.2314</v>
+        <v>45</v>
       </c>
       <c r="G53" t="n">
-        <v>-114.3282000000006</v>
+        <v>-9896.624400000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2299,7 +2519,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2534,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C54" t="n">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D54" t="n">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="E54" t="n">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F54" t="n">
-        <v>90.7959</v>
+        <v>168.0056</v>
       </c>
       <c r="G54" t="n">
-        <v>-23.5323000000006</v>
+        <v>-10064.63</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2335,7 +2559,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2574,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C55" t="n">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="D55" t="n">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="E55" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F55" t="n">
-        <v>183.078</v>
+        <v>21.314</v>
       </c>
       <c r="G55" t="n">
-        <v>-206.6103000000006</v>
+        <v>-10085.944</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2371,7 +2599,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2614,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C56" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D56" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F56" t="n">
-        <v>143.4545</v>
+        <v>232.4265</v>
       </c>
       <c r="G56" t="n">
-        <v>-350.0648000000006</v>
+        <v>-10318.3705</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2407,7 +2639,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,22 +2654,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C57" t="n">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D57" t="n">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F57" t="n">
-        <v>328.4233</v>
+        <v>2797.2759</v>
       </c>
       <c r="G57" t="n">
-        <v>-21.64150000000063</v>
+        <v>-7521.0946</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2443,7 +2679,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,22 +2694,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C58" t="n">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="D58" t="n">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="E58" t="n">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="F58" t="n">
-        <v>11.8524</v>
+        <v>143.343</v>
       </c>
       <c r="G58" t="n">
-        <v>-9.789100000000634</v>
+        <v>-7664.4376</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2479,7 +2719,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2734,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C59" t="n">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D59" t="n">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="E59" t="n">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F59" t="n">
-        <v>33.9041</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>-43.69320000000063</v>
+        <v>-7663.4376</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2515,7 +2759,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2774,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C60" t="n">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D60" t="n">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E60" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F60" t="n">
-        <v>930.2537</v>
+        <v>2.08768267</v>
       </c>
       <c r="G60" t="n">
-        <v>-43.69320000000063</v>
+        <v>-7661.349917330001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2551,7 +2799,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2814,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C61" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D61" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E61" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F61" t="n">
-        <v>119.0126</v>
+        <v>1111.3795</v>
       </c>
       <c r="G61" t="n">
-        <v>-162.7058000000006</v>
+        <v>-8772.72941733</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2587,7 +2839,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2854,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C62" t="n">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="D62" t="n">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E62" t="n">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="F62" t="n">
-        <v>23.3914</v>
+        <v>1159.5258</v>
       </c>
       <c r="G62" t="n">
-        <v>-139.3144000000006</v>
+        <v>-9932.255217329999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2623,7 +2879,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2894,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C63" t="n">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D63" t="n">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E63" t="n">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="F63" t="n">
-        <v>61.1862</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>-78.12820000000063</v>
+        <v>-9931.255217329999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2659,7 +2919,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +2934,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C64" t="n">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="D64" t="n">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="E64" t="n">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F64" t="n">
-        <v>178.6402</v>
+        <v>160.021</v>
       </c>
       <c r="G64" t="n">
-        <v>-256.7684000000006</v>
+        <v>-10091.27621733</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2695,7 +2959,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +2974,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C65" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D65" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E65" t="n">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F65" t="n">
-        <v>200.5493</v>
+        <v>443.1404</v>
       </c>
       <c r="G65" t="n">
-        <v>-457.3177000000006</v>
+        <v>-9648.13581733</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2731,7 +2999,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +3014,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="C66" t="n">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="D66" t="n">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="E66" t="n">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F66" t="n">
-        <v>71.77930000000001</v>
+        <v>333.4131</v>
       </c>
       <c r="G66" t="n">
-        <v>-385.5384000000006</v>
+        <v>-9981.548917329999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2767,7 +3039,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3054,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C67" t="n">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="D67" t="n">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="E67" t="n">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F67" t="n">
-        <v>274.6294</v>
+        <v>172.3425</v>
       </c>
       <c r="G67" t="n">
-        <v>-110.9090000000006</v>
+        <v>-9981.548917329999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2803,7 +3079,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +3094,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="C68" t="n">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="D68" t="n">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="E68" t="n">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F68" t="n">
-        <v>15.95470696</v>
+        <v>160</v>
       </c>
       <c r="G68" t="n">
-        <v>-94.95429304000062</v>
+        <v>-9821.548917329999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2839,7 +3119,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,22 +3134,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C69" t="n">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="E69" t="n">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F69" t="n">
-        <v>80</v>
+        <v>335.5243</v>
       </c>
       <c r="G69" t="n">
-        <v>-174.9542930400006</v>
+        <v>-9486.02461733</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2875,7 +3159,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,32 +3174,38 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="C70" t="n">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="D70" t="n">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="E70" t="n">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="F70" t="n">
-        <v>7.823</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>-174.9542930400006</v>
+        <v>-9488.02461733</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>470</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2925,19 +3219,19 @@
         <v>476</v>
       </c>
       <c r="C71" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D71" t="n">
         <v>476</v>
       </c>
       <c r="E71" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F71" t="n">
-        <v>427.8027</v>
+        <v>103.4507</v>
       </c>
       <c r="G71" t="n">
-        <v>-602.7569930400007</v>
+        <v>-9384.573917330001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2947,7 +3241,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2958,22 +3256,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C72" t="n">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D72" t="n">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="E72" t="n">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F72" t="n">
-        <v>29.1521</v>
+        <v>35.1347</v>
       </c>
       <c r="G72" t="n">
-        <v>-573.6048930400007</v>
+        <v>-9419.708617330001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2983,7 +3281,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2994,22 +3296,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C73" t="n">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="D73" t="n">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="E73" t="n">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="F73" t="n">
-        <v>21.8638</v>
+        <v>145.8118</v>
       </c>
       <c r="G73" t="n">
-        <v>-573.6048930400007</v>
+        <v>-9565.520417330001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3019,7 +3321,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3030,22 +3336,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="C74" t="n">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D74" t="n">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="E74" t="n">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F74" t="n">
-        <v>63.6686</v>
+        <v>394.2051</v>
       </c>
       <c r="G74" t="n">
-        <v>-573.6048930400007</v>
+        <v>-9171.315317330002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3055,7 +3361,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3066,22 +3376,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="C75" t="n">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="D75" t="n">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="E75" t="n">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="F75" t="n">
-        <v>17.4024</v>
+        <v>247.4701</v>
       </c>
       <c r="G75" t="n">
-        <v>-591.0072930400006</v>
+        <v>-9418.785417330002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3091,7 +3401,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3102,22 +3416,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C76" t="n">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="D76" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E76" t="n">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F76" t="n">
-        <v>228</v>
+        <v>303.3417</v>
       </c>
       <c r="G76" t="n">
-        <v>-819.0072930400006</v>
+        <v>-9115.443717330001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3127,7 +3441,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3138,22 +3456,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C77" t="n">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D77" t="n">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E77" t="n">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F77" t="n">
-        <v>77.5291</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>-819.0072930400006</v>
+        <v>-9114.443717330001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3163,7 +3481,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3174,22 +3496,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C78" t="n">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D78" t="n">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E78" t="n">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F78" t="n">
-        <v>186.8376</v>
+        <v>2053.2</v>
       </c>
       <c r="G78" t="n">
-        <v>-1005.844893040001</v>
+        <v>-11167.64371733</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3199,7 +3521,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3210,22 +3536,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C79" t="n">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D79" t="n">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E79" t="n">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F79" t="n">
-        <v>77.6759</v>
+        <v>9297.576999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>-1005.844893040001</v>
+        <v>-1870.066717330001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3235,7 +3561,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3246,22 +3576,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C80" t="n">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D80" t="n">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E80" t="n">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F80" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="G80" t="n">
-        <v>-1085.844893040001</v>
+        <v>-2150.066717330001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3271,7 +3601,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3282,22 +3616,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C81" t="n">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D81" t="n">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E81" t="n">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F81" t="n">
-        <v>43</v>
+        <v>745</v>
       </c>
       <c r="G81" t="n">
-        <v>-1128.844893040001</v>
+        <v>-2150.066717330001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3307,7 +3641,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3321,19 +3659,19 @@
         <v>462</v>
       </c>
       <c r="C82" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D82" t="n">
         <v>462</v>
       </c>
       <c r="E82" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F82" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G82" t="n">
-        <v>-1139.844893040001</v>
+        <v>-2190.066717330001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3343,7 +3681,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3354,22 +3696,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C83" t="n">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D83" t="n">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="E83" t="n">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="F83" t="n">
-        <v>50</v>
+        <v>744.6808</v>
       </c>
       <c r="G83" t="n">
-        <v>-1139.844893040001</v>
+        <v>-1445.385917330001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3379,7 +3721,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3390,22 +3736,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C84" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D84" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="E84" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F84" t="n">
-        <v>6.1146</v>
+        <v>759.4642906</v>
       </c>
       <c r="G84" t="n">
-        <v>-1133.730293040001</v>
+        <v>-685.9216267300006</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3415,7 +3761,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3426,22 +3776,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="C85" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="D85" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E85" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="F85" t="n">
-        <v>56</v>
+        <v>71.84699999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-1189.730293040001</v>
+        <v>-685.9216267300006</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3451,7 +3801,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3462,22 +3816,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="C86" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="D86" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E86" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="F86" t="n">
-        <v>50</v>
+        <v>30.3109</v>
       </c>
       <c r="G86" t="n">
-        <v>-1189.730293040001</v>
+        <v>-685.9216267300006</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3487,7 +3841,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3498,36 +3856,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="C87" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="D87" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E87" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="F87" t="n">
-        <v>100</v>
+        <v>90.93089999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>-1189.730293040001</v>
+        <v>-685.9216267300006</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>462</v>
-      </c>
-      <c r="K87" t="n">
-        <v>462</v>
-      </c>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3538,38 +3896,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C88" t="n">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D88" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="E88" t="n">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="F88" t="n">
-        <v>624.6678000000001</v>
+        <v>30.3109</v>
       </c>
       <c r="G88" t="n">
-        <v>-565.0624930400005</v>
+        <v>-685.9216267300006</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>462</v>
-      </c>
-      <c r="K88" t="n">
-        <v>462</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M88" t="n">
@@ -3582,35 +3936,31 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C89" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D89" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="E89" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F89" t="n">
-        <v>13.3811</v>
+        <v>41.9226</v>
       </c>
       <c r="G89" t="n">
-        <v>-551.6813930400006</v>
+        <v>-685.9216267300006</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>470</v>
-      </c>
-      <c r="K89" t="n">
-        <v>462</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3626,22 +3976,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C90" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D90" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="E90" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F90" t="n">
-        <v>14.3897</v>
+        <v>30.2483</v>
       </c>
       <c r="G90" t="n">
-        <v>-551.6813930400006</v>
+        <v>-685.9216267300006</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3650,9 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>462</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3668,35 +4016,31 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C91" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D91" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="E91" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F91" t="n">
-        <v>62</v>
+        <v>29.168</v>
       </c>
       <c r="G91" t="n">
-        <v>-551.6813930400006</v>
+        <v>-685.9216267300006</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>471</v>
-      </c>
-      <c r="K91" t="n">
-        <v>462</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3712,22 +4056,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C92" t="n">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="D92" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="E92" t="n">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="F92" t="n">
-        <v>197.49</v>
+        <v>9.722300000000001</v>
       </c>
       <c r="G92" t="n">
-        <v>-749.1713930400006</v>
+        <v>-685.9216267300006</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3736,9 +4080,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>462</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3754,22 +4096,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C93" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D93" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E93" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F93" t="n">
-        <v>60.6071</v>
+        <v>22.168</v>
       </c>
       <c r="G93" t="n">
-        <v>-688.5642930400006</v>
+        <v>-685.9216267300006</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3778,9 +4120,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>462</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3796,22 +4136,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C94" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D94" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E94" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F94" t="n">
-        <v>20.1747</v>
+        <v>3.6951</v>
       </c>
       <c r="G94" t="n">
-        <v>-688.5642930400006</v>
+        <v>-685.9216267300006</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3820,9 +4160,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>462</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3838,22 +4176,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C95" t="n">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D95" t="n">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="E95" t="n">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F95" t="n">
-        <v>34.4968</v>
+        <v>242.6767</v>
       </c>
       <c r="G95" t="n">
-        <v>-688.5642930400006</v>
+        <v>-928.5983267300006</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3862,9 +4200,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>462</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3880,22 +4216,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C96" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D96" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E96" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F96" t="n">
-        <v>57.3514</v>
+        <v>218.409</v>
       </c>
       <c r="G96" t="n">
-        <v>-688.5642930400006</v>
+        <v>-710.1893267300006</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3904,9 +4240,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>462</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3922,22 +4256,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C97" t="n">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="D97" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E97" t="n">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="F97" t="n">
-        <v>124.4394</v>
+        <v>35.5687</v>
       </c>
       <c r="G97" t="n">
-        <v>-813.0036930400006</v>
+        <v>-674.6206267300006</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3946,9 +4280,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>462</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3964,22 +4296,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C98" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D98" t="n">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="E98" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F98" t="n">
-        <v>172.4583</v>
+        <v>48.38482673</v>
       </c>
       <c r="G98" t="n">
-        <v>-640.5453930400006</v>
+        <v>-626.2358000000006</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3988,9 +4320,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>462</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4006,22 +4336,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C99" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D99" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E99" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F99" t="n">
-        <v>20.3598</v>
+        <v>20.0329</v>
       </c>
       <c r="G99" t="n">
-        <v>-620.1855930400006</v>
+        <v>-606.2029000000006</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4030,9 +4360,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>462</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4048,22 +4376,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C100" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D100" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E100" t="n">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F100" t="n">
-        <v>36.1568</v>
+        <v>6.6776</v>
       </c>
       <c r="G100" t="n">
-        <v>-620.1855930400006</v>
+        <v>-606.2029000000006</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4072,9 +4400,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>462</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4090,22 +4416,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C101" t="n">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D101" t="n">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E101" t="n">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F101" t="n">
-        <v>41.6463</v>
+        <v>72</v>
       </c>
       <c r="G101" t="n">
-        <v>-620.1855930400006</v>
+        <v>-678.2029000000006</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4114,9 +4440,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>462</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4132,22 +4456,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C102" t="n">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D102" t="n">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E102" t="n">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F102" t="n">
-        <v>13.8828</v>
+        <v>53</v>
       </c>
       <c r="G102" t="n">
-        <v>-620.1855930400006</v>
+        <v>-625.2029000000006</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4156,9 +4480,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>462</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4174,22 +4496,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C103" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D103" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E103" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F103" t="n">
-        <v>37.4831</v>
+        <v>293.8459</v>
       </c>
       <c r="G103" t="n">
-        <v>-620.1855930400006</v>
+        <v>-331.3570000000006</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4198,9 +4520,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>462</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4216,22 +4536,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C104" t="n">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D104" t="n">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="E104" t="n">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F104" t="n">
-        <v>23.2845</v>
+        <v>114.8408</v>
       </c>
       <c r="G104" t="n">
-        <v>-620.1855930400006</v>
+        <v>-216.5162000000006</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4240,9 +4560,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>462</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4258,22 +4576,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C105" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D105" t="n">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E105" t="n">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="F105" t="n">
-        <v>729.4125</v>
+        <v>5.2971</v>
       </c>
       <c r="G105" t="n">
-        <v>109.2269069599994</v>
+        <v>-216.5162000000006</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4282,9 +4600,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>462</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4300,22 +4616,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C106" t="n">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D106" t="n">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E106" t="n">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="F106" t="n">
-        <v>1594.202</v>
+        <v>157.7771</v>
       </c>
       <c r="G106" t="n">
-        <v>-1484.975093040001</v>
+        <v>-374.2933000000006</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4324,9 +4640,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>462</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4342,22 +4656,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="C107" t="n">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D107" t="n">
         <v>480</v>
       </c>
       <c r="E107" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F107" t="n">
-        <v>441.4507</v>
+        <v>138.6999</v>
       </c>
       <c r="G107" t="n">
-        <v>-1043.524393040001</v>
+        <v>-512.9932000000006</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4366,9 +4680,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>462</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4384,22 +4696,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C108" t="n">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D108" t="n">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="E108" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F108" t="n">
-        <v>209.572</v>
+        <v>115.8299</v>
       </c>
       <c r="G108" t="n">
-        <v>-833.9523930400006</v>
+        <v>-397.1633000000006</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4408,9 +4720,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>462</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4426,22 +4736,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C109" t="n">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D109" t="n">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E109" t="n">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F109" t="n">
-        <v>15.4038</v>
+        <v>3.536</v>
       </c>
       <c r="G109" t="n">
-        <v>-818.5485930400006</v>
+        <v>-393.6273000000006</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4450,9 +4760,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>462</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,22 +4776,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C110" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D110" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E110" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F110" t="n">
-        <v>39.6262</v>
+        <v>57.9204</v>
       </c>
       <c r="G110" t="n">
-        <v>-858.1747930400006</v>
+        <v>-393.6273000000006</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4492,9 +4800,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>462</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4510,22 +4816,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C111" t="n">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="D111" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="E111" t="n">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="F111" t="n">
-        <v>62</v>
+        <v>58.0413</v>
       </c>
       <c r="G111" t="n">
-        <v>-920.1747930400006</v>
+        <v>-451.6686000000005</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4534,9 +4840,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>462</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4552,22 +4856,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="C112" t="n">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="D112" t="n">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="E112" t="n">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="F112" t="n">
-        <v>164.5461</v>
+        <v>11.3838</v>
       </c>
       <c r="G112" t="n">
-        <v>-920.1747930400006</v>
+        <v>-440.2848000000005</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4576,9 +4880,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>462</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4594,22 +4896,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C113" t="n">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D113" t="n">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E113" t="n">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F113" t="n">
-        <v>972.6074</v>
+        <v>42.8935</v>
       </c>
       <c r="G113" t="n">
-        <v>52.43260695999936</v>
+        <v>-483.1783000000005</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4618,9 +4920,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>462</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4636,22 +4936,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C114" t="n">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D114" t="n">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E114" t="n">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F114" t="n">
-        <v>4.8959</v>
+        <v>214.2911</v>
       </c>
       <c r="G114" t="n">
-        <v>52.43260695999936</v>
+        <v>-697.4694000000005</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4660,9 +4960,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>462</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4678,22 +4976,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C115" t="n">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="D115" t="n">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E115" t="n">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F115" t="n">
-        <v>22.926</v>
+        <v>142.146</v>
       </c>
       <c r="G115" t="n">
-        <v>75.35860695999936</v>
+        <v>-697.4694000000005</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4702,9 +5000,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>462</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4720,22 +5016,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C116" t="n">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D116" t="n">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E116" t="n">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F116" t="n">
-        <v>8.027699999999999</v>
+        <v>73.998</v>
       </c>
       <c r="G116" t="n">
-        <v>67.33090695999937</v>
+        <v>-771.4674000000006</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4744,9 +5040,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>462</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4762,22 +5056,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C117" t="n">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D117" t="n">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="E117" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F117" t="n">
-        <v>157.4464</v>
+        <v>120</v>
       </c>
       <c r="G117" t="n">
-        <v>-90.11549304000064</v>
+        <v>-651.4674000000006</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4786,9 +5080,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>462</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4804,22 +5096,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="C118" t="n">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="D118" t="n">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="E118" t="n">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="F118" t="n">
-        <v>96.1399</v>
+        <v>21.7151</v>
       </c>
       <c r="G118" t="n">
-        <v>6.024406959999354</v>
+        <v>-673.1825000000006</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4828,9 +5120,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>462</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4846,22 +5136,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="C119" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D119" t="n">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="E119" t="n">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="F119" t="n">
-        <v>894.9924</v>
+        <v>220.9403</v>
       </c>
       <c r="G119" t="n">
-        <v>-888.9679930400006</v>
+        <v>-452.2422000000006</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4870,9 +5160,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>462</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4888,22 +5176,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="C120" t="n">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="D120" t="n">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="E120" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F120" t="n">
-        <v>187.4589</v>
+        <v>69.6242</v>
       </c>
       <c r="G120" t="n">
-        <v>-701.5090930400006</v>
+        <v>-521.8664000000006</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4912,9 +5200,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>462</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4930,22 +5216,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="C121" t="n">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="D121" t="n">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="E121" t="n">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="F121" t="n">
-        <v>48.0807</v>
+        <v>228.7696</v>
       </c>
       <c r="G121" t="n">
-        <v>-701.5090930400006</v>
+        <v>-293.0968000000006</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4954,9 +5240,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>462</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4972,22 +5256,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C122" t="n">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D122" t="n">
         <v>489</v>
       </c>
       <c r="E122" t="n">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="F122" t="n">
-        <v>198.3368</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
-        <v>-503.1722930400006</v>
+        <v>-53.0968000000006</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4996,9 +5280,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>462</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5014,22 +5296,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C123" t="n">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D123" t="n">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E123" t="n">
         <v>475</v>
       </c>
       <c r="F123" t="n">
-        <v>292.4976</v>
+        <v>80</v>
       </c>
       <c r="G123" t="n">
-        <v>-795.6698930400005</v>
+        <v>26.9031999999994</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5038,9 +5320,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>462</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5056,7 +5336,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C124" t="n">
         <v>484</v>
@@ -5065,13 +5345,13 @@
         <v>484</v>
       </c>
       <c r="E124" t="n">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="F124" t="n">
-        <v>90</v>
+        <v>141.2314</v>
       </c>
       <c r="G124" t="n">
-        <v>-885.6698930400005</v>
+        <v>-114.3282000000006</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5080,9 +5360,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>462</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5098,22 +5376,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C125" t="n">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="D125" t="n">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="E125" t="n">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F125" t="n">
-        <v>129.7581</v>
+        <v>90.7959</v>
       </c>
       <c r="G125" t="n">
-        <v>-1015.427993040001</v>
+        <v>-23.5323000000006</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5122,9 +5400,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>462</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5140,22 +5416,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C126" t="n">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="D126" t="n">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="E126" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F126" t="n">
-        <v>165.2702</v>
+        <v>183.078</v>
       </c>
       <c r="G126" t="n">
-        <v>-1015.427993040001</v>
+        <v>-206.6103000000006</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5164,9 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>462</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5182,22 +5456,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C127" t="n">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="D127" t="n">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="E127" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F127" t="n">
-        <v>420.0066</v>
+        <v>143.4545</v>
       </c>
       <c r="G127" t="n">
-        <v>-595.4213930400006</v>
+        <v>-350.0648000000006</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5206,9 +5480,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>462</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5224,22 +5496,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C128" t="n">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D128" t="n">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E128" t="n">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F128" t="n">
-        <v>327.756</v>
+        <v>328.4233</v>
       </c>
       <c r="G128" t="n">
-        <v>-595.4213930400006</v>
+        <v>-21.64150000000063</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5248,9 +5520,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>462</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5266,22 +5536,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="C129" t="n">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D129" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E129" t="n">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="F129" t="n">
-        <v>336.81</v>
+        <v>11.8524</v>
       </c>
       <c r="G129" t="n">
-        <v>-258.6113930400006</v>
+        <v>-9.789100000000634</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5290,9 +5560,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>462</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5308,22 +5576,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="C130" t="n">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D130" t="n">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E130" t="n">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F130" t="n">
-        <v>347.4253</v>
+        <v>33.9041</v>
       </c>
       <c r="G130" t="n">
-        <v>-606.0366930400005</v>
+        <v>-43.69320000000063</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5332,9 +5600,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>462</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5350,22 +5616,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C131" t="n">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D131" t="n">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="E131" t="n">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F131" t="n">
-        <v>163.1859</v>
+        <v>930.2537</v>
       </c>
       <c r="G131" t="n">
-        <v>-769.2225930400004</v>
+        <v>-43.69320000000063</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5374,9 +5640,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>462</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5392,22 +5656,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="C132" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D132" t="n">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="E132" t="n">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F132" t="n">
-        <v>283.2978</v>
+        <v>119.0126</v>
       </c>
       <c r="G132" t="n">
-        <v>-485.9247930400005</v>
+        <v>-162.7058000000006</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5416,9 +5680,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>462</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5434,22 +5696,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C133" t="n">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D133" t="n">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E133" t="n">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F133" t="n">
-        <v>16.1792</v>
+        <v>23.3914</v>
       </c>
       <c r="G133" t="n">
-        <v>-469.7455930400005</v>
+        <v>-139.3144000000006</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5458,9 +5720,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>462</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5476,76 +5736,76 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C134" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D134" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E134" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F134" t="n">
-        <v>84.76479999999999</v>
+        <v>61.1862</v>
       </c>
       <c r="G134" t="n">
-        <v>-384.9807930400005</v>
+        <v>-78.12820000000063</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>462</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>1.053441558441559</v>
-      </c>
-      <c r="N134" t="n">
-        <v>1.062906724511931</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="C135" t="n">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D135" t="n">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E135" t="n">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="F135" t="n">
-        <v>105.6344</v>
+        <v>178.6402</v>
       </c>
       <c r="G135" t="n">
-        <v>-490.6151930400005</v>
+        <v>-256.7684000000006</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5556,32 +5816,36 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="C136" t="n">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="D136" t="n">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="E136" t="n">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="F136" t="n">
-        <v>26.3905</v>
+        <v>200.5493</v>
       </c>
       <c r="G136" t="n">
-        <v>-490.6151930400005</v>
+        <v>-457.3177000000006</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5592,32 +5856,36 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C137" t="n">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D137" t="n">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E137" t="n">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="F137" t="n">
-        <v>198.4789</v>
+        <v>71.77930000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>-292.1362930400005</v>
+        <v>-385.5384000000006</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5628,22 +5896,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="C138" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D138" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E138" t="n">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="F138" t="n">
-        <v>35.5766</v>
+        <v>274.6294</v>
       </c>
       <c r="G138" t="n">
-        <v>-292.1362930400005</v>
+        <v>-110.9090000000006</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5653,7 +5921,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5664,32 +5936,36 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C139" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D139" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E139" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F139" t="n">
-        <v>35.5756</v>
+        <v>15.95470696</v>
       </c>
       <c r="G139" t="n">
-        <v>-292.1362930400005</v>
+        <v>-94.95429304000062</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5700,32 +5976,36 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="C140" t="n">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D140" t="n">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E140" t="n">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="F140" t="n">
-        <v>124.1972</v>
+        <v>80</v>
       </c>
       <c r="G140" t="n">
-        <v>-292.1362930400005</v>
+        <v>-174.9542930400006</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5736,32 +6016,36 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C141" t="n">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D141" t="n">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E141" t="n">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F141" t="n">
-        <v>8.8711</v>
+        <v>7.823</v>
       </c>
       <c r="G141" t="n">
-        <v>-292.1362930400005</v>
+        <v>-174.9542930400006</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5772,32 +6056,36 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="C142" t="n">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="D142" t="n">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="E142" t="n">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="F142" t="n">
-        <v>61.4365</v>
+        <v>427.8027</v>
       </c>
       <c r="G142" t="n">
-        <v>-292.1362930400005</v>
+        <v>-602.7569930400007</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5808,22 +6096,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C143" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D143" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E143" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F143" t="n">
-        <v>10.2392</v>
+        <v>29.1521</v>
       </c>
       <c r="G143" t="n">
-        <v>-292.1362930400005</v>
+        <v>-573.6048930400007</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5833,7 +6121,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5844,32 +6136,36 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C144" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D144" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E144" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F144" t="n">
-        <v>5.1196</v>
+        <v>21.8638</v>
       </c>
       <c r="G144" t="n">
-        <v>-292.1362930400005</v>
+        <v>-573.6048930400007</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5880,32 +6176,36 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C145" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D145" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E145" t="n">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F145" t="n">
-        <v>2.5603</v>
+        <v>63.6686</v>
       </c>
       <c r="G145" t="n">
-        <v>-292.1362930400005</v>
+        <v>-573.6048930400007</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5916,32 +6216,36 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C146" t="n">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D146" t="n">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E146" t="n">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F146" t="n">
-        <v>2.5603</v>
+        <v>17.4024</v>
       </c>
       <c r="G146" t="n">
-        <v>-292.1362930400005</v>
+        <v>-591.0072930400006</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5952,22 +6256,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="C147" t="n">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D147" t="n">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="E147" t="n">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="F147" t="n">
-        <v>82.27719999999999</v>
+        <v>228</v>
       </c>
       <c r="G147" t="n">
-        <v>-292.1362930400005</v>
+        <v>-819.0072930400006</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5977,7 +6281,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5988,32 +6296,36 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C148" t="n">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D148" t="n">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="E148" t="n">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F148" t="n">
-        <v>37.3812</v>
+        <v>77.5291</v>
       </c>
       <c r="G148" t="n">
-        <v>-292.1362930400005</v>
+        <v>-819.0072930400006</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6024,22 +6336,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="C149" t="n">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="D149" t="n">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E149" t="n">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="F149" t="n">
-        <v>5.3404</v>
+        <v>186.8376</v>
       </c>
       <c r="G149" t="n">
-        <v>-292.1362930400005</v>
+        <v>-1005.844893040001</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6049,7 +6361,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6060,32 +6376,36 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C150" t="n">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D150" t="n">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E150" t="n">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="F150" t="n">
-        <v>136.0235</v>
+        <v>77.6759</v>
       </c>
       <c r="G150" t="n">
-        <v>-428.1597930400005</v>
+        <v>-1005.844893040001</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6096,22 +6416,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="C151" t="n">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="D151" t="n">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="E151" t="n">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G151" t="n">
-        <v>-427.1597930400005</v>
+        <v>-1085.844893040001</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6121,7 +6441,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6132,32 +6456,36 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="C152" t="n">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="D152" t="n">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="E152" t="n">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="F152" t="n">
-        <v>21.9426</v>
+        <v>43</v>
       </c>
       <c r="G152" t="n">
-        <v>-427.1597930400005</v>
+        <v>-1128.844893040001</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6168,32 +6496,36 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="C153" t="n">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="D153" t="n">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="E153" t="n">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="F153" t="n">
-        <v>3.1349</v>
+        <v>11</v>
       </c>
       <c r="G153" t="n">
-        <v>-427.1597930400005</v>
+        <v>-1139.844893040001</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6204,32 +6536,36 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="C154" t="n">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="D154" t="n">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="E154" t="n">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="F154" t="n">
-        <v>121.7995</v>
+        <v>50</v>
       </c>
       <c r="G154" t="n">
-        <v>-548.9592930400005</v>
+        <v>-1139.844893040001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6240,22 +6576,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C155" t="n">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D155" t="n">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E155" t="n">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F155" t="n">
-        <v>96.5305</v>
+        <v>6.1146</v>
       </c>
       <c r="G155" t="n">
-        <v>-452.4287930400005</v>
+        <v>-1133.730293040001</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6265,7 +6601,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6276,22 +6616,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="C156" t="n">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="D156" t="n">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="E156" t="n">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="F156" t="n">
-        <v>99.20650000000001</v>
+        <v>56</v>
       </c>
       <c r="G156" t="n">
-        <v>-551.6352930400005</v>
+        <v>-1189.730293040001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6301,7 +6641,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6312,32 +6656,36 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="C157" t="n">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="D157" t="n">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="E157" t="n">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="F157" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G157" t="n">
-        <v>-471.6352930400005</v>
+        <v>-1189.730293040001</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6348,32 +6696,36 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="C158" t="n">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="D158" t="n">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="E158" t="n">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="F158" t="n">
-        <v>120.323</v>
+        <v>100</v>
       </c>
       <c r="G158" t="n">
-        <v>-591.9582930400005</v>
+        <v>-1189.730293040001</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6384,32 +6736,36 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C159" t="n">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="D159" t="n">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="E159" t="n">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F159" t="n">
-        <v>321.199</v>
+        <v>624.6678000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>-270.7592930400005</v>
+        <v>-565.0624930400005</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6420,32 +6776,36 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C160" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D160" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E160" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F160" t="n">
-        <v>53.7088</v>
+        <v>13.3811</v>
       </c>
       <c r="G160" t="n">
-        <v>-324.4680930400005</v>
+        <v>-551.6813930400006</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6456,32 +6816,36 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C161" t="n">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="D161" t="n">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="E161" t="n">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="F161" t="n">
-        <v>16.0782</v>
+        <v>14.3897</v>
       </c>
       <c r="G161" t="n">
-        <v>-308.3898930400005</v>
+        <v>-551.6813930400006</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6492,32 +6856,36 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C162" t="n">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D162" t="n">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E162" t="n">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F162" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G162" t="n">
-        <v>-368.3898930400005</v>
+        <v>-551.6813930400006</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6528,32 +6896,36 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="C163" t="n">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="D163" t="n">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="E163" t="n">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="F163" t="n">
-        <v>57.6891</v>
+        <v>197.49</v>
       </c>
       <c r="G163" t="n">
-        <v>-310.7007930400005</v>
+        <v>-749.1713930400006</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6564,32 +6936,36 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="C164" t="n">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="D164" t="n">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="E164" t="n">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="F164" t="n">
-        <v>11.3803</v>
+        <v>60.6071</v>
       </c>
       <c r="G164" t="n">
-        <v>-310.7007930400005</v>
+        <v>-688.5642930400006</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6600,32 +6976,36 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C165" t="n">
         <v>475</v>
       </c>
       <c r="D165" t="n">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="E165" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F165" t="n">
-        <v>228.1198</v>
+        <v>20.1747</v>
       </c>
       <c r="G165" t="n">
-        <v>-538.8205930400005</v>
+        <v>-688.5642930400006</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6639,33 +7019,2747 @@
         <v>475</v>
       </c>
       <c r="C166" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D166" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E166" t="n">
         <v>475</v>
       </c>
       <c r="F166" t="n">
-        <v>87.143</v>
+        <v>34.4968</v>
       </c>
       <c r="G166" t="n">
-        <v>-451.6775930400005</v>
+        <v>-688.5642930400006</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
       <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>475</v>
+      </c>
+      <c r="C167" t="n">
+        <v>475</v>
+      </c>
+      <c r="D167" t="n">
+        <v>475</v>
+      </c>
+      <c r="E167" t="n">
+        <v>475</v>
+      </c>
+      <c r="F167" t="n">
+        <v>57.3514</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-688.5642930400006</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>475</v>
+      </c>
+      <c r="C168" t="n">
+        <v>472</v>
+      </c>
+      <c r="D168" t="n">
+        <v>475</v>
+      </c>
+      <c r="E168" t="n">
+        <v>465</v>
+      </c>
+      <c r="F168" t="n">
+        <v>124.4394</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-813.0036930400006</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>474</v>
+      </c>
+      <c r="C169" t="n">
+        <v>475</v>
+      </c>
+      <c r="D169" t="n">
+        <v>475</v>
+      </c>
+      <c r="E169" t="n">
+        <v>474</v>
+      </c>
+      <c r="F169" t="n">
+        <v>172.4583</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-640.5453930400006</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>478</v>
+      </c>
+      <c r="C170" t="n">
+        <v>478</v>
+      </c>
+      <c r="D170" t="n">
+        <v>478</v>
+      </c>
+      <c r="E170" t="n">
+        <v>478</v>
+      </c>
+      <c r="F170" t="n">
+        <v>20.3598</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-620.1855930400006</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>478</v>
+      </c>
+      <c r="C171" t="n">
+        <v>478</v>
+      </c>
+      <c r="D171" t="n">
+        <v>478</v>
+      </c>
+      <c r="E171" t="n">
+        <v>478</v>
+      </c>
+      <c r="F171" t="n">
+        <v>36.1568</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-620.1855930400006</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>478</v>
+      </c>
+      <c r="C172" t="n">
+        <v>478</v>
+      </c>
+      <c r="D172" t="n">
+        <v>478</v>
+      </c>
+      <c r="E172" t="n">
+        <v>478</v>
+      </c>
+      <c r="F172" t="n">
+        <v>41.6463</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-620.1855930400006</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>478</v>
+      </c>
+      <c r="C173" t="n">
+        <v>478</v>
+      </c>
+      <c r="D173" t="n">
+        <v>478</v>
+      </c>
+      <c r="E173" t="n">
+        <v>478</v>
+      </c>
+      <c r="F173" t="n">
+        <v>13.8828</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-620.1855930400006</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>478</v>
+      </c>
+      <c r="C174" t="n">
+        <v>478</v>
+      </c>
+      <c r="D174" t="n">
+        <v>478</v>
+      </c>
+      <c r="E174" t="n">
+        <v>478</v>
+      </c>
+      <c r="F174" t="n">
+        <v>37.4831</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-620.1855930400006</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>478</v>
+      </c>
+      <c r="C175" t="n">
+        <v>478</v>
+      </c>
+      <c r="D175" t="n">
+        <v>478</v>
+      </c>
+      <c r="E175" t="n">
+        <v>478</v>
+      </c>
+      <c r="F175" t="n">
+        <v>23.2845</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-620.1855930400006</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>478</v>
+      </c>
+      <c r="C176" t="n">
+        <v>480</v>
+      </c>
+      <c r="D176" t="n">
+        <v>480</v>
+      </c>
+      <c r="E176" t="n">
+        <v>478</v>
+      </c>
+      <c r="F176" t="n">
+        <v>729.4125</v>
+      </c>
+      <c r="G176" t="n">
+        <v>109.2269069599994</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>480</v>
+      </c>
+      <c r="C177" t="n">
+        <v>467</v>
+      </c>
+      <c r="D177" t="n">
+        <v>480</v>
+      </c>
+      <c r="E177" t="n">
+        <v>467</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1594.202</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1484.975093040001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>471</v>
+      </c>
+      <c r="C178" t="n">
+        <v>480</v>
+      </c>
+      <c r="D178" t="n">
+        <v>480</v>
+      </c>
+      <c r="E178" t="n">
+        <v>471</v>
+      </c>
+      <c r="F178" t="n">
+        <v>441.4507</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1043.524393040001</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>475</v>
+      </c>
+      <c r="C179" t="n">
+        <v>484</v>
+      </c>
+      <c r="D179" t="n">
+        <v>484</v>
+      </c>
+      <c r="E179" t="n">
+        <v>475</v>
+      </c>
+      <c r="F179" t="n">
+        <v>209.572</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-833.9523930400006</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>489</v>
+      </c>
+      <c r="C180" t="n">
+        <v>489</v>
+      </c>
+      <c r="D180" t="n">
+        <v>489</v>
+      </c>
+      <c r="E180" t="n">
+        <v>489</v>
+      </c>
+      <c r="F180" t="n">
+        <v>15.4038</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-818.5485930400006</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>485</v>
+      </c>
+      <c r="C181" t="n">
+        <v>485</v>
+      </c>
+      <c r="D181" t="n">
+        <v>485</v>
+      </c>
+      <c r="E181" t="n">
+        <v>485</v>
+      </c>
+      <c r="F181" t="n">
+        <v>39.6262</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-858.1747930400006</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>473</v>
+      </c>
+      <c r="C182" t="n">
+        <v>472</v>
+      </c>
+      <c r="D182" t="n">
+        <v>473</v>
+      </c>
+      <c r="E182" t="n">
+        <v>472</v>
+      </c>
+      <c r="F182" t="n">
+        <v>62</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-920.1747930400006</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>473</v>
+      </c>
+      <c r="C183" t="n">
+        <v>472</v>
+      </c>
+      <c r="D183" t="n">
+        <v>473</v>
+      </c>
+      <c r="E183" t="n">
+        <v>472</v>
+      </c>
+      <c r="F183" t="n">
+        <v>164.5461</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-920.1747930400006</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>482</v>
+      </c>
+      <c r="C184" t="n">
+        <v>481</v>
+      </c>
+      <c r="D184" t="n">
+        <v>483</v>
+      </c>
+      <c r="E184" t="n">
+        <v>481</v>
+      </c>
+      <c r="F184" t="n">
+        <v>972.6074</v>
+      </c>
+      <c r="G184" t="n">
+        <v>52.43260695999936</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>481</v>
+      </c>
+      <c r="C185" t="n">
+        <v>481</v>
+      </c>
+      <c r="D185" t="n">
+        <v>481</v>
+      </c>
+      <c r="E185" t="n">
+        <v>481</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4.8959</v>
+      </c>
+      <c r="G185" t="n">
+        <v>52.43260695999936</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>483</v>
+      </c>
+      <c r="C186" t="n">
+        <v>487</v>
+      </c>
+      <c r="D186" t="n">
+        <v>487</v>
+      </c>
+      <c r="E186" t="n">
+        <v>483</v>
+      </c>
+      <c r="F186" t="n">
+        <v>22.926</v>
+      </c>
+      <c r="G186" t="n">
+        <v>75.35860695999936</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>485</v>
+      </c>
+      <c r="C187" t="n">
+        <v>483</v>
+      </c>
+      <c r="D187" t="n">
+        <v>485</v>
+      </c>
+      <c r="E187" t="n">
+        <v>483</v>
+      </c>
+      <c r="F187" t="n">
+        <v>8.027699999999999</v>
+      </c>
+      <c r="G187" t="n">
+        <v>67.33090695999937</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>472</v>
+      </c>
+      <c r="C188" t="n">
+        <v>472</v>
+      </c>
+      <c r="D188" t="n">
+        <v>472</v>
+      </c>
+      <c r="E188" t="n">
+        <v>472</v>
+      </c>
+      <c r="F188" t="n">
+        <v>157.4464</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-90.11549304000064</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>487</v>
+      </c>
+      <c r="C189" t="n">
+        <v>485</v>
+      </c>
+      <c r="D189" t="n">
+        <v>487</v>
+      </c>
+      <c r="E189" t="n">
+        <v>485</v>
+      </c>
+      <c r="F189" t="n">
+        <v>96.1399</v>
+      </c>
+      <c r="G189" t="n">
+        <v>6.024406959999354</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>485</v>
+      </c>
+      <c r="C190" t="n">
+        <v>484</v>
+      </c>
+      <c r="D190" t="n">
+        <v>485</v>
+      </c>
+      <c r="E190" t="n">
+        <v>483</v>
+      </c>
+      <c r="F190" t="n">
+        <v>894.9924</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-888.9679930400006</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>488</v>
+      </c>
+      <c r="C191" t="n">
+        <v>488</v>
+      </c>
+      <c r="D191" t="n">
+        <v>488</v>
+      </c>
+      <c r="E191" t="n">
+        <v>480</v>
+      </c>
+      <c r="F191" t="n">
+        <v>187.4589</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-701.5090930400006</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>488</v>
+      </c>
+      <c r="C192" t="n">
+        <v>488</v>
+      </c>
+      <c r="D192" t="n">
+        <v>488</v>
+      </c>
+      <c r="E192" t="n">
+        <v>488</v>
+      </c>
+      <c r="F192" t="n">
+        <v>48.0807</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-701.5090930400006</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>482</v>
+      </c>
+      <c r="C193" t="n">
+        <v>489</v>
+      </c>
+      <c r="D193" t="n">
+        <v>489</v>
+      </c>
+      <c r="E193" t="n">
+        <v>482</v>
+      </c>
+      <c r="F193" t="n">
+        <v>198.3368</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-503.1722930400006</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>477</v>
+      </c>
+      <c r="C194" t="n">
+        <v>487</v>
+      </c>
+      <c r="D194" t="n">
+        <v>487</v>
+      </c>
+      <c r="E194" t="n">
+        <v>475</v>
+      </c>
+      <c r="F194" t="n">
+        <v>292.4976</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-795.6698930400005</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>484</v>
+      </c>
+      <c r="C195" t="n">
+        <v>484</v>
+      </c>
+      <c r="D195" t="n">
+        <v>484</v>
+      </c>
+      <c r="E195" t="n">
+        <v>484</v>
+      </c>
+      <c r="F195" t="n">
+        <v>90</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-885.6698930400005</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>474</v>
+      </c>
+      <c r="C196" t="n">
+        <v>474</v>
+      </c>
+      <c r="D196" t="n">
+        <v>474</v>
+      </c>
+      <c r="E196" t="n">
+        <v>474</v>
+      </c>
+      <c r="F196" t="n">
+        <v>129.7581</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1015.427993040001</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>474</v>
+      </c>
+      <c r="C197" t="n">
+        <v>474</v>
+      </c>
+      <c r="D197" t="n">
+        <v>474</v>
+      </c>
+      <c r="E197" t="n">
+        <v>474</v>
+      </c>
+      <c r="F197" t="n">
+        <v>165.2702</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1015.427993040001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>472</v>
+      </c>
+      <c r="C198" t="n">
+        <v>488</v>
+      </c>
+      <c r="D198" t="n">
+        <v>488</v>
+      </c>
+      <c r="E198" t="n">
+        <v>472</v>
+      </c>
+      <c r="F198" t="n">
+        <v>420.0066</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-595.4213930400006</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>476</v>
+      </c>
+      <c r="C199" t="n">
+        <v>488</v>
+      </c>
+      <c r="D199" t="n">
+        <v>488</v>
+      </c>
+      <c r="E199" t="n">
+        <v>476</v>
+      </c>
+      <c r="F199" t="n">
+        <v>327.756</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-595.4213930400006</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>473</v>
+      </c>
+      <c r="C200" t="n">
+        <v>489</v>
+      </c>
+      <c r="D200" t="n">
+        <v>489</v>
+      </c>
+      <c r="E200" t="n">
+        <v>473</v>
+      </c>
+      <c r="F200" t="n">
+        <v>336.81</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-258.6113930400006</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>476</v>
+      </c>
+      <c r="C201" t="n">
+        <v>487</v>
+      </c>
+      <c r="D201" t="n">
+        <v>487</v>
+      </c>
+      <c r="E201" t="n">
+        <v>476</v>
+      </c>
+      <c r="F201" t="n">
+        <v>347.4253</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-606.0366930400005</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>480</v>
+      </c>
+      <c r="C202" t="n">
+        <v>480</v>
+      </c>
+      <c r="D202" t="n">
+        <v>480</v>
+      </c>
+      <c r="E202" t="n">
+        <v>480</v>
+      </c>
+      <c r="F202" t="n">
+        <v>163.1859</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-769.2225930400004</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>488</v>
+      </c>
+      <c r="C203" t="n">
+        <v>481</v>
+      </c>
+      <c r="D203" t="n">
+        <v>488</v>
+      </c>
+      <c r="E203" t="n">
+        <v>481</v>
+      </c>
+      <c r="F203" t="n">
+        <v>283.2978</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-485.9247930400005</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>488</v>
+      </c>
+      <c r="C204" t="n">
+        <v>488</v>
+      </c>
+      <c r="D204" t="n">
+        <v>488</v>
+      </c>
+      <c r="E204" t="n">
+        <v>488</v>
+      </c>
+      <c r="F204" t="n">
+        <v>16.1792</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-469.7455930400005</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>489</v>
+      </c>
+      <c r="C205" t="n">
+        <v>489</v>
+      </c>
+      <c r="D205" t="n">
+        <v>489</v>
+      </c>
+      <c r="E205" t="n">
+        <v>489</v>
+      </c>
+      <c r="F205" t="n">
+        <v>84.76479999999999</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-384.9807930400005</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>489</v>
+      </c>
+      <c r="C206" t="n">
+        <v>488</v>
+      </c>
+      <c r="D206" t="n">
+        <v>489</v>
+      </c>
+      <c r="E206" t="n">
+        <v>488</v>
+      </c>
+      <c r="F206" t="n">
+        <v>105.6344</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-490.6151930400005</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>489</v>
+      </c>
+      <c r="C207" t="n">
+        <v>488</v>
+      </c>
+      <c r="D207" t="n">
+        <v>489</v>
+      </c>
+      <c r="E207" t="n">
+        <v>488</v>
+      </c>
+      <c r="F207" t="n">
+        <v>26.3905</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-490.6151930400005</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>484</v>
+      </c>
+      <c r="C208" t="n">
+        <v>489</v>
+      </c>
+      <c r="D208" t="n">
+        <v>489</v>
+      </c>
+      <c r="E208" t="n">
+        <v>482</v>
+      </c>
+      <c r="F208" t="n">
+        <v>198.4789</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-292.1362930400005</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>489</v>
+      </c>
+      <c r="C209" t="n">
+        <v>489</v>
+      </c>
+      <c r="D209" t="n">
+        <v>489</v>
+      </c>
+      <c r="E209" t="n">
+        <v>489</v>
+      </c>
+      <c r="F209" t="n">
+        <v>35.5766</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-292.1362930400005</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>489</v>
+      </c>
+      <c r="C210" t="n">
+        <v>489</v>
+      </c>
+      <c r="D210" t="n">
+        <v>489</v>
+      </c>
+      <c r="E210" t="n">
+        <v>489</v>
+      </c>
+      <c r="F210" t="n">
+        <v>35.5756</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-292.1362930400005</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>489</v>
+      </c>
+      <c r="C211" t="n">
+        <v>489</v>
+      </c>
+      <c r="D211" t="n">
+        <v>489</v>
+      </c>
+      <c r="E211" t="n">
+        <v>489</v>
+      </c>
+      <c r="F211" t="n">
+        <v>124.1972</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-292.1362930400005</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>489</v>
+      </c>
+      <c r="C212" t="n">
+        <v>489</v>
+      </c>
+      <c r="D212" t="n">
+        <v>489</v>
+      </c>
+      <c r="E212" t="n">
+        <v>489</v>
+      </c>
+      <c r="F212" t="n">
+        <v>8.8711</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-292.1362930400005</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>489</v>
+      </c>
+      <c r="C213" t="n">
+        <v>489</v>
+      </c>
+      <c r="D213" t="n">
+        <v>489</v>
+      </c>
+      <c r="E213" t="n">
+        <v>489</v>
+      </c>
+      <c r="F213" t="n">
+        <v>61.4365</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-292.1362930400005</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>489</v>
+      </c>
+      <c r="C214" t="n">
+        <v>489</v>
+      </c>
+      <c r="D214" t="n">
+        <v>489</v>
+      </c>
+      <c r="E214" t="n">
+        <v>489</v>
+      </c>
+      <c r="F214" t="n">
+        <v>10.2392</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-292.1362930400005</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>489</v>
+      </c>
+      <c r="C215" t="n">
+        <v>489</v>
+      </c>
+      <c r="D215" t="n">
+        <v>489</v>
+      </c>
+      <c r="E215" t="n">
+        <v>489</v>
+      </c>
+      <c r="F215" t="n">
+        <v>5.1196</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-292.1362930400005</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>489</v>
+      </c>
+      <c r="C216" t="n">
+        <v>489</v>
+      </c>
+      <c r="D216" t="n">
+        <v>489</v>
+      </c>
+      <c r="E216" t="n">
+        <v>489</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2.5603</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-292.1362930400005</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>489</v>
+      </c>
+      <c r="C217" t="n">
+        <v>489</v>
+      </c>
+      <c r="D217" t="n">
+        <v>489</v>
+      </c>
+      <c r="E217" t="n">
+        <v>489</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2.5603</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-292.1362930400005</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>489</v>
+      </c>
+      <c r="C218" t="n">
+        <v>489</v>
+      </c>
+      <c r="D218" t="n">
+        <v>489</v>
+      </c>
+      <c r="E218" t="n">
+        <v>489</v>
+      </c>
+      <c r="F218" t="n">
+        <v>82.27719999999999</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-292.1362930400005</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>489</v>
+      </c>
+      <c r="C219" t="n">
+        <v>489</v>
+      </c>
+      <c r="D219" t="n">
+        <v>489</v>
+      </c>
+      <c r="E219" t="n">
+        <v>489</v>
+      </c>
+      <c r="F219" t="n">
+        <v>37.3812</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-292.1362930400005</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>489</v>
+      </c>
+      <c r="C220" t="n">
+        <v>489</v>
+      </c>
+      <c r="D220" t="n">
+        <v>489</v>
+      </c>
+      <c r="E220" t="n">
+        <v>489</v>
+      </c>
+      <c r="F220" t="n">
+        <v>5.3404</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-292.1362930400005</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>482</v>
+      </c>
+      <c r="C221" t="n">
+        <v>482</v>
+      </c>
+      <c r="D221" t="n">
+        <v>482</v>
+      </c>
+      <c r="E221" t="n">
+        <v>482</v>
+      </c>
+      <c r="F221" t="n">
+        <v>136.0235</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-428.1597930400005</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>489</v>
+      </c>
+      <c r="C222" t="n">
+        <v>489</v>
+      </c>
+      <c r="D222" t="n">
+        <v>489</v>
+      </c>
+      <c r="E222" t="n">
+        <v>489</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-427.1597930400005</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>489</v>
+      </c>
+      <c r="C223" t="n">
+        <v>489</v>
+      </c>
+      <c r="D223" t="n">
+        <v>489</v>
+      </c>
+      <c r="E223" t="n">
+        <v>489</v>
+      </c>
+      <c r="F223" t="n">
+        <v>21.9426</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-427.1597930400005</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>489</v>
+      </c>
+      <c r="C224" t="n">
+        <v>489</v>
+      </c>
+      <c r="D224" t="n">
+        <v>489</v>
+      </c>
+      <c r="E224" t="n">
+        <v>489</v>
+      </c>
+      <c r="F224" t="n">
+        <v>3.1349</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-427.1597930400005</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>475</v>
+      </c>
+      <c r="C225" t="n">
+        <v>475</v>
+      </c>
+      <c r="D225" t="n">
+        <v>475</v>
+      </c>
+      <c r="E225" t="n">
+        <v>475</v>
+      </c>
+      <c r="F225" t="n">
+        <v>121.7995</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-548.9592930400005</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>477</v>
+      </c>
+      <c r="C226" t="n">
+        <v>478</v>
+      </c>
+      <c r="D226" t="n">
+        <v>478</v>
+      </c>
+      <c r="E226" t="n">
+        <v>477</v>
+      </c>
+      <c r="F226" t="n">
+        <v>96.5305</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-452.4287930400005</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>475</v>
+      </c>
+      <c r="C227" t="n">
+        <v>475</v>
+      </c>
+      <c r="D227" t="n">
+        <v>475</v>
+      </c>
+      <c r="E227" t="n">
+        <v>475</v>
+      </c>
+      <c r="F227" t="n">
+        <v>99.20650000000001</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-551.6352930400005</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>477</v>
+      </c>
+      <c r="C228" t="n">
+        <v>488</v>
+      </c>
+      <c r="D228" t="n">
+        <v>488</v>
+      </c>
+      <c r="E228" t="n">
+        <v>477</v>
+      </c>
+      <c r="F228" t="n">
+        <v>80</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-471.6352930400005</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>477</v>
+      </c>
+      <c r="C229" t="n">
+        <v>476</v>
+      </c>
+      <c r="D229" t="n">
+        <v>477</v>
+      </c>
+      <c r="E229" t="n">
+        <v>476</v>
+      </c>
+      <c r="F229" t="n">
+        <v>120.323</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-591.9582930400005</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>473</v>
+      </c>
+      <c r="C230" t="n">
+        <v>489</v>
+      </c>
+      <c r="D230" t="n">
+        <v>489</v>
+      </c>
+      <c r="E230" t="n">
+        <v>473</v>
+      </c>
+      <c r="F230" t="n">
+        <v>321.199</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-270.7592930400005</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>475</v>
+      </c>
+      <c r="C231" t="n">
+        <v>475</v>
+      </c>
+      <c r="D231" t="n">
+        <v>475</v>
+      </c>
+      <c r="E231" t="n">
+        <v>475</v>
+      </c>
+      <c r="F231" t="n">
+        <v>53.7088</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-324.4680930400005</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>485</v>
+      </c>
+      <c r="C232" t="n">
+        <v>485</v>
+      </c>
+      <c r="D232" t="n">
+        <v>485</v>
+      </c>
+      <c r="E232" t="n">
+        <v>485</v>
+      </c>
+      <c r="F232" t="n">
+        <v>16.0782</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-308.3898930400005</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>483</v>
+      </c>
+      <c r="C233" t="n">
+        <v>483</v>
+      </c>
+      <c r="D233" t="n">
+        <v>483</v>
+      </c>
+      <c r="E233" t="n">
+        <v>483</v>
+      </c>
+      <c r="F233" t="n">
+        <v>60</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-368.3898930400005</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>489</v>
+      </c>
+      <c r="C234" t="n">
+        <v>489</v>
+      </c>
+      <c r="D234" t="n">
+        <v>489</v>
+      </c>
+      <c r="E234" t="n">
+        <v>489</v>
+      </c>
+      <c r="F234" t="n">
+        <v>57.6891</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-310.7007930400005</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>489</v>
+      </c>
+      <c r="C235" t="n">
+        <v>489</v>
+      </c>
+      <c r="D235" t="n">
+        <v>489</v>
+      </c>
+      <c r="E235" t="n">
+        <v>489</v>
+      </c>
+      <c r="F235" t="n">
+        <v>11.3803</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-310.7007930400005</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>474</v>
+      </c>
+      <c r="C236" t="n">
+        <v>475</v>
+      </c>
+      <c r="D236" t="n">
+        <v>489</v>
+      </c>
+      <c r="E236" t="n">
+        <v>473</v>
+      </c>
+      <c r="F236" t="n">
+        <v>228.1198</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-538.8205930400005</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>475</v>
+      </c>
+      <c r="C237" t="n">
+        <v>484</v>
+      </c>
+      <c r="D237" t="n">
+        <v>484</v>
+      </c>
+      <c r="E237" t="n">
+        <v>475</v>
+      </c>
+      <c r="F237" t="n">
+        <v>87.143</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-451.6775930400005</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-25 BackTest GXC.xlsx
+++ b/BackTest/2019-10-25 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N237"/>
+  <dimension ref="A1:M237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,15 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +517,15 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +550,15 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,22 +583,19 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J6" t="n">
+        <v>474</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -658,22 +620,23 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J7" t="n">
+        <v>474</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -700,20 +663,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>474</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -740,20 +702,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -778,22 +733,19 @@
         <v>-7305.604499999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J10" t="n">
+        <v>474</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -818,24 +770,23 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="J11" t="n">
-        <v>475</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -862,22 +813,19 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>474</v>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -902,22 +850,23 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J13" t="n">
+        <v>474</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -944,22 +893,19 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>474</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -984,24 +930,23 @@
         <v>-7476.599499999998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="J15" t="n">
-        <v>471</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1026,22 +971,21 @@
         <v>-8560.855199999998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>474</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1068,20 +1012,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>474</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1108,20 +1051,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>474</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1148,20 +1090,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>474</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1188,22 +1129,19 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>476</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1230,20 +1168,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>474</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1270,20 +1207,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>474</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1308,22 +1244,23 @@
         <v>-9456.484899999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>479</v>
+      </c>
+      <c r="J23" t="n">
+        <v>474</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1350,20 +1287,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>474</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1390,20 +1326,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>474</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1430,20 +1365,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>474</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1470,20 +1404,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>474</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1510,20 +1443,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>474</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1550,20 +1482,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>474</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1590,20 +1521,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>474</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1630,20 +1560,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>474</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1670,20 +1599,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>474</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1710,20 +1638,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>474</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1750,20 +1677,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>474</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1790,20 +1716,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>474</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1830,20 +1755,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>474</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1870,20 +1794,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>474</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1910,20 +1833,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>474</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1950,20 +1872,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>474</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1988,24 +1909,21 @@
         <v>-11204.6543</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>467</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2030,24 +1948,21 @@
         <v>-11203.6543</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>468</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2074,20 +1989,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>474</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2114,20 +2028,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>474</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2154,20 +2067,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>474</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2194,20 +2106,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>474</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2234,20 +2145,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>474</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2274,20 +2184,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>474</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2314,20 +2223,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>474</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2354,20 +2262,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>474</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2394,20 +2301,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>474</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2434,20 +2340,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>474</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2474,20 +2379,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>474</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2514,20 +2418,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>474</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2554,20 +2457,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>474</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2594,20 +2496,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>474</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2634,20 +2535,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>474</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2674,20 +2574,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>474</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2714,20 +2613,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>474</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2754,20 +2652,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>474</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2794,20 +2691,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>474</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2834,20 +2730,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>474</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2874,20 +2769,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>474</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2914,20 +2808,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>474</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2954,20 +2847,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>474</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2994,20 +2886,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>474</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3034,20 +2925,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>474</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3074,20 +2964,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>474</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3114,20 +3003,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>474</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3154,20 +3042,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>474</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3192,24 +3079,21 @@
         <v>-9488.02461733</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>470</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3236,20 +3120,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>474</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3276,20 +3159,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>474</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3316,20 +3198,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>474</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3356,20 +3237,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>474</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3396,20 +3276,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>474</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3436,20 +3315,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>474</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3476,20 +3354,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>474</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3516,20 +3393,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>474</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3556,20 +3432,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>474</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3596,20 +3471,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>474</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3636,20 +3510,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>474</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3676,20 +3549,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>474</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3716,20 +3588,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>474</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3756,20 +3627,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>474</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3796,20 +3666,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>474</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3836,20 +3705,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>474</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3876,20 +3744,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>474</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3916,20 +3783,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>474</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3956,20 +3822,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>474</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3996,20 +3861,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>474</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4036,20 +3900,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>474</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4076,20 +3939,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>474</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4116,20 +3978,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>474</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4156,20 +4017,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>474</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4196,20 +4056,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>474</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4234,22 +4093,23 @@
         <v>-710.1893267300006</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>469</v>
+      </c>
+      <c r="J96" t="n">
+        <v>474</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4276,20 +4136,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>474</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4316,20 +4175,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>474</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4356,20 +4214,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>474</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4396,20 +4253,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>474</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4436,20 +4292,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>474</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4476,20 +4331,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>474</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4516,20 +4370,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>474</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4556,20 +4409,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>474</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4596,20 +4448,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>474</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4636,20 +4487,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>474</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4676,20 +4526,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>474</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4716,20 +4565,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>474</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4756,20 +4604,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>474</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4796,20 +4643,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>474</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4836,20 +4682,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>474</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4876,20 +4721,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>474</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4916,20 +4760,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>474</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4956,20 +4799,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>474</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4996,20 +4838,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>474</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5036,20 +4877,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>474</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5076,20 +4916,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>474</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5116,20 +4955,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>474</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5156,20 +4994,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>474</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5196,20 +5033,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>474</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5236,20 +5072,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>474</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5276,20 +5111,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>474</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5316,20 +5150,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>474</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5356,20 +5189,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>474</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5396,20 +5228,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>474</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5436,20 +5267,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>474</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5476,20 +5306,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>474</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5516,20 +5345,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>474</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5556,20 +5384,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>474</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5596,20 +5423,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>474</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5636,20 +5462,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>474</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5676,20 +5501,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>474</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5716,20 +5540,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>474</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5756,20 +5579,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>474</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5796,20 +5618,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>474</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5836,20 +5657,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>474</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5876,20 +5696,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>474</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5916,20 +5735,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>474</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5956,20 +5774,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>474</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5996,20 +5813,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>474</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6036,20 +5852,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>474</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6076,20 +5891,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>474</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6116,20 +5930,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>474</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6156,20 +5969,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>474</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6196,20 +6008,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>474</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6234,22 +6045,21 @@
         <v>-591.0072930400006</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>474</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1.009767932489452</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6276,20 +6086,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6316,20 +6119,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6356,20 +6152,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6396,20 +6185,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6436,20 +6218,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6476,20 +6251,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6516,20 +6284,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6556,20 +6317,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6596,20 +6350,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6636,20 +6383,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6676,20 +6416,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6716,20 +6449,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6756,20 +6482,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6796,20 +6515,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6836,20 +6548,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6876,20 +6581,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6916,20 +6614,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6956,20 +6647,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6996,20 +6680,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7036,20 +6713,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7076,20 +6746,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7116,20 +6779,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7156,20 +6812,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7196,20 +6845,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7236,20 +6878,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7276,20 +6911,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7316,20 +6944,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7356,20 +6977,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7396,20 +7010,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7436,20 +7043,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7476,20 +7076,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7516,20 +7109,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7556,20 +7142,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7596,20 +7175,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7636,20 +7208,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7676,20 +7241,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7716,20 +7274,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7756,20 +7307,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7796,20 +7340,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7836,20 +7373,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7876,20 +7406,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7916,20 +7439,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7956,20 +7472,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7996,20 +7505,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8036,20 +7538,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8076,20 +7571,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8116,20 +7604,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8156,20 +7637,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8196,20 +7670,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8236,20 +7703,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8276,20 +7736,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8316,20 +7769,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8356,20 +7802,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8396,20 +7835,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8436,20 +7868,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8476,20 +7901,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8516,20 +7934,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8556,20 +7967,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8596,18 +8000,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L205" t="n">
+        <v>1</v>
       </c>
       <c r="M205" t="inlineStr"/>
-      <c r="N205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8634,16 +8033,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8670,16 +8066,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8706,16 +8099,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8742,16 +8132,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8778,16 +8165,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8814,16 +8198,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8850,16 +8231,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8886,16 +8264,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8922,16 +8297,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8958,16 +8330,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>1</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8994,16 +8363,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9030,16 +8396,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9066,16 +8429,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9102,16 +8462,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9138,16 +8495,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9172,18 +8526,15 @@
         <v>-428.1597930400005</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9210,16 +8561,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9246,16 +8594,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9282,16 +8627,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9316,18 +8658,15 @@
         <v>-548.9592930400005</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9352,18 +8691,15 @@
         <v>-452.4287930400005</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9388,18 +8724,15 @@
         <v>-551.6352930400005</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9426,16 +8759,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9462,16 +8792,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9498,16 +8825,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9534,16 +8858,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9570,16 +8891,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9606,16 +8924,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9642,16 +8957,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9678,16 +8990,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9714,16 +9023,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9750,18 +9056,15 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest GXC.xlsx
+++ b/BackTest/2019-10-25 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,14 +583,10 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>474</v>
-      </c>
-      <c r="J6" t="n">
-        <v>474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -620,19 +616,11 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>474</v>
-      </c>
-      <c r="J7" t="n">
-        <v>474</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -664,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>474</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -733,7 +715,7 @@
         <v>-7305.604499999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>474</v>
@@ -770,7 +752,7 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>475</v>
@@ -813,7 +795,9 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>474</v>
+      </c>
       <c r="J12" t="n">
         <v>474</v>
       </c>
@@ -850,7 +834,7 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>474</v>
@@ -891,7 +875,7 @@
         <v>-7477.599499999998</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
@@ -930,7 +914,7 @@
         <v>-7476.599499999998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>471</v>
@@ -971,7 +955,7 @@
         <v>-8560.855199999998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
@@ -1127,7 +1111,7 @@
         <v>-8299.792799999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
@@ -1244,11 +1228,9 @@
         <v>-9456.484899999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>479</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>474</v>
       </c>
@@ -1948,9 +1930,11 @@
         <v>-11203.6543</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>468</v>
+      </c>
       <c r="J41" t="n">
         <v>474</v>
       </c>
@@ -2338,9 +2322,11 @@
         <v>-12202.0897</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>471</v>
+      </c>
       <c r="J51" t="n">
         <v>474</v>
       </c>
@@ -4093,11 +4079,9 @@
         <v>-710.1893267300006</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>474</v>
       </c>
@@ -5070,7 +5054,7 @@
         <v>-293.0968000000006</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
@@ -5078,11 +5062,11 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1</v>
+        <v>1.001329113924051</v>
       </c>
       <c r="M121" t="inlineStr"/>
     </row>
@@ -5109,17 +5093,11 @@
         <v>-53.0968000000006</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>474</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5148,17 +5126,11 @@
         <v>26.9031999999994</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>474</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5187,17 +5159,11 @@
         <v>-114.3282000000006</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>474</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5229,14 +5195,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>474</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5268,14 +5228,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>474</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5307,14 +5261,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>474</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5346,14 +5294,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>474</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5382,17 +5324,11 @@
         <v>-9.789100000000634</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>474</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5424,14 +5360,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>474</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5463,14 +5393,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>474</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5502,14 +5426,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>474</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5541,14 +5459,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>474</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5580,14 +5492,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>474</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5619,14 +5525,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>474</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5658,14 +5558,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>474</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5697,14 +5591,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>474</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5736,14 +5624,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>474</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5775,14 +5657,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>474</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5814,14 +5690,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>474</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5853,14 +5723,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>474</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5892,14 +5756,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>474</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5931,14 +5789,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>474</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5970,14 +5822,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>474</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6009,14 +5855,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>474</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6045,19 +5885,13 @@
         <v>-591.0072930400006</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>474</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>1.009767932489452</v>
+        <v>1</v>
       </c>
       <c r="M146" t="inlineStr"/>
     </row>
@@ -6117,7 +5951,7 @@
         <v>-819.0072930400006</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6150,7 +5984,7 @@
         <v>-1005.844893040001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6183,7 +6017,7 @@
         <v>-1005.844893040001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -7899,7 +7733,7 @@
         <v>-769.2225930400004</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7932,7 +7766,7 @@
         <v>-485.9247930400005</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7965,7 +7799,7 @@
         <v>-469.7455930400005</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7998,7 +7832,7 @@
         <v>-384.9807930400005</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8031,7 +7865,7 @@
         <v>-490.6151930400005</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8064,7 +7898,7 @@
         <v>-490.6151930400005</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8097,7 +7931,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8130,7 +7964,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8163,7 +7997,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8196,7 +8030,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8526,7 +8360,7 @@
         <v>-428.1597930400005</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8658,7 +8492,7 @@
         <v>-548.9592930400005</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8691,7 +8525,7 @@
         <v>-452.4287930400005</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8724,7 +8558,7 @@
         <v>-551.6352930400005</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8757,7 +8591,7 @@
         <v>-471.6352930400005</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8856,7 +8690,7 @@
         <v>-324.4680930400005</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8889,7 +8723,7 @@
         <v>-308.3898930400005</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8922,7 +8756,7 @@
         <v>-368.3898930400005</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8988,7 +8822,7 @@
         <v>-310.7007930400005</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9021,7 +8855,7 @@
         <v>-538.8205930400005</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9065,6 +8899,6 @@
       <c r="M237" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest GXC.xlsx
+++ b/BackTest/2019-10-25 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,14 +715,10 @@
         <v>-7305.604499999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>474</v>
-      </c>
-      <c r="J10" t="n">
-        <v>474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -752,1236 +748,1050 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>474</v>
+      </c>
+      <c r="C12" t="n">
+        <v>474</v>
+      </c>
+      <c r="D12" t="n">
+        <v>474</v>
+      </c>
+      <c r="E12" t="n">
+        <v>474</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1025</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-7377.750499999998</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>476</v>
+      </c>
+      <c r="C13" t="n">
+        <v>474</v>
+      </c>
+      <c r="D13" t="n">
+        <v>476</v>
+      </c>
+      <c r="E13" t="n">
+        <v>474</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1455.5843</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-7377.750499999998</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>471</v>
+      </c>
+      <c r="C14" t="n">
+        <v>471</v>
+      </c>
+      <c r="D14" t="n">
+        <v>471</v>
+      </c>
+      <c r="E14" t="n">
+        <v>471</v>
+      </c>
+      <c r="F14" t="n">
+        <v>99.849</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-7477.599499999998</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>479</v>
+      </c>
+      <c r="C15" t="n">
+        <v>479</v>
+      </c>
+      <c r="D15" t="n">
+        <v>479</v>
+      </c>
+      <c r="E15" t="n">
+        <v>479</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-7476.599499999998</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>475</v>
       </c>
-      <c r="J11" t="n">
-        <v>474</v>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="C16" t="n">
+        <v>477</v>
+      </c>
+      <c r="D16" t="n">
+        <v>477</v>
+      </c>
+      <c r="E16" t="n">
+        <v>475</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1084.2557</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-8560.855199999998</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>482</v>
+      </c>
+      <c r="C17" t="n">
+        <v>482</v>
+      </c>
+      <c r="D17" t="n">
+        <v>482</v>
+      </c>
+      <c r="E17" t="n">
+        <v>482</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-8559.855199999998</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>476</v>
+      </c>
+      <c r="C18" t="n">
+        <v>476</v>
+      </c>
+      <c r="D18" t="n">
+        <v>476</v>
+      </c>
+      <c r="E18" t="n">
+        <v>476</v>
+      </c>
+      <c r="F18" t="n">
+        <v>853.4919</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-9413.347099999999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>476</v>
+      </c>
+      <c r="C19" t="n">
+        <v>476</v>
+      </c>
+      <c r="D19" t="n">
+        <v>476</v>
+      </c>
+      <c r="E19" t="n">
+        <v>476</v>
+      </c>
+      <c r="F19" t="n">
+        <v>521.6083</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-9413.347099999999</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>478</v>
+      </c>
+      <c r="C20" t="n">
+        <v>478</v>
+      </c>
+      <c r="D20" t="n">
+        <v>478</v>
+      </c>
+      <c r="E20" t="n">
+        <v>478</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1113.5543</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-8299.792799999999</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>473</v>
+      </c>
+      <c r="C21" t="n">
+        <v>473</v>
+      </c>
+      <c r="D21" t="n">
+        <v>473</v>
+      </c>
+      <c r="E21" t="n">
+        <v>473</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1157.6921</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-9457.484899999999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>479</v>
+      </c>
+      <c r="C22" t="n">
+        <v>479</v>
+      </c>
+      <c r="D22" t="n">
+        <v>479</v>
+      </c>
+      <c r="E22" t="n">
+        <v>479</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-9456.484899999999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>479</v>
+      </c>
+      <c r="C23" t="n">
+        <v>479</v>
+      </c>
+      <c r="D23" t="n">
+        <v>479</v>
+      </c>
+      <c r="E23" t="n">
+        <v>479</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2087.6826</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-9456.484899999999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>483</v>
+      </c>
+      <c r="C24" t="n">
+        <v>483</v>
+      </c>
+      <c r="D24" t="n">
+        <v>483</v>
+      </c>
+      <c r="E24" t="n">
+        <v>483</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-9452.484899999999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>473</v>
+      </c>
+      <c r="C25" t="n">
+        <v>482</v>
+      </c>
+      <c r="D25" t="n">
+        <v>482</v>
+      </c>
+      <c r="E25" t="n">
+        <v>473</v>
+      </c>
+      <c r="F25" t="n">
+        <v>486.6886</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-9939.173499999999</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>473</v>
+      </c>
+      <c r="C26" t="n">
+        <v>475</v>
+      </c>
+      <c r="D26" t="n">
+        <v>482</v>
+      </c>
+      <c r="E26" t="n">
+        <v>473</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1272.6206</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-11211.7941</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>482</v>
+      </c>
+      <c r="C27" t="n">
+        <v>482</v>
+      </c>
+      <c r="D27" t="n">
+        <v>482</v>
+      </c>
+      <c r="E27" t="n">
+        <v>482</v>
+      </c>
+      <c r="F27" t="n">
+        <v>77.0685</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-11134.7256</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>482</v>
+      </c>
+      <c r="C28" t="n">
+        <v>475</v>
+      </c>
+      <c r="D28" t="n">
+        <v>482</v>
+      </c>
+      <c r="E28" t="n">
+        <v>475</v>
+      </c>
+      <c r="F28" t="n">
+        <v>395.2552</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-11529.9808</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>483</v>
+      </c>
+      <c r="C29" t="n">
+        <v>482</v>
+      </c>
+      <c r="D29" t="n">
+        <v>483</v>
+      </c>
+      <c r="E29" t="n">
+        <v>482</v>
+      </c>
+      <c r="F29" t="n">
+        <v>257.3311</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-11272.6497</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>482</v>
+      </c>
+      <c r="C30" t="n">
+        <v>488</v>
+      </c>
+      <c r="D30" t="n">
+        <v>488</v>
+      </c>
+      <c r="E30" t="n">
+        <v>482</v>
+      </c>
+      <c r="F30" t="n">
+        <v>262.7156</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-11009.9341</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>487</v>
+      </c>
+      <c r="C31" t="n">
+        <v>486</v>
+      </c>
+      <c r="D31" t="n">
+        <v>487</v>
+      </c>
+      <c r="E31" t="n">
+        <v>486</v>
+      </c>
+      <c r="F31" t="n">
+        <v>286.848</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-11296.7821</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>486</v>
+      </c>
+      <c r="C32" t="n">
+        <v>486</v>
+      </c>
+      <c r="D32" t="n">
+        <v>486</v>
+      </c>
+      <c r="E32" t="n">
+        <v>486</v>
+      </c>
+      <c r="F32" t="n">
+        <v>107.7231</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-11296.7821</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>486</v>
+      </c>
+      <c r="C33" t="n">
+        <v>486</v>
+      </c>
+      <c r="D33" t="n">
+        <v>486</v>
+      </c>
+      <c r="E33" t="n">
+        <v>486</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15.4609</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-11296.7821</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>479</v>
+      </c>
+      <c r="C34" t="n">
+        <v>465</v>
+      </c>
+      <c r="D34" t="n">
+        <v>479</v>
+      </c>
+      <c r="E34" t="n">
+        <v>465</v>
+      </c>
+      <c r="F34" t="n">
+        <v>235.66</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-11532.4421</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>487</v>
+      </c>
+      <c r="C35" t="n">
+        <v>487</v>
+      </c>
+      <c r="D35" t="n">
+        <v>487</v>
+      </c>
+      <c r="E35" t="n">
+        <v>487</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-11531.4421</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>483</v>
+      </c>
+      <c r="C36" t="n">
+        <v>471</v>
+      </c>
+      <c r="D36" t="n">
+        <v>483</v>
+      </c>
+      <c r="E36" t="n">
+        <v>471</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.9962</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-11534.4383</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>468</v>
+      </c>
+      <c r="C37" t="n">
+        <v>468</v>
+      </c>
+      <c r="D37" t="n">
+        <v>468</v>
+      </c>
+      <c r="E37" t="n">
+        <v>468</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.0822</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-11537.5205</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>467</v>
+      </c>
+      <c r="C38" t="n">
+        <v>467</v>
+      </c>
+      <c r="D38" t="n">
+        <v>467</v>
+      </c>
+      <c r="E38" t="n">
+        <v>467</v>
+      </c>
+      <c r="F38" t="n">
+        <v>110.8024</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-11648.3229</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>467</v>
+      </c>
+      <c r="C39" t="n">
+        <v>467</v>
+      </c>
+      <c r="D39" t="n">
+        <v>467</v>
+      </c>
+      <c r="E39" t="n">
+        <v>467</v>
+      </c>
+      <c r="F39" t="n">
+        <v>265.3552</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-11648.3229</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>468</v>
+      </c>
+      <c r="C40" t="n">
+        <v>468</v>
+      </c>
+      <c r="D40" t="n">
+        <v>468</v>
+      </c>
+      <c r="E40" t="n">
+        <v>468</v>
+      </c>
+      <c r="F40" t="n">
+        <v>443.6686</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-11204.6543</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>467</v>
+      </c>
+      <c r="J40" t="n">
+        <v>467</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>486</v>
+      </c>
+      <c r="C41" t="n">
+        <v>486</v>
+      </c>
+      <c r="D41" t="n">
+        <v>486</v>
+      </c>
+      <c r="E41" t="n">
+        <v>486</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-11203.6543</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>467</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>468</v>
+      </c>
+      <c r="C42" t="n">
+        <v>467</v>
+      </c>
+      <c r="D42" t="n">
+        <v>468</v>
+      </c>
+      <c r="E42" t="n">
+        <v>467</v>
+      </c>
+      <c r="F42" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-11313.0543</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>467</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>474</v>
-      </c>
-      <c r="C12" t="n">
-        <v>474</v>
-      </c>
-      <c r="D12" t="n">
-        <v>474</v>
-      </c>
-      <c r="E12" t="n">
-        <v>474</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1025</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-7377.750499999998</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>474</v>
-      </c>
-      <c r="J12" t="n">
-        <v>474</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>476</v>
-      </c>
-      <c r="C13" t="n">
-        <v>474</v>
-      </c>
-      <c r="D13" t="n">
-        <v>476</v>
-      </c>
-      <c r="E13" t="n">
-        <v>474</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1455.5843</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-7377.750499999998</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>474</v>
-      </c>
-      <c r="J13" t="n">
-        <v>474</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>471</v>
-      </c>
-      <c r="C14" t="n">
-        <v>471</v>
-      </c>
-      <c r="D14" t="n">
-        <v>471</v>
-      </c>
-      <c r="E14" t="n">
-        <v>471</v>
-      </c>
-      <c r="F14" t="n">
-        <v>99.849</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-7477.599499999998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>474</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>479</v>
-      </c>
-      <c r="C15" t="n">
-        <v>479</v>
-      </c>
-      <c r="D15" t="n">
-        <v>479</v>
-      </c>
-      <c r="E15" t="n">
-        <v>479</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-7476.599499999998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>471</v>
-      </c>
-      <c r="J15" t="n">
-        <v>474</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>475</v>
-      </c>
-      <c r="C16" t="n">
-        <v>477</v>
-      </c>
-      <c r="D16" t="n">
-        <v>477</v>
-      </c>
-      <c r="E16" t="n">
-        <v>475</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1084.2557</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-8560.855199999998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>474</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>482</v>
-      </c>
-      <c r="C17" t="n">
-        <v>482</v>
-      </c>
-      <c r="D17" t="n">
-        <v>482</v>
-      </c>
-      <c r="E17" t="n">
-        <v>482</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-8559.855199999998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>474</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>476</v>
-      </c>
-      <c r="C18" t="n">
-        <v>476</v>
-      </c>
-      <c r="D18" t="n">
-        <v>476</v>
-      </c>
-      <c r="E18" t="n">
-        <v>476</v>
-      </c>
-      <c r="F18" t="n">
-        <v>853.4919</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-9413.347099999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>474</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>476</v>
-      </c>
-      <c r="C19" t="n">
-        <v>476</v>
-      </c>
-      <c r="D19" t="n">
-        <v>476</v>
-      </c>
-      <c r="E19" t="n">
-        <v>476</v>
-      </c>
-      <c r="F19" t="n">
-        <v>521.6083</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-9413.347099999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>474</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>478</v>
-      </c>
-      <c r="C20" t="n">
-        <v>478</v>
-      </c>
-      <c r="D20" t="n">
-        <v>478</v>
-      </c>
-      <c r="E20" t="n">
-        <v>478</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1113.5543</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-8299.792799999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>474</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>473</v>
-      </c>
-      <c r="C21" t="n">
-        <v>473</v>
-      </c>
-      <c r="D21" t="n">
-        <v>473</v>
-      </c>
-      <c r="E21" t="n">
-        <v>473</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1157.6921</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-9457.484899999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>474</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>479</v>
-      </c>
-      <c r="C22" t="n">
-        <v>479</v>
-      </c>
-      <c r="D22" t="n">
-        <v>479</v>
-      </c>
-      <c r="E22" t="n">
-        <v>479</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-9456.484899999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>474</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>479</v>
-      </c>
-      <c r="C23" t="n">
-        <v>479</v>
-      </c>
-      <c r="D23" t="n">
-        <v>479</v>
-      </c>
-      <c r="E23" t="n">
-        <v>479</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2087.6826</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-9456.484899999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>474</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>483</v>
-      </c>
-      <c r="C24" t="n">
-        <v>483</v>
-      </c>
-      <c r="D24" t="n">
-        <v>483</v>
-      </c>
-      <c r="E24" t="n">
-        <v>483</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-9452.484899999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>474</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>473</v>
-      </c>
-      <c r="C25" t="n">
-        <v>482</v>
-      </c>
-      <c r="D25" t="n">
-        <v>482</v>
-      </c>
-      <c r="E25" t="n">
-        <v>473</v>
-      </c>
-      <c r="F25" t="n">
-        <v>486.6886</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-9939.173499999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>474</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>473</v>
-      </c>
-      <c r="C26" t="n">
-        <v>475</v>
-      </c>
-      <c r="D26" t="n">
-        <v>482</v>
-      </c>
-      <c r="E26" t="n">
-        <v>473</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1272.6206</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-11211.7941</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>474</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>482</v>
-      </c>
-      <c r="C27" t="n">
-        <v>482</v>
-      </c>
-      <c r="D27" t="n">
-        <v>482</v>
-      </c>
-      <c r="E27" t="n">
-        <v>482</v>
-      </c>
-      <c r="F27" t="n">
-        <v>77.0685</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-11134.7256</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>474</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>482</v>
-      </c>
-      <c r="C28" t="n">
-        <v>475</v>
-      </c>
-      <c r="D28" t="n">
-        <v>482</v>
-      </c>
-      <c r="E28" t="n">
-        <v>475</v>
-      </c>
-      <c r="F28" t="n">
-        <v>395.2552</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-11529.9808</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>474</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>483</v>
-      </c>
-      <c r="C29" t="n">
-        <v>482</v>
-      </c>
-      <c r="D29" t="n">
-        <v>483</v>
-      </c>
-      <c r="E29" t="n">
-        <v>482</v>
-      </c>
-      <c r="F29" t="n">
-        <v>257.3311</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-11272.6497</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>474</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>482</v>
-      </c>
-      <c r="C30" t="n">
-        <v>488</v>
-      </c>
-      <c r="D30" t="n">
-        <v>488</v>
-      </c>
-      <c r="E30" t="n">
-        <v>482</v>
-      </c>
-      <c r="F30" t="n">
-        <v>262.7156</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-11009.9341</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>474</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>487</v>
-      </c>
-      <c r="C31" t="n">
-        <v>486</v>
-      </c>
-      <c r="D31" t="n">
-        <v>487</v>
-      </c>
-      <c r="E31" t="n">
-        <v>486</v>
-      </c>
-      <c r="F31" t="n">
-        <v>286.848</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-11296.7821</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>474</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>486</v>
-      </c>
-      <c r="C32" t="n">
-        <v>486</v>
-      </c>
-      <c r="D32" t="n">
-        <v>486</v>
-      </c>
-      <c r="E32" t="n">
-        <v>486</v>
-      </c>
-      <c r="F32" t="n">
-        <v>107.7231</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-11296.7821</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>474</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>486</v>
-      </c>
-      <c r="C33" t="n">
-        <v>486</v>
-      </c>
-      <c r="D33" t="n">
-        <v>486</v>
-      </c>
-      <c r="E33" t="n">
-        <v>486</v>
-      </c>
-      <c r="F33" t="n">
-        <v>15.4609</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-11296.7821</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>474</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>479</v>
-      </c>
-      <c r="C34" t="n">
-        <v>465</v>
-      </c>
-      <c r="D34" t="n">
-        <v>479</v>
-      </c>
-      <c r="E34" t="n">
-        <v>465</v>
-      </c>
-      <c r="F34" t="n">
-        <v>235.66</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-11532.4421</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>474</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>487</v>
-      </c>
-      <c r="C35" t="n">
-        <v>487</v>
-      </c>
-      <c r="D35" t="n">
-        <v>487</v>
-      </c>
-      <c r="E35" t="n">
-        <v>487</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-11531.4421</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>474</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>483</v>
-      </c>
-      <c r="C36" t="n">
-        <v>471</v>
-      </c>
-      <c r="D36" t="n">
-        <v>483</v>
-      </c>
-      <c r="E36" t="n">
-        <v>471</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2.9962</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-11534.4383</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>474</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>468</v>
-      </c>
-      <c r="C37" t="n">
-        <v>468</v>
-      </c>
-      <c r="D37" t="n">
-        <v>468</v>
-      </c>
-      <c r="E37" t="n">
-        <v>468</v>
-      </c>
-      <c r="F37" t="n">
-        <v>3.0822</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-11537.5205</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>474</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>467</v>
-      </c>
-      <c r="C38" t="n">
-        <v>467</v>
-      </c>
-      <c r="D38" t="n">
-        <v>467</v>
-      </c>
-      <c r="E38" t="n">
-        <v>467</v>
-      </c>
-      <c r="F38" t="n">
-        <v>110.8024</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-11648.3229</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>474</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>467</v>
-      </c>
-      <c r="C39" t="n">
-        <v>467</v>
-      </c>
-      <c r="D39" t="n">
-        <v>467</v>
-      </c>
-      <c r="E39" t="n">
-        <v>467</v>
-      </c>
-      <c r="F39" t="n">
-        <v>265.3552</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-11648.3229</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>474</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>468</v>
-      </c>
-      <c r="C40" t="n">
-        <v>468</v>
-      </c>
-      <c r="D40" t="n">
-        <v>468</v>
-      </c>
-      <c r="E40" t="n">
-        <v>468</v>
-      </c>
-      <c r="F40" t="n">
-        <v>443.6686</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-11204.6543</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>474</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>486</v>
-      </c>
-      <c r="C41" t="n">
-        <v>486</v>
-      </c>
-      <c r="D41" t="n">
-        <v>486</v>
-      </c>
-      <c r="E41" t="n">
-        <v>486</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-11203.6543</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>468</v>
-      </c>
-      <c r="J41" t="n">
-        <v>474</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>468</v>
-      </c>
-      <c r="C42" t="n">
-        <v>467</v>
-      </c>
-      <c r="D42" t="n">
-        <v>468</v>
-      </c>
-      <c r="E42" t="n">
-        <v>467</v>
-      </c>
-      <c r="F42" t="n">
-        <v>109.4</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-11313.0543</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>474</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2014,7 +1824,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2053,7 +1863,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2092,7 +1902,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2131,7 +1941,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2170,7 +1980,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2209,7 +2019,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2248,7 +2058,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2287,7 +2097,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2322,13 +2132,11 @@
         <v>-12202.0897</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2367,7 +2175,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2406,7 +2214,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2445,7 +2253,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2484,7 +2292,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2523,7 +2331,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2562,7 +2370,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2601,7 +2409,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2640,7 +2448,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2679,7 +2487,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2718,7 +2526,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2757,7 +2565,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2796,7 +2604,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2835,7 +2643,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2874,7 +2682,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2913,7 +2721,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2948,19 +2756,19 @@
         <v>-9981.548917329999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0.9864346895074947</v>
       </c>
       <c r="M67" t="inlineStr"/>
     </row>
@@ -2990,14 +2798,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>474</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3029,14 +2831,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>474</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3068,14 +2864,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>474</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3107,14 +2897,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>474</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3146,14 +2930,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>474</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3185,14 +2963,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>474</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3221,17 +2993,11 @@
         <v>-9171.315317330002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>474</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3263,14 +3029,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>474</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3299,17 +3059,11 @@
         <v>-9115.443717330001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>474</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3338,17 +3092,11 @@
         <v>-9114.443717330001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>474</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3380,14 +3128,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>474</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3419,14 +3161,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>474</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3458,14 +3194,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>474</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3497,14 +3227,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>474</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3533,15 +3257,15 @@
         <v>-2190.066717330001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>474</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>462</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -3575,9 +3299,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>474</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3614,9 +3336,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>474</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3653,9 +3373,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>474</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3692,9 +3410,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>474</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3731,9 +3447,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>474</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3770,9 +3484,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>474</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3809,9 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>474</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3848,9 +3558,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>474</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3887,9 +3595,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>474</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,9 +3632,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>474</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3965,9 +3669,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>474</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4004,9 +3706,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>474</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4043,9 +3743,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>474</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,9 +3780,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>474</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4121,9 +3817,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>474</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4160,9 +3854,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>474</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4199,9 +3891,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>474</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4238,9 +3928,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>474</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4277,9 +3965,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>474</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4316,9 +4002,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>474</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4355,9 +4039,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>474</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4394,9 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>474</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4433,9 +4113,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>474</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4472,9 +4150,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>474</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4511,9 +4187,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>474</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,9 +4224,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>474</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4589,9 +4261,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>474</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4628,9 +4298,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>474</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4667,9 +4335,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>474</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4706,9 +4372,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>474</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4745,9 +4409,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>474</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,9 +4446,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>474</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4823,9 +4483,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>474</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4862,9 +4520,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>474</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4901,9 +4557,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>474</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4940,9 +4594,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>474</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4976,20 +4628,16 @@
         <v>-452.2422000000006</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>474</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -5015,17 +4663,11 @@
         <v>-521.8664000000006</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>474</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5054,19 +4696,13 @@
         <v>-293.0968000000006</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>474</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>1.001329113924051</v>
+        <v>1</v>
       </c>
       <c r="M121" t="inlineStr"/>
     </row>
@@ -5093,7 +4729,7 @@
         <v>-53.0968000000006</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5126,7 +4762,7 @@
         <v>26.9031999999994</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5159,7 +4795,7 @@
         <v>-114.3282000000006</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5324,7 +4960,7 @@
         <v>-9.789100000000634</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5951,7 +5587,7 @@
         <v>-819.0072930400006</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5984,7 +5620,7 @@
         <v>-1005.844893040001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6017,7 +5653,7 @@
         <v>-1005.844893040001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -7733,7 +7369,7 @@
         <v>-769.2225930400004</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7766,7 +7402,7 @@
         <v>-485.9247930400005</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7799,7 +7435,7 @@
         <v>-469.7455930400005</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7832,7 +7468,7 @@
         <v>-384.9807930400005</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7865,7 +7501,7 @@
         <v>-490.6151930400005</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7898,7 +7534,7 @@
         <v>-490.6151930400005</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7931,7 +7567,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7964,7 +7600,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7997,7 +7633,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8030,7 +7666,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8558,7 +8194,7 @@
         <v>-551.6352930400005</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8591,7 +8227,7 @@
         <v>-471.6352930400005</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8690,7 +8326,7 @@
         <v>-324.4680930400005</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8723,7 +8359,7 @@
         <v>-308.3898930400005</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8756,7 +8392,7 @@
         <v>-368.3898930400005</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8822,7 +8458,7 @@
         <v>-310.7007930400005</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8855,7 +8491,7 @@
         <v>-538.8205930400005</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8899,6 +8535,6 @@
       <c r="M237" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest GXC.xlsx
+++ b/BackTest/2019-10-25 BackTest GXC.xlsx
@@ -484,11 +484,17 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>474</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -521,7 +527,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +560,17 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>474</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +603,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +640,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +677,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +710,17 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>474</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +749,17 @@
         <v>-7305.604499999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>474</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +788,17 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>475</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +827,17 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>474</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +866,17 @@
         <v>-7377.750499999998</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>474</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +905,17 @@
         <v>-7477.599499999998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>474</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +944,17 @@
         <v>-7476.599499999998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>471</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +987,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1020,17 @@
         <v>-8559.855199999998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>477</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1063,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1096,17 @@
         <v>-9413.347099999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>476</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1135,17 @@
         <v>-8299.792799999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>476</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1178,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1215,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1252,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1289,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1326,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1363,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1400,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1437,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1474,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1511,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1548,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1585,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1622,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1659,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1696,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1733,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1770,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1807,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1840,17 @@
         <v>-11648.3229</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>467</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1710,10 +1884,12 @@
       <c r="I40" t="n">
         <v>467</v>
       </c>
-      <c r="J40" t="n">
-        <v>467</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,15 +1918,15 @@
         <v>-11203.6543</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>467</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>468</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1784,12 +1960,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>467</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1820,12 +1994,12 @@
         <v>-10844.0543</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>467</v>
       </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1859,12 +2033,12 @@
         <v>-12046.9356</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>467</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>470</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1898,12 +2072,12 @@
         <v>-11767.9746</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>467</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>463</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1937,12 +2111,12 @@
         <v>-12383.7903</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>467</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>475</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1976,12 +2150,12 @@
         <v>-12382.7903</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>467</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>465</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2015,12 +2189,12 @@
         <v>-12382.7903</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>467</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>478</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2054,12 +2228,12 @@
         <v>-12089.937</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>467</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>478</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2093,12 +2267,12 @@
         <v>-12245.054</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>467</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>479</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2135,9 +2309,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>467</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2174,9 +2346,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>467</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2213,9 +2383,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>467</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2252,9 +2420,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>467</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2288,12 +2454,12 @@
         <v>-10085.944</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>467</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>479</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2330,9 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>467</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2366,12 +2530,12 @@
         <v>-7521.0946</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
         <v>467</v>
       </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2408,9 +2572,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>467</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2447,9 +2609,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>467</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2486,9 +2646,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>467</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2525,9 +2683,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>467</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2561,12 +2717,12 @@
         <v>-9932.255217329999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>467</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>476</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2600,12 +2756,12 @@
         <v>-9931.255217329999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>467</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>463</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2642,9 +2798,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>467</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2681,9 +2835,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>467</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2720,9 +2872,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>467</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2756,19 +2906,17 @@
         <v>-9981.548917329999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>467</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>0.9864346895074947</v>
+        <v>1</v>
       </c>
       <c r="M67" t="inlineStr"/>
     </row>
@@ -2795,11 +2943,17 @@
         <v>-9821.548917329999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>463</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2828,11 +2982,17 @@
         <v>-9486.02461733</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>469</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2865,7 +3025,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2894,11 +3058,17 @@
         <v>-9384.573917330001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>469</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2927,11 +3097,17 @@
         <v>-9419.708617330001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>476</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2960,11 +3136,17 @@
         <v>-9565.520417330001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>475</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2993,11 +3175,17 @@
         <v>-9171.315317330002</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>465</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3026,11 +3214,17 @@
         <v>-9418.785417330002</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>475</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3059,11 +3253,15 @@
         <v>-9115.443717330001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3092,11 +3290,15 @@
         <v>-9114.443717330001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3129,7 +3331,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3158,11 +3364,17 @@
         <v>-1870.066717330001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>470</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3195,7 +3407,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3228,7 +3444,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3257,15 +3477,13 @@
         <v>-2190.066717330001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L82" t="n">
@@ -4628,16 +4846,18 @@
         <v>-452.2422000000006</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
       <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -4663,11 +4883,15 @@
         <v>-521.8664000000006</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4700,7 +4924,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4733,7 +4961,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4766,7 +4998,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4799,7 +5035,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4832,7 +5072,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4865,7 +5109,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4898,7 +5146,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4931,7 +5183,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4964,7 +5220,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4997,7 +5257,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5030,7 +5294,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5063,7 +5331,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5096,7 +5368,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5129,7 +5405,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5162,7 +5442,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5195,7 +5479,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5228,7 +5516,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5261,7 +5553,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5294,7 +5590,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5327,7 +5627,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5360,7 +5664,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5393,7 +5701,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5426,7 +5738,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5459,7 +5775,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5492,7 +5812,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5525,7 +5849,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5558,7 +5886,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5591,7 +5923,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5624,7 +5960,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5657,7 +5997,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5690,7 +6034,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5723,7 +6071,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5756,7 +6108,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5789,7 +6145,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5822,7 +6182,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5855,7 +6219,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5888,7 +6256,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5921,7 +6293,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5954,7 +6330,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5987,7 +6367,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6020,7 +6404,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6053,7 +6441,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6086,7 +6478,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6119,7 +6515,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6152,7 +6552,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6185,7 +6589,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6218,7 +6626,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6251,7 +6663,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6284,7 +6700,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6317,7 +6737,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6350,7 +6774,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6383,7 +6811,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6416,7 +6848,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6449,7 +6885,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6482,7 +6922,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6515,7 +6959,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6548,7 +6996,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6581,7 +7033,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6614,7 +7070,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6647,7 +7107,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6680,7 +7144,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6713,7 +7181,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6746,7 +7218,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6779,7 +7255,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6812,7 +7292,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6845,7 +7329,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6878,7 +7366,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6911,7 +7403,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6944,7 +7440,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6977,7 +7477,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7010,7 +7514,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7043,7 +7551,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7076,7 +7588,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7109,7 +7625,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7142,7 +7662,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7175,7 +7699,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7208,7 +7736,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7241,7 +7773,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7274,7 +7810,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7307,7 +7847,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7340,7 +7884,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7373,7 +7921,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7406,7 +7958,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7439,7 +7995,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7472,7 +8032,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7505,7 +8069,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7538,7 +8106,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7571,7 +8143,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7604,7 +8180,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7637,7 +8217,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7670,7 +8254,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7699,14 +8287,16 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
@@ -7831,7 +8421,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7897,7 +8487,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7930,7 +8520,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7963,7 +8553,7 @@
         <v>-292.1362930400005</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7996,7 +8586,7 @@
         <v>-428.1597930400005</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8095,7 +8685,7 @@
         <v>-427.1597930400005</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8128,7 +8718,7 @@
         <v>-548.9592930400005</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8458,7 +9048,7 @@
         <v>-310.7007930400005</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8491,7 +9081,7 @@
         <v>-538.8205930400005</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>

--- a/BackTest/2019-10-25 BackTest GXC.xlsx
+++ b/BackTest/2019-10-25 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:L237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1218.9377</v>
       </c>
       <c r="G2" t="n">
-        <v>-7377.750499999998</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>3787.0244</v>
       </c>
       <c r="G3" t="n">
-        <v>-7377.750499999998</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,22 +503,15 @@
         <v>383</v>
       </c>
       <c r="G4" t="n">
-        <v>-7377.750499999998</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,24 +533,15 @@
         <v>1300</v>
       </c>
       <c r="G5" t="n">
-        <v>-7377.750499999998</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>474</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -596,22 +563,15 @@
         <v>1348</v>
       </c>
       <c r="G6" t="n">
-        <v>-7377.750499999998</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,22 +593,15 @@
         <v>1169.2876</v>
       </c>
       <c r="G7" t="n">
-        <v>-7377.750499999998</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -670,22 +623,19 @@
         <v>1332.9462</v>
       </c>
       <c r="G8" t="n">
-        <v>-7377.750499999998</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="I8" t="n">
+        <v>474</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,24 +657,21 @@
         <v>287.4649</v>
       </c>
       <c r="G9" t="n">
-        <v>-7377.750499999998</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
         <v>474</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,24 +693,23 @@
         <v>72.146</v>
       </c>
       <c r="G10" t="n">
-        <v>-7305.604499999999</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>474</v>
       </c>
       <c r="I10" t="n">
         <v>474</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -785,24 +731,23 @@
         <v>72.146</v>
       </c>
       <c r="G11" t="n">
-        <v>-7377.750499999998</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>475</v>
       </c>
       <c r="I11" t="n">
-        <v>475</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -824,24 +769,23 @@
         <v>1025</v>
       </c>
       <c r="G12" t="n">
-        <v>-7377.750499999998</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>474</v>
       </c>
       <c r="I12" t="n">
         <v>474</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -863,24 +807,23 @@
         <v>1455.5843</v>
       </c>
       <c r="G13" t="n">
-        <v>-7377.750499999998</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>474</v>
       </c>
       <c r="I13" t="n">
         <v>474</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -902,24 +845,23 @@
         <v>99.849</v>
       </c>
       <c r="G14" t="n">
-        <v>-7477.599499999998</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>474</v>
       </c>
       <c r="I14" t="n">
         <v>474</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -941,24 +883,23 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>-7476.599499999998</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>471</v>
       </c>
       <c r="I15" t="n">
-        <v>471</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -980,22 +921,23 @@
         <v>1084.2557</v>
       </c>
       <c r="G16" t="n">
-        <v>-8560.855199999998</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>479</v>
+      </c>
+      <c r="I16" t="n">
+        <v>474</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1017,24 +959,23 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>-8559.855199999998</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>477</v>
       </c>
       <c r="I17" t="n">
-        <v>477</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1056,22 +997,21 @@
         <v>853.4919</v>
       </c>
       <c r="G18" t="n">
-        <v>-9413.347099999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>474</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1093,24 +1033,21 @@
         <v>521.6083</v>
       </c>
       <c r="G19" t="n">
-        <v>-9413.347099999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>476</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1132,24 +1069,21 @@
         <v>1113.5543</v>
       </c>
       <c r="G20" t="n">
-        <v>-8299.792799999999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>476</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1171,22 +1105,21 @@
         <v>1157.6921</v>
       </c>
       <c r="G21" t="n">
-        <v>-9457.484899999999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>474</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1208,22 +1141,21 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>-9456.484899999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>474</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1245,22 +1177,21 @@
         <v>2087.6826</v>
       </c>
       <c r="G23" t="n">
-        <v>-9456.484899999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>474</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1282,22 +1213,21 @@
         <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>-9452.484899999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>474</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1319,22 +1249,21 @@
         <v>486.6886</v>
       </c>
       <c r="G25" t="n">
-        <v>-9939.173499999999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>474</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1356,22 +1285,21 @@
         <v>1272.6206</v>
       </c>
       <c r="G26" t="n">
-        <v>-11211.7941</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>474</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1393,22 +1321,21 @@
         <v>77.0685</v>
       </c>
       <c r="G27" t="n">
-        <v>-11134.7256</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>474</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1430,22 +1357,21 @@
         <v>395.2552</v>
       </c>
       <c r="G28" t="n">
-        <v>-11529.9808</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>474</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1467,22 +1393,21 @@
         <v>257.3311</v>
       </c>
       <c r="G29" t="n">
-        <v>-11272.6497</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>474</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1504,22 +1429,21 @@
         <v>262.7156</v>
       </c>
       <c r="G30" t="n">
-        <v>-11009.9341</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>474</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1541,22 +1465,21 @@
         <v>286.848</v>
       </c>
       <c r="G31" t="n">
-        <v>-11296.7821</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>474</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1578,22 +1501,21 @@
         <v>107.7231</v>
       </c>
       <c r="G32" t="n">
-        <v>-11296.7821</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>474</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1615,22 +1537,21 @@
         <v>15.4609</v>
       </c>
       <c r="G33" t="n">
-        <v>-11296.7821</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>474</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1652,22 +1573,21 @@
         <v>235.66</v>
       </c>
       <c r="G34" t="n">
-        <v>-11532.4421</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>474</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1689,22 +1609,21 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-11531.4421</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>474</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1726,22 +1645,21 @@
         <v>2.9962</v>
       </c>
       <c r="G36" t="n">
-        <v>-11534.4383</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>474</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1763,22 +1681,21 @@
         <v>3.0822</v>
       </c>
       <c r="G37" t="n">
-        <v>-11537.5205</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>474</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1800,22 +1717,21 @@
         <v>110.8024</v>
       </c>
       <c r="G38" t="n">
-        <v>-11648.3229</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>474</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1837,24 +1753,21 @@
         <v>265.3552</v>
       </c>
       <c r="G39" t="n">
-        <v>-11648.3229</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>467</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1876,24 +1789,21 @@
         <v>443.6686</v>
       </c>
       <c r="G40" t="n">
-        <v>-11204.6543</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>467</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1915,24 +1825,21 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>-11203.6543</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>468</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1954,22 +1861,21 @@
         <v>109.4</v>
       </c>
       <c r="G42" t="n">
-        <v>-11313.0543</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>474</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1991,24 +1897,21 @@
         <v>469</v>
       </c>
       <c r="G43" t="n">
-        <v>-10844.0543</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>467</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2030,24 +1933,21 @@
         <v>1202.8813</v>
       </c>
       <c r="G44" t="n">
-        <v>-12046.9356</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>470</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2069,24 +1969,21 @@
         <v>278.961</v>
       </c>
       <c r="G45" t="n">
-        <v>-11767.9746</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>463</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2108,24 +2005,21 @@
         <v>615.8157</v>
       </c>
       <c r="G46" t="n">
-        <v>-12383.7903</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>475</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2147,24 +2041,21 @@
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>-12382.7903</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>465</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2186,24 +2077,21 @@
         <v>103.9539</v>
       </c>
       <c r="G48" t="n">
-        <v>-12382.7903</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>478</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2225,24 +2113,21 @@
         <v>292.8533</v>
       </c>
       <c r="G49" t="n">
-        <v>-12089.937</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>478</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2264,24 +2149,21 @@
         <v>155.117</v>
       </c>
       <c r="G50" t="n">
-        <v>-12245.054</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>479</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2303,22 +2185,21 @@
         <v>42.9643</v>
       </c>
       <c r="G51" t="n">
-        <v>-12202.0897</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>474</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2340,22 +2221,21 @@
         <v>2350.4653</v>
       </c>
       <c r="G52" t="n">
-        <v>-9851.624400000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>474</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2377,22 +2257,21 @@
         <v>45</v>
       </c>
       <c r="G53" t="n">
-        <v>-9896.624400000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>474</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2414,22 +2293,21 @@
         <v>168.0056</v>
       </c>
       <c r="G54" t="n">
-        <v>-10064.63</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>474</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2451,24 +2329,21 @@
         <v>21.314</v>
       </c>
       <c r="G55" t="n">
-        <v>-10085.944</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>479</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2490,22 +2365,21 @@
         <v>232.4265</v>
       </c>
       <c r="G56" t="n">
-        <v>-10318.3705</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>474</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2527,24 +2401,21 @@
         <v>2797.2759</v>
       </c>
       <c r="G57" t="n">
-        <v>-7521.0946</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>467</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2566,22 +2437,21 @@
         <v>143.343</v>
       </c>
       <c r="G58" t="n">
-        <v>-7664.4376</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>474</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2603,22 +2473,21 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>-7663.4376</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>474</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2640,22 +2509,21 @@
         <v>2.08768267</v>
       </c>
       <c r="G60" t="n">
-        <v>-7661.349917330001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>474</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2677,22 +2545,21 @@
         <v>1111.3795</v>
       </c>
       <c r="G61" t="n">
-        <v>-8772.72941733</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>474</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2714,24 +2581,21 @@
         <v>1159.5258</v>
       </c>
       <c r="G62" t="n">
-        <v>-9932.255217329999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>476</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2753,24 +2617,21 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>-9931.255217329999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>463</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2792,22 +2653,21 @@
         <v>160.021</v>
       </c>
       <c r="G64" t="n">
-        <v>-10091.27621733</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>474</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2829,22 +2689,21 @@
         <v>443.1404</v>
       </c>
       <c r="G65" t="n">
-        <v>-9648.13581733</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>474</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2866,22 +2725,21 @@
         <v>333.4131</v>
       </c>
       <c r="G66" t="n">
-        <v>-9981.548917329999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>474</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2903,22 +2761,21 @@
         <v>172.3425</v>
       </c>
       <c r="G67" t="n">
-        <v>-9981.548917329999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>474</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2940,24 +2797,21 @@
         <v>160</v>
       </c>
       <c r="G68" t="n">
-        <v>-9821.548917329999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>463</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2979,24 +2833,21 @@
         <v>335.5243</v>
       </c>
       <c r="G69" t="n">
-        <v>-9486.02461733</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>469</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3018,22 +2869,21 @@
         <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>-9488.02461733</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>474</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3055,24 +2905,21 @@
         <v>103.4507</v>
       </c>
       <c r="G71" t="n">
-        <v>-9384.573917330001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>469</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3094,24 +2941,21 @@
         <v>35.1347</v>
       </c>
       <c r="G72" t="n">
-        <v>-9419.708617330001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>476</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3133,24 +2977,21 @@
         <v>145.8118</v>
       </c>
       <c r="G73" t="n">
-        <v>-9565.520417330001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>475</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3172,24 +3013,21 @@
         <v>394.2051</v>
       </c>
       <c r="G74" t="n">
-        <v>-9171.315317330002</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>465</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3211,24 +3049,21 @@
         <v>247.4701</v>
       </c>
       <c r="G75" t="n">
-        <v>-9418.785417330002</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>475</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3250,22 +3085,21 @@
         <v>303.3417</v>
       </c>
       <c r="G76" t="n">
-        <v>-9115.443717330001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>474</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3287,22 +3121,21 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>-9114.443717330001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>474</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3324,22 +3157,21 @@
         <v>2053.2</v>
       </c>
       <c r="G78" t="n">
-        <v>-11167.64371733</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>474</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3361,24 +3193,21 @@
         <v>9297.576999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>-1870.066717330001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>470</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>474</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3400,22 +3229,21 @@
         <v>280</v>
       </c>
       <c r="G80" t="n">
-        <v>-2150.066717330001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>474</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3437,22 +3265,21 @@
         <v>745</v>
       </c>
       <c r="G81" t="n">
-        <v>-2150.066717330001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>474</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3474,22 +3301,21 @@
         <v>40</v>
       </c>
       <c r="G82" t="n">
-        <v>-2190.066717330001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>474</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3511,22 +3337,21 @@
         <v>744.6808</v>
       </c>
       <c r="G83" t="n">
-        <v>-1445.385917330001</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>474</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3548,22 +3373,21 @@
         <v>759.4642906</v>
       </c>
       <c r="G84" t="n">
-        <v>-685.9216267300006</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>474</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3585,22 +3409,21 @@
         <v>71.84699999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-685.9216267300006</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>474</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3622,22 +3445,21 @@
         <v>30.3109</v>
       </c>
       <c r="G86" t="n">
-        <v>-685.9216267300006</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>474</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3659,22 +3481,21 @@
         <v>90.93089999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>-685.9216267300006</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>474</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3696,22 +3517,21 @@
         <v>30.3109</v>
       </c>
       <c r="G88" t="n">
-        <v>-685.9216267300006</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>474</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3733,22 +3553,21 @@
         <v>41.9226</v>
       </c>
       <c r="G89" t="n">
-        <v>-685.9216267300006</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>474</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3770,22 +3589,21 @@
         <v>30.2483</v>
       </c>
       <c r="G90" t="n">
-        <v>-685.9216267300006</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>474</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3807,22 +3625,21 @@
         <v>29.168</v>
       </c>
       <c r="G91" t="n">
-        <v>-685.9216267300006</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>474</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3844,22 +3661,21 @@
         <v>9.722300000000001</v>
       </c>
       <c r="G92" t="n">
-        <v>-685.9216267300006</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>474</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3881,22 +3697,21 @@
         <v>22.168</v>
       </c>
       <c r="G93" t="n">
-        <v>-685.9216267300006</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>474</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3918,22 +3733,21 @@
         <v>3.6951</v>
       </c>
       <c r="G94" t="n">
-        <v>-685.9216267300006</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>474</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3955,22 +3769,21 @@
         <v>242.6767</v>
       </c>
       <c r="G95" t="n">
-        <v>-928.5983267300006</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>474</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3992,22 +3805,21 @@
         <v>218.409</v>
       </c>
       <c r="G96" t="n">
-        <v>-710.1893267300006</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>474</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4029,22 +3841,21 @@
         <v>35.5687</v>
       </c>
       <c r="G97" t="n">
-        <v>-674.6206267300006</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>474</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4066,22 +3877,21 @@
         <v>48.38482673</v>
       </c>
       <c r="G98" t="n">
-        <v>-626.2358000000006</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>474</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4103,22 +3913,21 @@
         <v>20.0329</v>
       </c>
       <c r="G99" t="n">
-        <v>-606.2029000000006</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>474</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4140,22 +3949,21 @@
         <v>6.6776</v>
       </c>
       <c r="G100" t="n">
-        <v>-606.2029000000006</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>474</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4177,22 +3985,21 @@
         <v>72</v>
       </c>
       <c r="G101" t="n">
-        <v>-678.2029000000006</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>474</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4214,22 +4021,21 @@
         <v>53</v>
       </c>
       <c r="G102" t="n">
-        <v>-625.2029000000006</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>474</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4251,22 +4057,21 @@
         <v>293.8459</v>
       </c>
       <c r="G103" t="n">
-        <v>-331.3570000000006</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>474</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4288,22 +4093,21 @@
         <v>114.8408</v>
       </c>
       <c r="G104" t="n">
-        <v>-216.5162000000006</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>474</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4325,22 +4129,21 @@
         <v>5.2971</v>
       </c>
       <c r="G105" t="n">
-        <v>-216.5162000000006</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>474</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4362,22 +4165,21 @@
         <v>157.7771</v>
       </c>
       <c r="G106" t="n">
-        <v>-374.2933000000006</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>474</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4399,22 +4201,21 @@
         <v>138.6999</v>
       </c>
       <c r="G107" t="n">
-        <v>-512.9932000000006</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>474</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4436,22 +4237,21 @@
         <v>115.8299</v>
       </c>
       <c r="G108" t="n">
-        <v>-397.1633000000006</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>474</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4473,22 +4273,21 @@
         <v>3.536</v>
       </c>
       <c r="G109" t="n">
-        <v>-393.6273000000006</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>474</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4510,22 +4309,21 @@
         <v>57.9204</v>
       </c>
       <c r="G110" t="n">
-        <v>-393.6273000000006</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>474</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4547,22 +4345,21 @@
         <v>58.0413</v>
       </c>
       <c r="G111" t="n">
-        <v>-451.6686000000005</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>474</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4584,22 +4381,21 @@
         <v>11.3838</v>
       </c>
       <c r="G112" t="n">
-        <v>-440.2848000000005</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>474</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4621,22 +4417,21 @@
         <v>42.8935</v>
       </c>
       <c r="G113" t="n">
-        <v>-483.1783000000005</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>474</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4658,22 +4453,21 @@
         <v>214.2911</v>
       </c>
       <c r="G114" t="n">
-        <v>-697.4694000000005</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>474</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4695,22 +4489,21 @@
         <v>142.146</v>
       </c>
       <c r="G115" t="n">
-        <v>-697.4694000000005</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>474</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4732,22 +4525,21 @@
         <v>73.998</v>
       </c>
       <c r="G116" t="n">
-        <v>-771.4674000000006</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>474</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4769,22 +4561,21 @@
         <v>120</v>
       </c>
       <c r="G117" t="n">
-        <v>-651.4674000000006</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>474</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4806,22 +4597,21 @@
         <v>21.7151</v>
       </c>
       <c r="G118" t="n">
-        <v>-673.1825000000006</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>474</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4843,22 +4633,21 @@
         <v>220.9403</v>
       </c>
       <c r="G119" t="n">
-        <v>-452.2422000000006</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>474</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4880,22 +4669,21 @@
         <v>69.6242</v>
       </c>
       <c r="G120" t="n">
-        <v>-521.8664000000006</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>474</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4917,22 +4705,21 @@
         <v>228.7696</v>
       </c>
       <c r="G121" t="n">
-        <v>-293.0968000000006</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>474</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4954,22 +4741,21 @@
         <v>240</v>
       </c>
       <c r="G122" t="n">
-        <v>-53.0968000000006</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>474</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4991,22 +4777,21 @@
         <v>80</v>
       </c>
       <c r="G123" t="n">
-        <v>26.9031999999994</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>474</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5028,22 +4813,21 @@
         <v>141.2314</v>
       </c>
       <c r="G124" t="n">
-        <v>-114.3282000000006</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>474</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5065,22 +4849,21 @@
         <v>90.7959</v>
       </c>
       <c r="G125" t="n">
-        <v>-23.5323000000006</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>474</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5102,22 +4885,21 @@
         <v>183.078</v>
       </c>
       <c r="G126" t="n">
-        <v>-206.6103000000006</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>474</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5139,22 +4921,21 @@
         <v>143.4545</v>
       </c>
       <c r="G127" t="n">
-        <v>-350.0648000000006</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>474</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5176,22 +4957,21 @@
         <v>328.4233</v>
       </c>
       <c r="G128" t="n">
-        <v>-21.64150000000063</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>474</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5213,22 +4993,21 @@
         <v>11.8524</v>
       </c>
       <c r="G129" t="n">
-        <v>-9.789100000000634</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>474</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5250,22 +5029,21 @@
         <v>33.9041</v>
       </c>
       <c r="G130" t="n">
-        <v>-43.69320000000063</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>474</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5287,22 +5065,21 @@
         <v>930.2537</v>
       </c>
       <c r="G131" t="n">
-        <v>-43.69320000000063</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>474</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5324,22 +5101,21 @@
         <v>119.0126</v>
       </c>
       <c r="G132" t="n">
-        <v>-162.7058000000006</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>474</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5361,22 +5137,21 @@
         <v>23.3914</v>
       </c>
       <c r="G133" t="n">
-        <v>-139.3144000000006</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>474</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5398,22 +5173,21 @@
         <v>61.1862</v>
       </c>
       <c r="G134" t="n">
-        <v>-78.12820000000063</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>474</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5435,22 +5209,21 @@
         <v>178.6402</v>
       </c>
       <c r="G135" t="n">
-        <v>-256.7684000000006</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>474</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5472,22 +5245,21 @@
         <v>200.5493</v>
       </c>
       <c r="G136" t="n">
-        <v>-457.3177000000006</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>474</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5509,22 +5281,21 @@
         <v>71.77930000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>-385.5384000000006</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>474</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5546,22 +5317,21 @@
         <v>274.6294</v>
       </c>
       <c r="G138" t="n">
-        <v>-110.9090000000006</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>474</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5583,22 +5353,21 @@
         <v>15.95470696</v>
       </c>
       <c r="G139" t="n">
-        <v>-94.95429304000062</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>474</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5620,22 +5389,21 @@
         <v>80</v>
       </c>
       <c r="G140" t="n">
-        <v>-174.9542930400006</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>474</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5657,22 +5425,21 @@
         <v>7.823</v>
       </c>
       <c r="G141" t="n">
-        <v>-174.9542930400006</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>474</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5694,22 +5461,21 @@
         <v>427.8027</v>
       </c>
       <c r="G142" t="n">
-        <v>-602.7569930400007</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>474</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5731,22 +5497,21 @@
         <v>29.1521</v>
       </c>
       <c r="G143" t="n">
-        <v>-573.6048930400007</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>474</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5768,22 +5533,21 @@
         <v>21.8638</v>
       </c>
       <c r="G144" t="n">
-        <v>-573.6048930400007</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>474</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5805,22 +5569,21 @@
         <v>63.6686</v>
       </c>
       <c r="G145" t="n">
-        <v>-573.6048930400007</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>474</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5842,22 +5605,21 @@
         <v>17.4024</v>
       </c>
       <c r="G146" t="n">
-        <v>-591.0072930400006</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>474</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5879,22 +5641,21 @@
         <v>228</v>
       </c>
       <c r="G147" t="n">
-        <v>-819.0072930400006</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>474</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5916,22 +5677,21 @@
         <v>77.5291</v>
       </c>
       <c r="G148" t="n">
-        <v>-819.0072930400006</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>474</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5953,22 +5713,21 @@
         <v>186.8376</v>
       </c>
       <c r="G149" t="n">
-        <v>-1005.844893040001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>474</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5990,22 +5749,21 @@
         <v>77.6759</v>
       </c>
       <c r="G150" t="n">
-        <v>-1005.844893040001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>474</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6027,22 +5785,21 @@
         <v>80</v>
       </c>
       <c r="G151" t="n">
-        <v>-1085.844893040001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>474</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6064,22 +5821,21 @@
         <v>43</v>
       </c>
       <c r="G152" t="n">
-        <v>-1128.844893040001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>474</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6101,22 +5857,21 @@
         <v>11</v>
       </c>
       <c r="G153" t="n">
-        <v>-1139.844893040001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>474</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6138,22 +5893,21 @@
         <v>50</v>
       </c>
       <c r="G154" t="n">
-        <v>-1139.844893040001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>474</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6175,22 +5929,21 @@
         <v>6.1146</v>
       </c>
       <c r="G155" t="n">
-        <v>-1133.730293040001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>474</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6212,22 +5965,21 @@
         <v>56</v>
       </c>
       <c r="G156" t="n">
-        <v>-1189.730293040001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>474</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6249,22 +6001,21 @@
         <v>50</v>
       </c>
       <c r="G157" t="n">
-        <v>-1189.730293040001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>474</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6286,22 +6037,21 @@
         <v>100</v>
       </c>
       <c r="G158" t="n">
-        <v>-1189.730293040001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>474</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6323,22 +6073,21 @@
         <v>624.6678000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>-565.0624930400005</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>474</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6360,22 +6109,21 @@
         <v>13.3811</v>
       </c>
       <c r="G160" t="n">
-        <v>-551.6813930400006</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>474</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6397,22 +6145,21 @@
         <v>14.3897</v>
       </c>
       <c r="G161" t="n">
-        <v>-551.6813930400006</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>474</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6434,22 +6181,21 @@
         <v>62</v>
       </c>
       <c r="G162" t="n">
-        <v>-551.6813930400006</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>474</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6471,22 +6217,21 @@
         <v>197.49</v>
       </c>
       <c r="G163" t="n">
-        <v>-749.1713930400006</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>474</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6508,22 +6253,21 @@
         <v>60.6071</v>
       </c>
       <c r="G164" t="n">
-        <v>-688.5642930400006</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>474</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6545,22 +6289,21 @@
         <v>20.1747</v>
       </c>
       <c r="G165" t="n">
-        <v>-688.5642930400006</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>474</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6582,22 +6325,21 @@
         <v>34.4968</v>
       </c>
       <c r="G166" t="n">
-        <v>-688.5642930400006</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>474</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6619,22 +6361,21 @@
         <v>57.3514</v>
       </c>
       <c r="G167" t="n">
-        <v>-688.5642930400006</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>474</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6656,22 +6397,21 @@
         <v>124.4394</v>
       </c>
       <c r="G168" t="n">
-        <v>-813.0036930400006</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>474</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6693,22 +6433,21 @@
         <v>172.4583</v>
       </c>
       <c r="G169" t="n">
-        <v>-640.5453930400006</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>474</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6730,22 +6469,21 @@
         <v>20.3598</v>
       </c>
       <c r="G170" t="n">
-        <v>-620.1855930400006</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>474</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6767,22 +6505,21 @@
         <v>36.1568</v>
       </c>
       <c r="G171" t="n">
-        <v>-620.1855930400006</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>474</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6804,22 +6541,21 @@
         <v>41.6463</v>
       </c>
       <c r="G172" t="n">
-        <v>-620.1855930400006</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>474</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6841,22 +6577,21 @@
         <v>13.8828</v>
       </c>
       <c r="G173" t="n">
-        <v>-620.1855930400006</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>474</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6878,22 +6613,21 @@
         <v>37.4831</v>
       </c>
       <c r="G174" t="n">
-        <v>-620.1855930400006</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>474</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6915,22 +6649,21 @@
         <v>23.2845</v>
       </c>
       <c r="G175" t="n">
-        <v>-620.1855930400006</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>474</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6952,22 +6685,21 @@
         <v>729.4125</v>
       </c>
       <c r="G176" t="n">
-        <v>109.2269069599994</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>474</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6989,22 +6721,21 @@
         <v>1594.202</v>
       </c>
       <c r="G177" t="n">
-        <v>-1484.975093040001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>474</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7026,22 +6757,21 @@
         <v>441.4507</v>
       </c>
       <c r="G178" t="n">
-        <v>-1043.524393040001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>474</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7063,22 +6793,21 @@
         <v>209.572</v>
       </c>
       <c r="G179" t="n">
-        <v>-833.9523930400006</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>474</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7100,22 +6829,21 @@
         <v>15.4038</v>
       </c>
       <c r="G180" t="n">
-        <v>-818.5485930400006</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>474</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7137,22 +6865,21 @@
         <v>39.6262</v>
       </c>
       <c r="G181" t="n">
-        <v>-858.1747930400006</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>474</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7174,22 +6901,21 @@
         <v>62</v>
       </c>
       <c r="G182" t="n">
-        <v>-920.1747930400006</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>474</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7211,22 +6937,21 @@
         <v>164.5461</v>
       </c>
       <c r="G183" t="n">
-        <v>-920.1747930400006</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>474</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7248,22 +6973,21 @@
         <v>972.6074</v>
       </c>
       <c r="G184" t="n">
-        <v>52.43260695999936</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>474</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7285,22 +7009,21 @@
         <v>4.8959</v>
       </c>
       <c r="G185" t="n">
-        <v>52.43260695999936</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>474</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7322,22 +7045,21 @@
         <v>22.926</v>
       </c>
       <c r="G186" t="n">
-        <v>75.35860695999936</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>474</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7359,22 +7081,21 @@
         <v>8.027699999999999</v>
       </c>
       <c r="G187" t="n">
-        <v>67.33090695999937</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>474</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7396,22 +7117,21 @@
         <v>157.4464</v>
       </c>
       <c r="G188" t="n">
-        <v>-90.11549304000064</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>474</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7433,22 +7153,21 @@
         <v>96.1399</v>
       </c>
       <c r="G189" t="n">
-        <v>6.024406959999354</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>474</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7470,22 +7189,21 @@
         <v>894.9924</v>
       </c>
       <c r="G190" t="n">
-        <v>-888.9679930400006</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>474</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7507,22 +7225,21 @@
         <v>187.4589</v>
       </c>
       <c r="G191" t="n">
-        <v>-701.5090930400006</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>474</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7544,22 +7261,21 @@
         <v>48.0807</v>
       </c>
       <c r="G192" t="n">
-        <v>-701.5090930400006</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>474</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7581,22 +7297,21 @@
         <v>198.3368</v>
       </c>
       <c r="G193" t="n">
-        <v>-503.1722930400006</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>474</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7618,22 +7333,21 @@
         <v>292.4976</v>
       </c>
       <c r="G194" t="n">
-        <v>-795.6698930400005</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>474</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7655,22 +7369,21 @@
         <v>90</v>
       </c>
       <c r="G195" t="n">
-        <v>-885.6698930400005</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>474</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7692,22 +7405,21 @@
         <v>129.7581</v>
       </c>
       <c r="G196" t="n">
-        <v>-1015.427993040001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>474</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7729,22 +7441,21 @@
         <v>165.2702</v>
       </c>
       <c r="G197" t="n">
-        <v>-1015.427993040001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>474</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7766,22 +7477,21 @@
         <v>420.0066</v>
       </c>
       <c r="G198" t="n">
-        <v>-595.4213930400006</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>474</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7803,22 +7513,21 @@
         <v>327.756</v>
       </c>
       <c r="G199" t="n">
-        <v>-595.4213930400006</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>474</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7840,22 +7549,21 @@
         <v>336.81</v>
       </c>
       <c r="G200" t="n">
-        <v>-258.6113930400006</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>474</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7877,22 +7585,21 @@
         <v>347.4253</v>
       </c>
       <c r="G201" t="n">
-        <v>-606.0366930400005</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>474</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7914,22 +7621,21 @@
         <v>163.1859</v>
       </c>
       <c r="G202" t="n">
-        <v>-769.2225930400004</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>474</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7951,22 +7657,21 @@
         <v>283.2978</v>
       </c>
       <c r="G203" t="n">
-        <v>-485.9247930400005</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>474</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7988,22 +7693,21 @@
         <v>16.1792</v>
       </c>
       <c r="G204" t="n">
-        <v>-469.7455930400005</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>474</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8025,22 +7729,21 @@
         <v>84.76479999999999</v>
       </c>
       <c r="G205" t="n">
-        <v>-384.9807930400005</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>474</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8062,22 +7765,21 @@
         <v>105.6344</v>
       </c>
       <c r="G206" t="n">
-        <v>-490.6151930400005</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>474</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8099,22 +7801,21 @@
         <v>26.3905</v>
       </c>
       <c r="G207" t="n">
-        <v>-490.6151930400005</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>474</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8136,22 +7837,21 @@
         <v>198.4789</v>
       </c>
       <c r="G208" t="n">
-        <v>-292.1362930400005</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>474</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8173,22 +7873,21 @@
         <v>35.5766</v>
       </c>
       <c r="G209" t="n">
-        <v>-292.1362930400005</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>474</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8210,22 +7909,21 @@
         <v>35.5756</v>
       </c>
       <c r="G210" t="n">
-        <v>-292.1362930400005</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>474</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8247,22 +7945,21 @@
         <v>124.1972</v>
       </c>
       <c r="G211" t="n">
-        <v>-292.1362930400005</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>474</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8284,20 +7981,21 @@
         <v>8.8711</v>
       </c>
       <c r="G212" t="n">
-        <v>-292.1362930400005</v>
-      </c>
-      <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>474</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
       </c>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8319,18 +8017,21 @@
         <v>61.4365</v>
       </c>
       <c r="G213" t="n">
-        <v>-292.1362930400005</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>474</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8352,18 +8053,21 @@
         <v>10.2392</v>
       </c>
       <c r="G214" t="n">
-        <v>-292.1362930400005</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>474</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8385,18 +8089,21 @@
         <v>5.1196</v>
       </c>
       <c r="G215" t="n">
-        <v>-292.1362930400005</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>474</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8418,18 +8125,21 @@
         <v>2.5603</v>
       </c>
       <c r="G216" t="n">
-        <v>-292.1362930400005</v>
-      </c>
-      <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>474</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8451,18 +8161,21 @@
         <v>2.5603</v>
       </c>
       <c r="G217" t="n">
-        <v>-292.1362930400005</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>474</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8484,18 +8197,21 @@
         <v>82.27719999999999</v>
       </c>
       <c r="G218" t="n">
-        <v>-292.1362930400005</v>
-      </c>
-      <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>474</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8517,18 +8233,21 @@
         <v>37.3812</v>
       </c>
       <c r="G219" t="n">
-        <v>-292.1362930400005</v>
-      </c>
-      <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>474</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8550,18 +8269,21 @@
         <v>5.3404</v>
       </c>
       <c r="G220" t="n">
-        <v>-292.1362930400005</v>
-      </c>
-      <c r="H220" t="n">
         <v>2</v>
       </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>474</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1.026645569620253</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8583,18 +8305,15 @@
         <v>136.0235</v>
       </c>
       <c r="G221" t="n">
-        <v>-428.1597930400005</v>
-      </c>
-      <c r="H221" t="n">
         <v>2</v>
       </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8616,18 +8335,15 @@
         <v>1</v>
       </c>
       <c r="G222" t="n">
-        <v>-427.1597930400005</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8649,18 +8365,15 @@
         <v>21.9426</v>
       </c>
       <c r="G223" t="n">
-        <v>-427.1597930400005</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8682,18 +8395,15 @@
         <v>3.1349</v>
       </c>
       <c r="G224" t="n">
-        <v>-427.1597930400005</v>
-      </c>
-      <c r="H224" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8715,18 +8425,15 @@
         <v>121.7995</v>
       </c>
       <c r="G225" t="n">
-        <v>-548.9592930400005</v>
-      </c>
-      <c r="H225" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8748,18 +8455,15 @@
         <v>96.5305</v>
       </c>
       <c r="G226" t="n">
-        <v>-452.4287930400005</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8781,18 +8485,15 @@
         <v>99.20650000000001</v>
       </c>
       <c r="G227" t="n">
-        <v>-551.6352930400005</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8814,18 +8515,15 @@
         <v>80</v>
       </c>
       <c r="G228" t="n">
-        <v>-471.6352930400005</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8847,18 +8545,15 @@
         <v>120.323</v>
       </c>
       <c r="G229" t="n">
-        <v>-591.9582930400005</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8880,18 +8575,15 @@
         <v>321.199</v>
       </c>
       <c r="G230" t="n">
-        <v>-270.7592930400005</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8913,18 +8605,15 @@
         <v>53.7088</v>
       </c>
       <c r="G231" t="n">
-        <v>-324.4680930400005</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8946,18 +8635,15 @@
         <v>16.0782</v>
       </c>
       <c r="G232" t="n">
-        <v>-308.3898930400005</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8979,18 +8665,15 @@
         <v>60</v>
       </c>
       <c r="G233" t="n">
-        <v>-368.3898930400005</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9012,18 +8695,15 @@
         <v>57.6891</v>
       </c>
       <c r="G234" t="n">
-        <v>-310.7007930400005</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9045,18 +8725,15 @@
         <v>11.3803</v>
       </c>
       <c r="G235" t="n">
-        <v>-310.7007930400005</v>
-      </c>
-      <c r="H235" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9078,18 +8755,15 @@
         <v>228.1198</v>
       </c>
       <c r="G236" t="n">
-        <v>-538.8205930400005</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9111,18 +8785,15 @@
         <v>87.143</v>
       </c>
       <c r="G237" t="n">
-        <v>-451.6775930400005</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
